--- a/GATEWAY/A1#200000SWHCGMXX/COMPUGROUP_MEDICAL_ITALIA_S.R.L/INFANTIA/6.06/report-checklist.xlsx
+++ b/GATEWAY/A1#200000SWHCGMXX/COMPUGROUP_MEDICAL_ITALIA_S.R.L/INFANTIA/6.06/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cgm01-my.sharepoint.com/personal/domenico_depinto_cgm_com/Documents/Desktop/validazione/Caricamento SMART/INFANTIA/DA CARICARE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="13_ncr:1_{1F24850C-8DFB-4B05-9D3A-C0BE7F771772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C26A0C9C-5F5B-475C-AE91-88B820F10AE4}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{6BB359D7-4C82-4617-8601-D4CF5A40298E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A00EDFD-91BF-4004-B96D-60C78EA1173D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Summary!$A$1:$G$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$W$200</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$W$191</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="460">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -431,27 +431,6 @@
     <t>VALIDAZIONE_VPS_TIMEOUT</t>
   </si>
   <si>
-    <t>VALIDAZIONE_CDA2_LAB_CT6_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LAB_CT7_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LAB_CT8_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_LAB_CT9_KO</t>
   </si>
   <si>
@@ -508,15 +487,9 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>VALIDAZIONE_CDA2_LDO_CT5_KO</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_LDO_CT6_KO</t>
   </si>
   <si>
-    <t>VALIDAZIONE_CDA2_LDO_CT7_KO</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_LDO_CT8_KO</t>
   </si>
   <si>
@@ -544,17 +517,7 @@
     <t>VALIDAZIONE_CDA2_LDO_CT16_KO</t>
   </si>
   <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT5_KO</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_RAD_CT6_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT7_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAD_CT8_KO</t>
@@ -625,17 +588,7 @@
     <t>VALIDAZIONE_CDA2_RAD_CT23_KO</t>
   </si>
   <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT5_KO</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_CERT_VAC_CT6_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT7_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_CERT_VAC_CT8_KO</t>
@@ -676,13 +629,7 @@
     <t>VALIDAZIONE_CDA2_CERT_VAC_CT17_KO</t>
   </si>
   <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT5_KO</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_SING_VAC_CT6_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT7_KO</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_SING_VAC_CT8_KO</t>
@@ -725,13 +672,6 @@
     <t>VALIDAZIONE_CDA2_SING_VAC_CT19_KO</t>
   </si>
   <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT5_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_VPS_CT6_KO</t>
   </si>
   <si>
@@ -739,13 +679,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT7_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_VPS_CT8_KO</t>
   </si>
   <si>
@@ -872,17 +805,7 @@
     <t>VALIDAZIONE_CDA2_VPS_CT29_KO</t>
   </si>
   <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT5_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_RSA_CT6_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT7_KO</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT8_KO</t>
@@ -944,17 +867,7 @@
     <t>VALIDAZIONE_CDA2_PSS_CT2</t>
   </si>
   <si>
-    <t>VALIDAZIONE_CDA2_PSS_CT5_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_PSS_CT6_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_PSS_CT7_KO</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_PSS_CT8_KO</t>
@@ -1016,27 +929,6 @@
   </si>
   <si>
     <t>Validazione</t>
-  </si>
-  <si>
-    <t>28,36,44,52,53,54,55,56,57,58,59,60,61,62</t>
-  </si>
-  <si>
-    <t>29,37,45,63,64,65,66,67,68,69,70,71,72,73,74</t>
-  </si>
-  <si>
-    <t>31,39,47,75,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93</t>
-  </si>
-  <si>
-    <t>33,41,49,94,95,96,97,98,99,100,101,102,103,104,105,106</t>
-  </si>
-  <si>
-    <t>34,42,50,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121</t>
-  </si>
-  <si>
-    <t>35,43,51,122,123,124,125,126,127,128,129,130,131,132,133,134,135,136,137,138,139,140,141,142,143,144,145,146</t>
-  </si>
-  <si>
-    <t>30,38,46,174,175,176,177,178,179,180,181,182,183,184,185,186,187,188,189,190</t>
   </si>
   <si>
     <t>LAB - TRASF</t>
@@ -1173,9 +1065,6 @@
     <t>VALIDAZIONE_RAP_TIMEOUT</t>
   </si>
   <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT6_KO</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_RAP_CT12_KO</t>
   </si>
   <si>
@@ -1226,14 +1115,7 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>423,424,425,426,427,428,429,430,431,432,433,434,435,436,437,438,439,440,441,442,443,448,449</t>
-  </si>
-  <si>
     <t>TIPO DOCUMENTO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
@@ -1330,14 +1212,6 @@
 Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
@@ -1378,10 +1252,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
@@ -1426,10 +1296,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
@@ -1466,18 +1332,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
@@ -1543,10 +1401,6 @@
   </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -1564,10 +1418,6 @@
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
@@ -1757,13 +1607,100 @@
     <t>417, 418, 419, 460</t>
   </si>
   <si>
-    <t>32,40,48,151,152,153,154,155,156,157,158,159,160,161,162,163,164,165,166,167,168,169, 461</t>
-  </si>
-  <si>
-    <t>8.2.3</t>
-  </si>
-  <si>
-    <t>3) Per le tipologie documentali PSS, RAP, RAD, RSA, LDO, LAB, VPS, SING_VACC, CERT_VACC i relativi casi di test con id 444, 417, 418, 460, 446, 448, 450, 452,454, 456, 457, 458, che recepiscono quanto previsto dal Decreto 07 settembre 2023, devono essere obbligatoriamente eseguiti e compilati (la colonna APPLICABILITA' deve essere valorizzata con SI)</t>
+    <t>3) Nel caso in cui tra le tipologie documentali oggetto di accreditamento per l'applicativo figurino PSS, RAP, RAD, RSA, LDO, LAB, VPS, SING_VACC, CERT_VACC i relativi casi di test con id 444, 417, 418, 460, 446, 448, 450, 452,454, 456, 457, 458 che recepiscono quanto previsto dal Decreto 07 settembre 2023, devono essere obbligatoriamente eseguiti e compilati (la colonna APPLICABILITA' deve essere valorizzata con SI)</t>
+  </si>
+  <si>
+    <t>8.2.4</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT24_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 24" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT32_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 32" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_CERT_VAC_CT20_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_SING_VAC_CT21_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT19_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT27_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 27" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_PSS_CT22_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT25_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 25" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LAB_CT18</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>28,36,44,53,55,56,57,58,59,60,61,62, 466</t>
+  </si>
+  <si>
+    <t>29,37,45,64,66,67,68,69,70,71,72,73,74, 467</t>
+  </si>
+  <si>
+    <t>31,39,47,76,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93, 462</t>
+  </si>
+  <si>
+    <t>33,41,49,95,97,98,99,100,101,102,103,104,105,106, 464</t>
+  </si>
+  <si>
+    <t>34,42,50,108,110,111,112,113,114,115,116,117,118,119,120,121, 465</t>
+  </si>
+  <si>
+    <t>35,43,51,123,125,126,127,128,129,130,131,132,133,134,135,136,137,138,139,140,141,142,143,144,145,146, 463</t>
+  </si>
+  <si>
+    <t>32,40,48,152,154,155,156,157,158,159,160,161,162,163,164,165,166,167,168,169, 461, 468</t>
+  </si>
+  <si>
+    <t>30,38,46,175,177,178,179,180,181,182,183,184,185,186,187,188,189,190, 469</t>
+  </si>
+  <si>
+    <t>423,424,425,427,428,429,430,431,432,433,434,435,436,437,438,439,440,441,442,443,448,449, 470</t>
   </si>
   <si>
     <t>Il nostro sw non permette di generare un JWT senza campi obbligatori e nel caso in cui dovesse accadere l'invio validazione non avverrebbe quindi questo test non è simulabile</t>
@@ -1772,15 +1709,15 @@
     <t>Le informazioni che compongono il jwt sono recuperate automaticamente e in caso di informazioni errate non avviene l'invio per la validazione</t>
   </si>
   <si>
-    <t>Il nostro sw non permette all'utente di poter evitare di inserire il livello di riservatezza in quanto il dato è obbligatorio e di default valorizzato a "N"</t>
+    <t>Timeout scaduto. È trascorso il periodo di timeout prima del completamento dell'operazione</t>
+  </si>
+  <si>
+    <t>Il medico clicca su "OK" sulla finestra di errore quindi può ritentare l'invio</t>
   </si>
   <si>
     <t>Non eseguito</t>
   </si>
   <si>
-    <t>Lo scenario non è applicabile in quanto il nostro SW invia di default il valore N come da specifiche e non è data possibilità all'utente di poter manipolare quel valore</t>
-  </si>
-  <si>
     <t>Il nostro sw non permette di incorrere in questo caso in quanto anche se assenti in cartella clinica la città di residenza/domicilio del paziente il campo "city" viene sempre inviato vuoto essendo obbligatorio</t>
   </si>
   <si>
@@ -1823,25 +1760,25 @@
     <t>Non è possibile valorizzare il codice in questione con un valore diverso da S quindi l'utente non può mai incorrere in questo errore / scenario</t>
   </si>
   <si>
+    <t>subject_application_vendor: COMPUGROUP MEDICAL ITALIA S.R.L.</t>
+  </si>
+  <si>
+    <t>subject_application_version: 6.06</t>
+  </si>
+  <si>
     <t>Come da email del 13/01/2025 di Segreteria Tecnica FSE - Andrea Di Pietra con oggetto Oggetto: FSE 2.0 - Richiesta di sollecito accreditamento applicativi (cha ha superato il Test 0) , dove si specifica che "il superamento della fase 1 del processo di accreditamento è ritenuto valido se l’applicativo supera almeno il caso di test 1, tra quelli attualmente previsti per il Profilo Sanitario Sintetico sul sito di GitHub Test Case Profilo Sanitario Sintetico."</t>
   </si>
   <si>
-    <t>subject_application_vendor: COMPUGROUP MEDICAL ITALIA S.R.L.</t>
+    <t>2025-04-24T04:51:00Z</t>
+  </si>
+  <si>
+    <t>12c0b3518fe181acb922d5d6560416db</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190201.4.4.9eb93602b302c324f7f812128a82974ebc215f451cdf850428e498734718fded.5443f12a00^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>subject_application_id: INFANTIA</t>
-  </si>
-  <si>
-    <t>subject_application_version: 6.06</t>
-  </si>
-  <si>
-    <t>2025-04-24T04:51:00Z</t>
-  </si>
-  <si>
-    <t>12c0b3518fe181acb922d5d6560416db</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190201.4.4.9eb93602b302c324f7f812128a82974ebc215f451cdf850428e498734718fded.5443f12a00^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -1851,7 +1788,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1964,6 +1901,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2317,14 +2260,12 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="medium">
         <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2375,12 +2316,14 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2389,7 +2332,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2484,9 +2427,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2502,11 +2442,18 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -2523,11 +2470,8 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2548,6 +2492,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal 2" xfId="1" xr:uid="{565105C8-FFD6-432C-8B2E-BD1D172FCD26}"/>
@@ -2844,8 +2791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2861,7 +2808,7 @@
     </row>
     <row r="2" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>288</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
@@ -2871,22 +2818,22 @@
     </row>
     <row r="4" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>451</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="300" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>285</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>286</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
@@ -2987,7 +2934,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>284</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3996,13 +3943,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:W775"/>
+  <dimension ref="A1:W756"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B178" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B151" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A178" sqref="A178"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4044,12 +3991,12 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="54"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="55"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -4070,14 +4017,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="42" t="s">
-        <v>473</v>
-      </c>
-      <c r="D3" s="49"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="63" t="s">
+        <v>459</v>
+      </c>
+      <c r="D3" s="55"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -4098,12 +4045,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="42" t="s">
-        <v>472</v>
-      </c>
-      <c r="D4" s="49"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="63" t="s">
+        <v>453</v>
+      </c>
+      <c r="D4" s="55"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -4125,12 +4072,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="42" t="s">
-        <v>474</v>
-      </c>
-      <c r="D5" s="49"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="63" t="s">
+        <v>454</v>
+      </c>
+      <c r="D5" s="55"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -4151,8 +4098,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
-      <c r="B6" s="52"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -4251,7 +4198,7 @@
         <v>24</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c r="M9" s="20" t="s">
         <v>25</v>
@@ -4266,10 +4213,10 @@
         <v>28</v>
       </c>
       <c r="Q9" s="20" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="R9" s="20" t="s">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="S9" s="20" t="s">
         <v>29</v>
@@ -4288,28 +4235,26 @@
       </c>
     </row>
     <row r="10" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="39">
+      <c r="A10" s="38">
         <v>4</v>
       </c>
-      <c r="B10" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="37" t="s">
+      <c r="B10" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="36" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>423</v>
+        <v>379</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>424</v>
-      </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
+        <v>380</v>
+      </c>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
       <c r="I10" s="33"/>
-      <c r="J10" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="J10" s="29"/>
       <c r="K10" s="29"/>
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
@@ -4323,7 +4268,7 @@
       <c r="U10" s="34"/>
       <c r="V10" s="35"/>
       <c r="W10" s="29" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4333,7 +4278,7 @@
       <c r="B11" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="37" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="31" t="s">
@@ -4345,10 +4290,8 @@
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
       <c r="H11" s="33"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I11" s="39"/>
+      <c r="J11" s="29"/>
       <c r="K11" s="29"/>
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
@@ -4372,7 +4315,7 @@
       <c r="B12" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="37" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="31" t="s">
@@ -4384,10 +4327,8 @@
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I12" s="39"/>
+      <c r="J12" s="29"/>
       <c r="K12" s="29"/>
       <c r="L12" s="29"/>
       <c r="M12" s="29"/>
@@ -4411,7 +4352,7 @@
       <c r="B13" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D13" s="31" t="s">
@@ -4423,15 +4364,15 @@
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
-      <c r="I13" s="40"/>
+      <c r="I13" s="39"/>
       <c r="J13" s="29" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="K13" s="29" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="L13" s="29" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="M13" s="29"/>
       <c r="N13" s="29"/>
@@ -4454,7 +4395,7 @@
       <c r="B14" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="37" t="s">
         <v>38</v>
       </c>
       <c r="D14" s="31" t="s">
@@ -4466,10 +4407,8 @@
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I14" s="39"/>
+      <c r="J14" s="29"/>
       <c r="K14" s="29"/>
       <c r="L14" s="29"/>
       <c r="M14" s="29"/>
@@ -4493,7 +4432,7 @@
       <c r="B15" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="37" t="s">
         <v>51</v>
       </c>
       <c r="D15" s="31" t="s">
@@ -4505,10 +4444,8 @@
       <c r="F15" s="33"/>
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I15" s="39"/>
+      <c r="J15" s="29"/>
       <c r="K15" s="29"/>
       <c r="L15" s="29"/>
       <c r="M15" s="29"/>
@@ -4532,7 +4469,7 @@
       <c r="B16" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="37" t="s">
         <v>41</v>
       </c>
       <c r="D16" s="31" t="s">
@@ -4544,10 +4481,8 @@
       <c r="F16" s="33"/>
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I16" s="39"/>
+      <c r="J16" s="29"/>
       <c r="K16" s="29"/>
       <c r="L16" s="29"/>
       <c r="M16" s="29"/>
@@ -4571,7 +4506,7 @@
       <c r="B17" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="37" t="s">
         <v>42</v>
       </c>
       <c r="D17" s="31" t="s">
@@ -4583,10 +4518,8 @@
       <c r="F17" s="33"/>
       <c r="G17" s="33"/>
       <c r="H17" s="33"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I17" s="39"/>
+      <c r="J17" s="29"/>
       <c r="K17" s="29"/>
       <c r="L17" s="29"/>
       <c r="M17" s="29"/>
@@ -4610,7 +4543,7 @@
       <c r="B18" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="37" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="31" t="s">
@@ -4622,10 +4555,8 @@
       <c r="F18" s="33"/>
       <c r="G18" s="33"/>
       <c r="H18" s="33"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I18" s="39"/>
+      <c r="J18" s="29"/>
       <c r="K18" s="29"/>
       <c r="L18" s="29"/>
       <c r="M18" s="29"/>
@@ -4649,7 +4580,7 @@
       <c r="B19" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="37" t="s">
         <v>35</v>
       </c>
       <c r="D19" s="31" t="s">
@@ -4661,10 +4592,8 @@
       <c r="F19" s="33"/>
       <c r="G19" s="33"/>
       <c r="H19" s="33"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I19" s="39"/>
+      <c r="J19" s="29"/>
       <c r="K19" s="29"/>
       <c r="L19" s="29"/>
       <c r="M19" s="29"/>
@@ -4688,7 +4617,7 @@
       <c r="B20" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="37" t="s">
         <v>37</v>
       </c>
       <c r="D20" s="31" t="s">
@@ -4700,10 +4629,8 @@
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
       <c r="H20" s="33"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I20" s="39"/>
+      <c r="J20" s="29"/>
       <c r="K20" s="29"/>
       <c r="L20" s="29"/>
       <c r="M20" s="29"/>
@@ -4727,7 +4654,7 @@
       <c r="B21" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D21" s="31" t="s">
@@ -4739,15 +4666,15 @@
       <c r="F21" s="33"/>
       <c r="G21" s="33"/>
       <c r="H21" s="33"/>
-      <c r="I21" s="40"/>
+      <c r="I21" s="39"/>
       <c r="J21" s="29" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="K21" s="29" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="L21" s="29" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="M21" s="29"/>
       <c r="N21" s="29"/>
@@ -4770,7 +4697,7 @@
       <c r="B22" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="37" t="s">
         <v>38</v>
       </c>
       <c r="D22" s="31" t="s">
@@ -4782,10 +4709,8 @@
       <c r="F22" s="33"/>
       <c r="G22" s="33"/>
       <c r="H22" s="33"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I22" s="39"/>
+      <c r="J22" s="29"/>
       <c r="K22" s="29"/>
       <c r="L22" s="29"/>
       <c r="M22" s="29"/>
@@ -4809,7 +4734,7 @@
       <c r="B23" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="37" t="s">
         <v>51</v>
       </c>
       <c r="D23" s="31" t="s">
@@ -4821,10 +4746,8 @@
       <c r="F23" s="33"/>
       <c r="G23" s="33"/>
       <c r="H23" s="33"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I23" s="39"/>
+      <c r="J23" s="29"/>
       <c r="K23" s="29"/>
       <c r="L23" s="29"/>
       <c r="M23" s="29"/>
@@ -4848,7 +4771,7 @@
       <c r="B24" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="37" t="s">
         <v>41</v>
       </c>
       <c r="D24" s="31" t="s">
@@ -4860,10 +4783,8 @@
       <c r="F24" s="33"/>
       <c r="G24" s="33"/>
       <c r="H24" s="33"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I24" s="39"/>
+      <c r="J24" s="29"/>
       <c r="K24" s="29"/>
       <c r="L24" s="29"/>
       <c r="M24" s="29"/>
@@ -4887,7 +4808,7 @@
       <c r="B25" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="37" t="s">
         <v>42</v>
       </c>
       <c r="D25" s="31" t="s">
@@ -4899,10 +4820,8 @@
       <c r="F25" s="33"/>
       <c r="G25" s="33"/>
       <c r="H25" s="33"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I25" s="39"/>
+      <c r="J25" s="29"/>
       <c r="K25" s="29"/>
       <c r="L25" s="29"/>
       <c r="M25" s="29"/>
@@ -4926,7 +4845,7 @@
       <c r="B26" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="37" t="s">
         <v>43</v>
       </c>
       <c r="D26" s="31" t="s">
@@ -4938,10 +4857,8 @@
       <c r="F26" s="33"/>
       <c r="G26" s="33"/>
       <c r="H26" s="33"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I26" s="39"/>
+      <c r="J26" s="29"/>
       <c r="K26" s="29"/>
       <c r="L26" s="29"/>
       <c r="M26" s="29"/>
@@ -4965,22 +4882,20 @@
       <c r="B27" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="37" t="s">
         <v>35</v>
       </c>
       <c r="D27" s="31" t="s">
         <v>65</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="F27" s="33"/>
       <c r="G27" s="33"/>
       <c r="H27" s="33"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I27" s="39"/>
+      <c r="J27" s="29"/>
       <c r="K27" s="29"/>
       <c r="L27" s="29"/>
       <c r="M27" s="29"/>
@@ -4991,7 +4906,9 @@
       <c r="R27" s="29"/>
       <c r="S27" s="29"/>
       <c r="T27" s="29"/>
-      <c r="U27" s="34"/>
+      <c r="U27" s="34" t="s">
+        <v>66</v>
+      </c>
       <c r="V27" s="35"/>
       <c r="W27" s="29" t="s">
         <v>46</v>
@@ -5004,22 +4921,20 @@
       <c r="B28" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="37" t="s">
         <v>37</v>
       </c>
       <c r="D28" s="31" t="s">
         <v>67</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="F28" s="33"/>
       <c r="G28" s="33"/>
       <c r="H28" s="33"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I28" s="39"/>
+      <c r="J28" s="29"/>
       <c r="K28" s="29"/>
       <c r="L28" s="29"/>
       <c r="M28" s="29"/>
@@ -5030,7 +4945,9 @@
       <c r="R28" s="29"/>
       <c r="S28" s="29"/>
       <c r="T28" s="29"/>
-      <c r="U28" s="34"/>
+      <c r="U28" s="34" t="s">
+        <v>66</v>
+      </c>
       <c r="V28" s="35"/>
       <c r="W28" s="29" t="s">
         <v>46</v>
@@ -5043,33 +4960,49 @@
       <c r="B29" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D29" s="31" t="s">
         <v>68</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="F29" s="33"/>
       <c r="G29" s="33"/>
       <c r="H29" s="33"/>
-      <c r="I29" s="40"/>
+      <c r="I29" s="39"/>
       <c r="J29" s="29" t="s">
-        <v>267</v>
+        <v>66</v>
       </c>
       <c r="K29" s="29"/>
       <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
+      <c r="M29" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="N29" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="O29" s="29" t="s">
+        <v>436</v>
+      </c>
+      <c r="P29" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q29" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="R29" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="S29" s="29" t="s">
+        <v>437</v>
+      </c>
       <c r="T29" s="29"/>
-      <c r="U29" s="34"/>
+      <c r="U29" s="34" t="s">
+        <v>66</v>
+      </c>
       <c r="V29" s="35"/>
       <c r="W29" s="29" t="s">
         <v>46</v>
@@ -5082,22 +5015,20 @@
       <c r="B30" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="38" t="s">
+      <c r="C30" s="37" t="s">
         <v>38</v>
       </c>
       <c r="D30" s="31" t="s">
         <v>69</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="F30" s="33"/>
       <c r="G30" s="33"/>
       <c r="H30" s="33"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I30" s="39"/>
+      <c r="J30" s="29"/>
       <c r="K30" s="29"/>
       <c r="L30" s="29"/>
       <c r="M30" s="29"/>
@@ -5108,7 +5039,9 @@
       <c r="R30" s="29"/>
       <c r="S30" s="29"/>
       <c r="T30" s="29"/>
-      <c r="U30" s="34"/>
+      <c r="U30" s="34" t="s">
+        <v>66</v>
+      </c>
       <c r="V30" s="35"/>
       <c r="W30" s="29" t="s">
         <v>46</v>
@@ -5121,22 +5054,20 @@
       <c r="B31" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="37" t="s">
         <v>51</v>
       </c>
       <c r="D31" s="31" t="s">
         <v>70</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="F31" s="33"/>
       <c r="G31" s="33"/>
       <c r="H31" s="33"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I31" s="39"/>
+      <c r="J31" s="29"/>
       <c r="K31" s="29"/>
       <c r="L31" s="29"/>
       <c r="M31" s="29"/>
@@ -5147,7 +5078,9 @@
       <c r="R31" s="29"/>
       <c r="S31" s="29"/>
       <c r="T31" s="29"/>
-      <c r="U31" s="34"/>
+      <c r="U31" s="34" t="s">
+        <v>66</v>
+      </c>
       <c r="V31" s="35"/>
       <c r="W31" s="29" t="s">
         <v>46</v>
@@ -5160,22 +5093,20 @@
       <c r="B32" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="38" t="s">
+      <c r="C32" s="37" t="s">
         <v>41</v>
       </c>
       <c r="D32" s="31" t="s">
         <v>71</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="F32" s="33"/>
       <c r="G32" s="33"/>
       <c r="H32" s="33"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I32" s="39"/>
+      <c r="J32" s="29"/>
       <c r="K32" s="29"/>
       <c r="L32" s="29"/>
       <c r="M32" s="29"/>
@@ -5186,7 +5117,9 @@
       <c r="R32" s="29"/>
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
-      <c r="U32" s="34"/>
+      <c r="U32" s="34" t="s">
+        <v>66</v>
+      </c>
       <c r="V32" s="35"/>
       <c r="W32" s="29" t="s">
         <v>46</v>
@@ -5199,22 +5132,20 @@
       <c r="B33" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="38" t="s">
+      <c r="C33" s="37" t="s">
         <v>42</v>
       </c>
       <c r="D33" s="31" t="s">
         <v>72</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="F33" s="33"/>
       <c r="G33" s="33"/>
       <c r="H33" s="33"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I33" s="39"/>
+      <c r="J33" s="29"/>
       <c r="K33" s="29"/>
       <c r="L33" s="29"/>
       <c r="M33" s="29"/>
@@ -5225,7 +5156,9 @@
       <c r="R33" s="29"/>
       <c r="S33" s="29"/>
       <c r="T33" s="29"/>
-      <c r="U33" s="34"/>
+      <c r="U33" s="34" t="s">
+        <v>66</v>
+      </c>
       <c r="V33" s="35"/>
       <c r="W33" s="29" t="s">
         <v>46</v>
@@ -5238,22 +5171,20 @@
       <c r="B34" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="37" t="s">
         <v>43</v>
       </c>
       <c r="D34" s="31" t="s">
         <v>73</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="F34" s="33"/>
       <c r="G34" s="33"/>
       <c r="H34" s="33"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I34" s="39"/>
+      <c r="J34" s="29"/>
       <c r="K34" s="29"/>
       <c r="L34" s="29"/>
       <c r="M34" s="29"/>
@@ -5264,7 +5195,9 @@
       <c r="R34" s="29"/>
       <c r="S34" s="29"/>
       <c r="T34" s="29"/>
-      <c r="U34" s="34"/>
+      <c r="U34" s="34" t="s">
+        <v>66</v>
+      </c>
       <c r="V34" s="35"/>
       <c r="W34" s="29" t="s">
         <v>46</v>
@@ -5272,27 +5205,25 @@
     </row>
     <row r="35" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="31">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B35" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="37" t="s">
         <v>35</v>
       </c>
       <c r="D35" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="E35" s="36" t="s">
+      <c r="E35" s="32" t="s">
         <v>75</v>
       </c>
       <c r="F35" s="33"/>
       <c r="G35" s="33"/>
       <c r="H35" s="33"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I35" s="39"/>
+      <c r="J35" s="29"/>
       <c r="K35" s="29"/>
       <c r="L35" s="29"/>
       <c r="M35" s="29"/>
@@ -5311,12 +5242,12 @@
     </row>
     <row r="36" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="31">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B36" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="C36" s="37" t="s">
         <v>35</v>
       </c>
       <c r="D36" s="31" t="s">
@@ -5328,10 +5259,8 @@
       <c r="F36" s="33"/>
       <c r="G36" s="33"/>
       <c r="H36" s="33"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I36" s="39"/>
+      <c r="J36" s="29"/>
       <c r="K36" s="29"/>
       <c r="L36" s="29"/>
       <c r="M36" s="29"/>
@@ -5350,12 +5279,12 @@
     </row>
     <row r="37" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="31">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B37" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="38" t="s">
+      <c r="C37" s="37" t="s">
         <v>35</v>
       </c>
       <c r="D37" s="31" t="s">
@@ -5367,10 +5296,8 @@
       <c r="F37" s="33"/>
       <c r="G37" s="33"/>
       <c r="H37" s="33"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I37" s="39"/>
+      <c r="J37" s="29"/>
       <c r="K37" s="29"/>
       <c r="L37" s="29"/>
       <c r="M37" s="29"/>
@@ -5389,12 +5316,12 @@
     </row>
     <row r="38" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="31">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B38" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="38" t="s">
+      <c r="C38" s="37" t="s">
         <v>35</v>
       </c>
       <c r="D38" s="31" t="s">
@@ -5406,10 +5333,8 @@
       <c r="F38" s="33"/>
       <c r="G38" s="33"/>
       <c r="H38" s="33"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I38" s="39"/>
+      <c r="J38" s="29"/>
       <c r="K38" s="29"/>
       <c r="L38" s="29"/>
       <c r="M38" s="29"/>
@@ -5428,12 +5353,12 @@
     </row>
     <row r="39" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="31">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B39" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="38" t="s">
+      <c r="C39" s="37" t="s">
         <v>35</v>
       </c>
       <c r="D39" s="31" t="s">
@@ -5445,10 +5370,8 @@
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
       <c r="H39" s="33"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I39" s="39"/>
+      <c r="J39" s="29"/>
       <c r="K39" s="29"/>
       <c r="L39" s="29"/>
       <c r="M39" s="29"/>
@@ -5467,12 +5390,12 @@
     </row>
     <row r="40" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="31">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B40" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="38" t="s">
+      <c r="C40" s="37" t="s">
         <v>35</v>
       </c>
       <c r="D40" s="31" t="s">
@@ -5484,10 +5407,8 @@
       <c r="F40" s="33"/>
       <c r="G40" s="33"/>
       <c r="H40" s="33"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I40" s="39"/>
+      <c r="J40" s="29"/>
       <c r="K40" s="29"/>
       <c r="L40" s="29"/>
       <c r="M40" s="29"/>
@@ -5506,12 +5427,12 @@
     </row>
     <row r="41" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="31">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B41" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="38" t="s">
+      <c r="C41" s="37" t="s">
         <v>35</v>
       </c>
       <c r="D41" s="31" t="s">
@@ -5523,10 +5444,8 @@
       <c r="F41" s="33"/>
       <c r="G41" s="33"/>
       <c r="H41" s="33"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I41" s="39"/>
+      <c r="J41" s="29"/>
       <c r="K41" s="29"/>
       <c r="L41" s="29"/>
       <c r="M41" s="29"/>
@@ -5545,12 +5464,12 @@
     </row>
     <row r="42" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="31">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B42" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="38" t="s">
+      <c r="C42" s="37" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="31" t="s">
@@ -5562,10 +5481,8 @@
       <c r="F42" s="33"/>
       <c r="G42" s="33"/>
       <c r="H42" s="33"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I42" s="39"/>
+      <c r="J42" s="29"/>
       <c r="K42" s="29"/>
       <c r="L42" s="29"/>
       <c r="M42" s="29"/>
@@ -5584,27 +5501,25 @@
     </row>
     <row r="43" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="31">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B43" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="38" t="s">
-        <v>35</v>
+      <c r="C43" s="37" t="s">
+        <v>37</v>
       </c>
       <c r="D43" s="31" t="s">
         <v>90</v>
       </c>
       <c r="E43" s="32" t="s">
-        <v>91</v>
+        <v>302</v>
       </c>
       <c r="F43" s="33"/>
       <c r="G43" s="33"/>
       <c r="H43" s="33"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I43" s="39"/>
+      <c r="J43" s="29"/>
       <c r="K43" s="29"/>
       <c r="L43" s="29"/>
       <c r="M43" s="29"/>
@@ -5623,27 +5538,25 @@
     </row>
     <row r="44" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="31">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B44" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C44" s="38" t="s">
-        <v>35</v>
+      <c r="C44" s="37" t="s">
+        <v>37</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E44" s="32" t="s">
-        <v>93</v>
+        <v>303</v>
       </c>
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
       <c r="H44" s="33"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I44" s="39"/>
+      <c r="J44" s="29"/>
       <c r="K44" s="29"/>
       <c r="L44" s="29"/>
       <c r="M44" s="29"/>
@@ -5662,27 +5575,25 @@
     </row>
     <row r="45" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="31">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B45" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C45" s="38" t="s">
-        <v>35</v>
+      <c r="C45" s="37" t="s">
+        <v>37</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>95</v>
+        <v>304</v>
       </c>
       <c r="F45" s="33"/>
       <c r="G45" s="33"/>
       <c r="H45" s="33"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I45" s="39"/>
+      <c r="J45" s="29"/>
       <c r="K45" s="29"/>
       <c r="L45" s="29"/>
       <c r="M45" s="29"/>
@@ -5701,27 +5612,25 @@
     </row>
     <row r="46" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="31">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B46" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="38" t="s">
+      <c r="C46" s="37" t="s">
         <v>37</v>
       </c>
       <c r="D46" s="31" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E46" s="32" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="F46" s="33"/>
       <c r="G46" s="33"/>
       <c r="H46" s="33"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I46" s="39"/>
+      <c r="J46" s="29"/>
       <c r="K46" s="29"/>
       <c r="L46" s="29"/>
       <c r="M46" s="29"/>
@@ -5740,27 +5649,25 @@
     </row>
     <row r="47" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="31">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B47" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="38" t="s">
+      <c r="C47" s="37" t="s">
         <v>37</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E47" s="32" t="s">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="F47" s="33"/>
       <c r="G47" s="33"/>
       <c r="H47" s="33"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I47" s="39"/>
+      <c r="J47" s="29"/>
       <c r="K47" s="29"/>
       <c r="L47" s="29"/>
       <c r="M47" s="29"/>
@@ -5779,27 +5686,25 @@
     </row>
     <row r="48" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="31">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B48" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="38" t="s">
+      <c r="C48" s="37" t="s">
         <v>37</v>
       </c>
       <c r="D48" s="31" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E48" s="32" t="s">
-        <v>339</v>
+        <v>307</v>
       </c>
       <c r="F48" s="33"/>
       <c r="G48" s="33"/>
       <c r="H48" s="33"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I48" s="39"/>
+      <c r="J48" s="29"/>
       <c r="K48" s="29"/>
       <c r="L48" s="29"/>
       <c r="M48" s="29"/>
@@ -5818,27 +5723,25 @@
     </row>
     <row r="49" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="31">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B49" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C49" s="38" t="s">
+      <c r="C49" s="37" t="s">
         <v>37</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="F49" s="33"/>
       <c r="G49" s="33"/>
       <c r="H49" s="33"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I49" s="39"/>
+      <c r="J49" s="29"/>
       <c r="K49" s="29"/>
       <c r="L49" s="29"/>
       <c r="M49" s="29"/>
@@ -5857,27 +5760,25 @@
     </row>
     <row r="50" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="31">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B50" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C50" s="38" t="s">
+      <c r="C50" s="37" t="s">
         <v>37</v>
       </c>
       <c r="D50" s="31" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E50" s="32" t="s">
-        <v>342</v>
+        <v>309</v>
       </c>
       <c r="F50" s="33"/>
       <c r="G50" s="33"/>
       <c r="H50" s="33"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I50" s="39"/>
+      <c r="J50" s="29"/>
       <c r="K50" s="29"/>
       <c r="L50" s="29"/>
       <c r="M50" s="29"/>
@@ -5896,27 +5797,25 @@
     </row>
     <row r="51" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="31">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B51" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="38" t="s">
+      <c r="C51" s="37" t="s">
         <v>37</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E51" s="32" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="F51" s="33"/>
       <c r="G51" s="33"/>
       <c r="H51" s="33"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I51" s="39"/>
+      <c r="J51" s="29"/>
       <c r="K51" s="29"/>
       <c r="L51" s="29"/>
       <c r="M51" s="29"/>
@@ -5935,27 +5834,25 @@
     </row>
     <row r="52" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="31">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B52" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C52" s="38" t="s">
+      <c r="C52" s="37" t="s">
         <v>37</v>
       </c>
       <c r="D52" s="31" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E52" s="32" t="s">
-        <v>344</v>
+        <v>311</v>
       </c>
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
       <c r="H52" s="33"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I52" s="39"/>
+      <c r="J52" s="29"/>
       <c r="K52" s="29"/>
       <c r="L52" s="29"/>
       <c r="M52" s="29"/>
@@ -5974,27 +5871,25 @@
     </row>
     <row r="53" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="31">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B53" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="38" t="s">
-        <v>37</v>
+      <c r="C53" s="37" t="s">
+        <v>38</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E53" s="32" t="s">
-        <v>345</v>
+        <v>312</v>
       </c>
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
       <c r="H53" s="33"/>
-      <c r="I53" s="40"/>
-      <c r="J53" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I53" s="39"/>
+      <c r="J53" s="29"/>
       <c r="K53" s="29"/>
       <c r="L53" s="29"/>
       <c r="M53" s="29"/>
@@ -6013,27 +5908,25 @@
     </row>
     <row r="54" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="31">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B54" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="38" t="s">
-        <v>37</v>
+      <c r="C54" s="37" t="s">
+        <v>38</v>
       </c>
       <c r="D54" s="31" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E54" s="32" t="s">
-        <v>346</v>
+        <v>102</v>
       </c>
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
       <c r="H54" s="33"/>
-      <c r="I54" s="40"/>
-      <c r="J54" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I54" s="39"/>
+      <c r="J54" s="29"/>
       <c r="K54" s="29"/>
       <c r="L54" s="29"/>
       <c r="M54" s="29"/>
@@ -6052,27 +5945,25 @@
     </row>
     <row r="55" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="31">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B55" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C55" s="38" t="s">
-        <v>37</v>
+      <c r="C55" s="37" t="s">
+        <v>38</v>
       </c>
       <c r="D55" s="31" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E55" s="32" t="s">
-        <v>347</v>
+        <v>313</v>
       </c>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
       <c r="H55" s="33"/>
-      <c r="I55" s="40"/>
-      <c r="J55" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I55" s="39"/>
+      <c r="J55" s="29"/>
       <c r="K55" s="29"/>
       <c r="L55" s="29"/>
       <c r="M55" s="29"/>
@@ -6091,27 +5982,25 @@
     </row>
     <row r="56" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="31">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B56" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C56" s="38" t="s">
-        <v>37</v>
+      <c r="C56" s="37" t="s">
+        <v>38</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E56" s="32" t="s">
-        <v>348</v>
+        <v>314</v>
       </c>
       <c r="F56" s="33"/>
       <c r="G56" s="33"/>
       <c r="H56" s="33"/>
-      <c r="I56" s="40"/>
-      <c r="J56" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I56" s="39"/>
+      <c r="J56" s="29"/>
       <c r="K56" s="29"/>
       <c r="L56" s="29"/>
       <c r="M56" s="29"/>
@@ -6130,27 +6019,25 @@
     </row>
     <row r="57" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="31">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B57" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C57" s="38" t="s">
-        <v>37</v>
+      <c r="C57" s="37" t="s">
+        <v>38</v>
       </c>
       <c r="D57" s="31" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E57" s="32" t="s">
-        <v>349</v>
+        <v>315</v>
       </c>
       <c r="F57" s="33"/>
       <c r="G57" s="33"/>
       <c r="H57" s="33"/>
-      <c r="I57" s="40"/>
-      <c r="J57" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I57" s="39"/>
+      <c r="J57" s="29"/>
       <c r="K57" s="29"/>
       <c r="L57" s="29"/>
       <c r="M57" s="29"/>
@@ -6169,27 +6056,25 @@
     </row>
     <row r="58" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="31">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B58" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C58" s="38" t="s">
+      <c r="C58" s="37" t="s">
         <v>38</v>
       </c>
       <c r="D58" s="31" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E58" s="32" t="s">
-        <v>350</v>
+        <v>316</v>
       </c>
       <c r="F58" s="33"/>
       <c r="G58" s="33"/>
       <c r="H58" s="33"/>
-      <c r="I58" s="40"/>
-      <c r="J58" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I58" s="39"/>
+      <c r="J58" s="29"/>
       <c r="K58" s="29"/>
       <c r="L58" s="29"/>
       <c r="M58" s="29"/>
@@ -6208,27 +6093,25 @@
     </row>
     <row r="59" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="31">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B59" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C59" s="38" t="s">
+      <c r="C59" s="37" t="s">
         <v>38</v>
       </c>
       <c r="D59" s="31" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E59" s="32" t="s">
-        <v>351</v>
+        <v>108</v>
       </c>
       <c r="F59" s="33"/>
       <c r="G59" s="33"/>
       <c r="H59" s="33"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I59" s="39"/>
+      <c r="J59" s="29"/>
       <c r="K59" s="29"/>
       <c r="L59" s="29"/>
       <c r="M59" s="29"/>
@@ -6247,27 +6130,25 @@
     </row>
     <row r="60" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="31">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B60" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C60" s="38" t="s">
+      <c r="C60" s="37" t="s">
         <v>38</v>
       </c>
       <c r="D60" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E60" s="32" t="s">
         <v>110</v>
-      </c>
-      <c r="E60" s="32" t="s">
-        <v>111</v>
       </c>
       <c r="F60" s="33"/>
       <c r="G60" s="33"/>
       <c r="H60" s="33"/>
-      <c r="I60" s="40"/>
-      <c r="J60" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I60" s="39"/>
+      <c r="J60" s="29"/>
       <c r="K60" s="29"/>
       <c r="L60" s="29"/>
       <c r="M60" s="29"/>
@@ -6286,27 +6167,25 @@
     </row>
     <row r="61" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="31">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B61" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C61" s="38" t="s">
+      <c r="C61" s="37" t="s">
         <v>38</v>
       </c>
       <c r="D61" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E61" s="32" t="s">
-        <v>113</v>
+        <v>317</v>
       </c>
       <c r="F61" s="33"/>
       <c r="G61" s="33"/>
       <c r="H61" s="33"/>
-      <c r="I61" s="40"/>
-      <c r="J61" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I61" s="39"/>
+      <c r="J61" s="29"/>
       <c r="K61" s="29"/>
       <c r="L61" s="29"/>
       <c r="M61" s="29"/>
@@ -6325,27 +6204,25 @@
     </row>
     <row r="62" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="31">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B62" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C62" s="38" t="s">
+      <c r="C62" s="37" t="s">
         <v>38</v>
       </c>
       <c r="D62" s="31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E62" s="32" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="F62" s="33"/>
       <c r="G62" s="33"/>
       <c r="H62" s="33"/>
-      <c r="I62" s="40"/>
-      <c r="J62" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I62" s="39"/>
+      <c r="J62" s="29"/>
       <c r="K62" s="29"/>
       <c r="L62" s="29"/>
       <c r="M62" s="29"/>
@@ -6364,27 +6241,25 @@
     </row>
     <row r="63" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="31">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B63" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C63" s="38" t="s">
+      <c r="C63" s="37" t="s">
         <v>38</v>
       </c>
       <c r="D63" s="31" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E63" s="32" t="s">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="F63" s="33"/>
       <c r="G63" s="33"/>
       <c r="H63" s="33"/>
-      <c r="I63" s="40"/>
-      <c r="J63" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I63" s="39"/>
+      <c r="J63" s="29"/>
       <c r="K63" s="29"/>
       <c r="L63" s="29"/>
       <c r="M63" s="29"/>
@@ -6403,27 +6278,25 @@
     </row>
     <row r="64" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="31">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B64" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C64" s="38" t="s">
+      <c r="C64" s="37" t="s">
         <v>38</v>
       </c>
       <c r="D64" s="31" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E64" s="32" t="s">
-        <v>354</v>
+        <v>320</v>
       </c>
       <c r="F64" s="33"/>
       <c r="G64" s="33"/>
       <c r="H64" s="33"/>
-      <c r="I64" s="40"/>
-      <c r="J64" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I64" s="39"/>
+      <c r="J64" s="29"/>
       <c r="K64" s="29"/>
       <c r="L64" s="29"/>
       <c r="M64" s="29"/>
@@ -6442,27 +6315,25 @@
     </row>
     <row r="65" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="31">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B65" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C65" s="38" t="s">
+      <c r="C65" s="37" t="s">
         <v>38</v>
       </c>
       <c r="D65" s="31" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E65" s="32" t="s">
-        <v>355</v>
+        <v>116</v>
       </c>
       <c r="F65" s="33"/>
       <c r="G65" s="33"/>
       <c r="H65" s="33"/>
-      <c r="I65" s="40"/>
-      <c r="J65" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I65" s="39"/>
+      <c r="J65" s="29"/>
       <c r="K65" s="29"/>
       <c r="L65" s="29"/>
       <c r="M65" s="29"/>
@@ -6481,27 +6352,25 @@
     </row>
     <row r="66" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="31">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B66" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C66" s="38" t="s">
+      <c r="C66" s="37" t="s">
         <v>38</v>
       </c>
       <c r="D66" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="E66" s="32" t="s">
         <v>118</v>
-      </c>
-      <c r="E66" s="32" t="s">
-        <v>119</v>
       </c>
       <c r="F66" s="33"/>
       <c r="G66" s="33"/>
       <c r="H66" s="33"/>
-      <c r="I66" s="40"/>
-      <c r="J66" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I66" s="39"/>
+      <c r="J66" s="29"/>
       <c r="K66" s="29"/>
       <c r="L66" s="29"/>
       <c r="M66" s="29"/>
@@ -6520,27 +6389,25 @@
     </row>
     <row r="67" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="31">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B67" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C67" s="38" t="s">
+      <c r="C67" s="37" t="s">
         <v>38</v>
       </c>
       <c r="D67" s="31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E67" s="32" t="s">
-        <v>121</v>
+        <v>321</v>
       </c>
       <c r="F67" s="33"/>
       <c r="G67" s="33"/>
       <c r="H67" s="33"/>
-      <c r="I67" s="40"/>
-      <c r="J67" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I67" s="39"/>
+      <c r="J67" s="29"/>
       <c r="K67" s="29"/>
       <c r="L67" s="29"/>
       <c r="M67" s="29"/>
@@ -6559,27 +6426,25 @@
     </row>
     <row r="68" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="31">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B68" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C68" s="38" t="s">
+      <c r="C68" s="37" t="s">
         <v>38</v>
       </c>
       <c r="D68" s="31" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E68" s="32" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="F68" s="33"/>
       <c r="G68" s="33"/>
       <c r="H68" s="33"/>
-      <c r="I68" s="40"/>
-      <c r="J68" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I68" s="39"/>
+      <c r="J68" s="29"/>
       <c r="K68" s="29"/>
       <c r="L68" s="29"/>
       <c r="M68" s="29"/>
@@ -6598,27 +6463,25 @@
     </row>
     <row r="69" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="31">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B69" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C69" s="38" t="s">
+      <c r="C69" s="37" t="s">
         <v>38</v>
       </c>
       <c r="D69" s="31" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E69" s="32" t="s">
-        <v>357</v>
+        <v>322</v>
       </c>
       <c r="F69" s="33"/>
       <c r="G69" s="33"/>
       <c r="H69" s="33"/>
-      <c r="I69" s="40"/>
-      <c r="J69" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I69" s="39"/>
+      <c r="J69" s="29"/>
       <c r="K69" s="29"/>
       <c r="L69" s="29"/>
       <c r="M69" s="29"/>
@@ -6637,27 +6500,25 @@
     </row>
     <row r="70" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="31">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B70" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C70" s="38" t="s">
-        <v>38</v>
+      <c r="C70" s="37" t="s">
+        <v>41</v>
       </c>
       <c r="D70" s="31" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E70" s="32" t="s">
-        <v>358</v>
+        <v>323</v>
       </c>
       <c r="F70" s="33"/>
       <c r="G70" s="33"/>
       <c r="H70" s="33"/>
-      <c r="I70" s="40"/>
-      <c r="J70" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I70" s="39"/>
+      <c r="J70" s="29"/>
       <c r="K70" s="29"/>
       <c r="L70" s="29"/>
       <c r="M70" s="29"/>
@@ -6676,27 +6537,25 @@
     </row>
     <row r="71" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="31">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B71" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C71" s="38" t="s">
-        <v>38</v>
+      <c r="C71" s="37" t="s">
+        <v>41</v>
       </c>
       <c r="D71" s="31" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E71" s="32" t="s">
-        <v>359</v>
+        <v>324</v>
       </c>
       <c r="F71" s="33"/>
       <c r="G71" s="33"/>
       <c r="H71" s="33"/>
-      <c r="I71" s="40"/>
-      <c r="J71" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I71" s="39"/>
+      <c r="J71" s="29"/>
       <c r="K71" s="29"/>
       <c r="L71" s="29"/>
       <c r="M71" s="29"/>
@@ -6715,27 +6574,25 @@
     </row>
     <row r="72" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="31">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B72" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C72" s="38" t="s">
-        <v>38</v>
+      <c r="C72" s="37" t="s">
+        <v>41</v>
       </c>
       <c r="D72" s="31" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E72" s="32" t="s">
-        <v>127</v>
+        <v>325</v>
       </c>
       <c r="F72" s="33"/>
       <c r="G72" s="33"/>
       <c r="H72" s="33"/>
-      <c r="I72" s="40"/>
-      <c r="J72" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I72" s="39"/>
+      <c r="J72" s="29"/>
       <c r="K72" s="29"/>
       <c r="L72" s="29"/>
       <c r="M72" s="29"/>
@@ -6754,27 +6611,25 @@
     </row>
     <row r="73" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="31">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B73" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C73" s="38" t="s">
-        <v>38</v>
+      <c r="C73" s="37" t="s">
+        <v>41</v>
       </c>
       <c r="D73" s="31" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E73" s="32" t="s">
-        <v>129</v>
+        <v>326</v>
       </c>
       <c r="F73" s="33"/>
       <c r="G73" s="33"/>
       <c r="H73" s="33"/>
-      <c r="I73" s="40"/>
-      <c r="J73" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I73" s="39"/>
+      <c r="J73" s="29"/>
       <c r="K73" s="29"/>
       <c r="L73" s="29"/>
       <c r="M73" s="29"/>
@@ -6793,27 +6648,25 @@
     </row>
     <row r="74" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="31">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B74" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C74" s="38" t="s">
-        <v>38</v>
+      <c r="C74" s="37" t="s">
+        <v>41</v>
       </c>
       <c r="D74" s="31" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E74" s="32" t="s">
-        <v>360</v>
+        <v>127</v>
       </c>
       <c r="F74" s="33"/>
       <c r="G74" s="33"/>
       <c r="H74" s="33"/>
-      <c r="I74" s="40"/>
-      <c r="J74" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I74" s="39"/>
+      <c r="J74" s="29"/>
       <c r="K74" s="29"/>
       <c r="L74" s="29"/>
       <c r="M74" s="29"/>
@@ -6832,27 +6685,25 @@
     </row>
     <row r="75" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="31">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B75" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C75" s="38" t="s">
-        <v>38</v>
+      <c r="C75" s="37" t="s">
+        <v>41</v>
       </c>
       <c r="D75" s="31" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E75" s="32" t="s">
-        <v>415</v>
+        <v>327</v>
       </c>
       <c r="F75" s="33"/>
       <c r="G75" s="33"/>
       <c r="H75" s="33"/>
-      <c r="I75" s="40"/>
-      <c r="J75" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I75" s="39"/>
+      <c r="J75" s="29"/>
       <c r="K75" s="29"/>
       <c r="L75" s="29"/>
       <c r="M75" s="29"/>
@@ -6871,27 +6722,25 @@
     </row>
     <row r="76" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="31">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B76" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C76" s="38" t="s">
-        <v>38</v>
+      <c r="C76" s="37" t="s">
+        <v>41</v>
       </c>
       <c r="D76" s="31" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E76" s="32" t="s">
-        <v>361</v>
+        <v>328</v>
       </c>
       <c r="F76" s="33"/>
       <c r="G76" s="33"/>
       <c r="H76" s="33"/>
-      <c r="I76" s="40"/>
-      <c r="J76" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I76" s="39"/>
+      <c r="J76" s="29"/>
       <c r="K76" s="29"/>
       <c r="L76" s="29"/>
       <c r="M76" s="29"/>
@@ -6910,27 +6759,25 @@
     </row>
     <row r="77" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="31">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B77" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C77" s="38" t="s">
+      <c r="C77" s="37" t="s">
         <v>41</v>
       </c>
       <c r="D77" s="31" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E77" s="32" t="s">
-        <v>362</v>
+        <v>329</v>
       </c>
       <c r="F77" s="33"/>
       <c r="G77" s="33"/>
       <c r="H77" s="33"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I77" s="39"/>
+      <c r="J77" s="29"/>
       <c r="K77" s="29"/>
       <c r="L77" s="29"/>
       <c r="M77" s="29"/>
@@ -6949,27 +6796,25 @@
     </row>
     <row r="78" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="31">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B78" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C78" s="38" t="s">
+      <c r="C78" s="37" t="s">
         <v>41</v>
       </c>
       <c r="D78" s="31" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E78" s="32" t="s">
-        <v>363</v>
+        <v>132</v>
       </c>
       <c r="F78" s="33"/>
       <c r="G78" s="33"/>
       <c r="H78" s="33"/>
-      <c r="I78" s="40"/>
-      <c r="J78" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I78" s="39"/>
+      <c r="J78" s="29"/>
       <c r="K78" s="29"/>
       <c r="L78" s="29"/>
       <c r="M78" s="29"/>
@@ -6988,27 +6833,25 @@
     </row>
     <row r="79" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="31">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B79" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C79" s="38" t="s">
+      <c r="C79" s="37" t="s">
         <v>41</v>
       </c>
       <c r="D79" s="31" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E79" s="32" t="s">
-        <v>136</v>
+        <v>330</v>
       </c>
       <c r="F79" s="33"/>
       <c r="G79" s="33"/>
       <c r="H79" s="33"/>
-      <c r="I79" s="40"/>
-      <c r="J79" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I79" s="39"/>
+      <c r="J79" s="29"/>
       <c r="K79" s="29"/>
       <c r="L79" s="29"/>
       <c r="M79" s="29"/>
@@ -7027,27 +6870,25 @@
     </row>
     <row r="80" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="31">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B80" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C80" s="38" t="s">
+      <c r="C80" s="37" t="s">
         <v>41</v>
       </c>
       <c r="D80" s="31" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E80" s="32" t="s">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="F80" s="33"/>
       <c r="G80" s="33"/>
       <c r="H80" s="33"/>
-      <c r="I80" s="40"/>
-      <c r="J80" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I80" s="39"/>
+      <c r="J80" s="29"/>
       <c r="K80" s="29"/>
       <c r="L80" s="29"/>
       <c r="M80" s="29"/>
@@ -7066,27 +6907,25 @@
     </row>
     <row r="81" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="31">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B81" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C81" s="38" t="s">
-        <v>41</v>
+      <c r="C81" s="37" t="s">
+        <v>42</v>
       </c>
       <c r="D81" s="31" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E81" s="32" t="s">
-        <v>365</v>
+        <v>332</v>
       </c>
       <c r="F81" s="33"/>
       <c r="G81" s="33"/>
       <c r="H81" s="33"/>
-      <c r="I81" s="40"/>
-      <c r="J81" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I81" s="39"/>
+      <c r="J81" s="29"/>
       <c r="K81" s="29"/>
       <c r="L81" s="29"/>
       <c r="M81" s="29"/>
@@ -7105,27 +6944,25 @@
     </row>
     <row r="82" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="31">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="B82" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C82" s="38" t="s">
-        <v>41</v>
+      <c r="C82" s="37" t="s">
+        <v>42</v>
       </c>
       <c r="D82" s="31" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E82" s="32" t="s">
-        <v>366</v>
+        <v>137</v>
       </c>
       <c r="F82" s="33"/>
       <c r="G82" s="33"/>
       <c r="H82" s="33"/>
-      <c r="I82" s="40"/>
-      <c r="J82" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I82" s="39"/>
+      <c r="J82" s="29"/>
       <c r="K82" s="29"/>
       <c r="L82" s="29"/>
       <c r="M82" s="29"/>
@@ -7144,27 +6981,25 @@
     </row>
     <row r="83" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="31">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="B83" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C83" s="38" t="s">
-        <v>41</v>
+      <c r="C83" s="37" t="s">
+        <v>42</v>
       </c>
       <c r="D83" s="31" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E83" s="32" t="s">
-        <v>141</v>
+        <v>333</v>
       </c>
       <c r="F83" s="33"/>
       <c r="G83" s="33"/>
       <c r="H83" s="33"/>
-      <c r="I83" s="40"/>
-      <c r="J83" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I83" s="39"/>
+      <c r="J83" s="29"/>
       <c r="K83" s="29"/>
       <c r="L83" s="29"/>
       <c r="M83" s="29"/>
@@ -7183,27 +7018,25 @@
     </row>
     <row r="84" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="31">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="B84" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C84" s="38" t="s">
-        <v>41</v>
+      <c r="C84" s="37" t="s">
+        <v>42</v>
       </c>
       <c r="D84" s="31" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E84" s="32" t="s">
-        <v>367</v>
+        <v>334</v>
       </c>
       <c r="F84" s="33"/>
       <c r="G84" s="33"/>
       <c r="H84" s="33"/>
-      <c r="I84" s="40"/>
-      <c r="J84" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I84" s="39"/>
+      <c r="J84" s="29"/>
       <c r="K84" s="29"/>
       <c r="L84" s="29"/>
       <c r="M84" s="29"/>
@@ -7222,27 +7055,25 @@
     </row>
     <row r="85" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="31">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B85" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C85" s="38" t="s">
-        <v>41</v>
+      <c r="C85" s="37" t="s">
+        <v>42</v>
       </c>
       <c r="D85" s="31" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E85" s="32" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="F85" s="33"/>
       <c r="G85" s="33"/>
       <c r="H85" s="33"/>
-      <c r="I85" s="40"/>
-      <c r="J85" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I85" s="39"/>
+      <c r="J85" s="29"/>
       <c r="K85" s="29"/>
       <c r="L85" s="29"/>
       <c r="M85" s="29"/>
@@ -7261,27 +7092,25 @@
     </row>
     <row r="86" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="31">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B86" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C86" s="38" t="s">
-        <v>41</v>
+      <c r="C86" s="37" t="s">
+        <v>42</v>
       </c>
       <c r="D86" s="31" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E86" s="32" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="F86" s="33"/>
       <c r="G86" s="33"/>
       <c r="H86" s="33"/>
-      <c r="I86" s="40"/>
-      <c r="J86" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I86" s="39"/>
+      <c r="J86" s="29"/>
       <c r="K86" s="29"/>
       <c r="L86" s="29"/>
       <c r="M86" s="29"/>
@@ -7300,27 +7129,25 @@
     </row>
     <row r="87" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="31">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="B87" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C87" s="38" t="s">
-        <v>41</v>
+      <c r="C87" s="37" t="s">
+        <v>42</v>
       </c>
       <c r="D87" s="31" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E87" s="32" t="s">
-        <v>146</v>
+        <v>337</v>
       </c>
       <c r="F87" s="33"/>
       <c r="G87" s="33"/>
       <c r="H87" s="33"/>
-      <c r="I87" s="40"/>
-      <c r="J87" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I87" s="39"/>
+      <c r="J87" s="29"/>
       <c r="K87" s="29"/>
       <c r="L87" s="29"/>
       <c r="M87" s="29"/>
@@ -7339,27 +7166,25 @@
     </row>
     <row r="88" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="31">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="B88" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C88" s="38" t="s">
-        <v>41</v>
+      <c r="C88" s="37" t="s">
+        <v>42</v>
       </c>
       <c r="D88" s="31" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E88" s="32" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="F88" s="33"/>
       <c r="G88" s="33"/>
       <c r="H88" s="33"/>
-      <c r="I88" s="40"/>
-      <c r="J88" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I88" s="39"/>
+      <c r="J88" s="29"/>
       <c r="K88" s="29"/>
       <c r="L88" s="29"/>
       <c r="M88" s="29"/>
@@ -7378,27 +7203,25 @@
     </row>
     <row r="89" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="31">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="B89" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C89" s="38" t="s">
-        <v>41</v>
+      <c r="C89" s="37" t="s">
+        <v>42</v>
       </c>
       <c r="D89" s="31" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E89" s="32" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="F89" s="33"/>
       <c r="G89" s="33"/>
       <c r="H89" s="33"/>
-      <c r="I89" s="40"/>
-      <c r="J89" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I89" s="39"/>
+      <c r="J89" s="29"/>
       <c r="K89" s="29"/>
       <c r="L89" s="29"/>
       <c r="M89" s="29"/>
@@ -7417,27 +7240,25 @@
     </row>
     <row r="90" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="31">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="B90" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C90" s="38" t="s">
+      <c r="C90" s="37" t="s">
         <v>42</v>
       </c>
       <c r="D90" s="31" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E90" s="32" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="F90" s="33"/>
       <c r="G90" s="33"/>
       <c r="H90" s="33"/>
-      <c r="I90" s="40"/>
-      <c r="J90" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I90" s="39"/>
+      <c r="J90" s="29"/>
       <c r="K90" s="29"/>
       <c r="L90" s="29"/>
       <c r="M90" s="29"/>
@@ -7456,27 +7277,25 @@
     </row>
     <row r="91" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="31">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="B91" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C91" s="38" t="s">
+      <c r="C91" s="37" t="s">
         <v>42</v>
       </c>
       <c r="D91" s="31" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E91" s="32" t="s">
-        <v>373</v>
+        <v>341</v>
       </c>
       <c r="F91" s="33"/>
       <c r="G91" s="33"/>
       <c r="H91" s="33"/>
-      <c r="I91" s="40"/>
-      <c r="J91" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I91" s="39"/>
+      <c r="J91" s="29"/>
       <c r="K91" s="29"/>
       <c r="L91" s="29"/>
       <c r="M91" s="29"/>
@@ -7495,27 +7314,25 @@
     </row>
     <row r="92" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="31">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="B92" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C92" s="38" t="s">
+      <c r="C92" s="37" t="s">
         <v>42</v>
       </c>
       <c r="D92" s="31" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E92" s="32" t="s">
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="F92" s="33"/>
       <c r="G92" s="33"/>
       <c r="H92" s="33"/>
-      <c r="I92" s="40"/>
-      <c r="J92" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I92" s="39"/>
+      <c r="J92" s="29"/>
       <c r="K92" s="29"/>
       <c r="L92" s="29"/>
       <c r="M92" s="29"/>
@@ -7534,27 +7351,25 @@
     </row>
     <row r="93" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="31">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="B93" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C93" s="38" t="s">
+      <c r="C93" s="37" t="s">
         <v>42</v>
       </c>
       <c r="D93" s="31" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E93" s="32" t="s">
-        <v>153</v>
+        <v>343</v>
       </c>
       <c r="F93" s="33"/>
       <c r="G93" s="33"/>
       <c r="H93" s="33"/>
-      <c r="I93" s="40"/>
-      <c r="J93" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I93" s="39"/>
+      <c r="J93" s="29"/>
       <c r="K93" s="29"/>
       <c r="L93" s="29"/>
       <c r="M93" s="29"/>
@@ -7573,27 +7388,25 @@
     </row>
     <row r="94" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="31">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="B94" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C94" s="38" t="s">
-        <v>42</v>
+      <c r="C94" s="37" t="s">
+        <v>43</v>
       </c>
       <c r="D94" s="31" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E94" s="32" t="s">
-        <v>375</v>
+        <v>150</v>
       </c>
       <c r="F94" s="33"/>
       <c r="G94" s="33"/>
       <c r="H94" s="33"/>
-      <c r="I94" s="40"/>
-      <c r="J94" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I94" s="39"/>
+      <c r="J94" s="29"/>
       <c r="K94" s="29"/>
       <c r="L94" s="29"/>
       <c r="M94" s="29"/>
@@ -7612,27 +7425,25 @@
     </row>
     <row r="95" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="31">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="B95" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C95" s="38" t="s">
-        <v>42</v>
+      <c r="C95" s="37" t="s">
+        <v>43</v>
       </c>
       <c r="D95" s="31" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E95" s="32" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="F95" s="33"/>
       <c r="G95" s="33"/>
       <c r="H95" s="33"/>
-      <c r="I95" s="40"/>
-      <c r="J95" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I95" s="39"/>
+      <c r="J95" s="29"/>
       <c r="K95" s="29"/>
       <c r="L95" s="29"/>
       <c r="M95" s="29"/>
@@ -7651,27 +7462,25 @@
     </row>
     <row r="96" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="31">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="B96" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C96" s="38" t="s">
-        <v>42</v>
+      <c r="C96" s="37" t="s">
+        <v>43</v>
       </c>
       <c r="D96" s="31" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E96" s="32" t="s">
-        <v>377</v>
+        <v>153</v>
       </c>
       <c r="F96" s="33"/>
       <c r="G96" s="33"/>
       <c r="H96" s="33"/>
-      <c r="I96" s="40"/>
-      <c r="J96" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I96" s="39"/>
+      <c r="J96" s="29"/>
       <c r="K96" s="29"/>
       <c r="L96" s="29"/>
       <c r="M96" s="29"/>
@@ -7690,27 +7499,25 @@
     </row>
     <row r="97" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="31">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="B97" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C97" s="38" t="s">
-        <v>42</v>
+      <c r="C97" s="37" t="s">
+        <v>43</v>
       </c>
       <c r="D97" s="31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E97" s="32" t="s">
-        <v>378</v>
+        <v>155</v>
       </c>
       <c r="F97" s="33"/>
       <c r="G97" s="33"/>
       <c r="H97" s="33"/>
-      <c r="I97" s="40"/>
-      <c r="J97" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I97" s="39"/>
+      <c r="J97" s="29"/>
       <c r="K97" s="29"/>
       <c r="L97" s="29"/>
       <c r="M97" s="29"/>
@@ -7729,27 +7536,25 @@
     </row>
     <row r="98" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="31">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="B98" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C98" s="38" t="s">
-        <v>42</v>
+      <c r="C98" s="37" t="s">
+        <v>43</v>
       </c>
       <c r="D98" s="31" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E98" s="32" t="s">
-        <v>379</v>
+        <v>157</v>
       </c>
       <c r="F98" s="33"/>
       <c r="G98" s="33"/>
       <c r="H98" s="33"/>
-      <c r="I98" s="40"/>
-      <c r="J98" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I98" s="39"/>
+      <c r="J98" s="29"/>
       <c r="K98" s="29"/>
       <c r="L98" s="29"/>
       <c r="M98" s="29"/>
@@ -7768,27 +7573,25 @@
     </row>
     <row r="99" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="31">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="B99" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C99" s="38" t="s">
-        <v>42</v>
+      <c r="C99" s="37" t="s">
+        <v>43</v>
       </c>
       <c r="D99" s="31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E99" s="32" t="s">
-        <v>380</v>
+        <v>345</v>
       </c>
       <c r="F99" s="33"/>
       <c r="G99" s="33"/>
       <c r="H99" s="33"/>
-      <c r="I99" s="40"/>
-      <c r="J99" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I99" s="39"/>
+      <c r="J99" s="29"/>
       <c r="K99" s="29"/>
       <c r="L99" s="29"/>
       <c r="M99" s="29"/>
@@ -7807,27 +7610,25 @@
     </row>
     <row r="100" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="31">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="B100" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C100" s="38" t="s">
-        <v>42</v>
+      <c r="C100" s="37" t="s">
+        <v>43</v>
       </c>
       <c r="D100" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="E100" s="32" t="s">
         <v>160</v>
-      </c>
-      <c r="E100" s="32" t="s">
-        <v>381</v>
       </c>
       <c r="F100" s="33"/>
       <c r="G100" s="33"/>
       <c r="H100" s="33"/>
-      <c r="I100" s="40"/>
-      <c r="J100" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I100" s="39"/>
+      <c r="J100" s="29"/>
       <c r="K100" s="29"/>
       <c r="L100" s="29"/>
       <c r="M100" s="29"/>
@@ -7846,27 +7647,25 @@
     </row>
     <row r="101" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="31">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="B101" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C101" s="38" t="s">
-        <v>42</v>
+      <c r="C101" s="37" t="s">
+        <v>43</v>
       </c>
       <c r="D101" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E101" s="32" t="s">
-        <v>382</v>
+        <v>162</v>
       </c>
       <c r="F101" s="33"/>
       <c r="G101" s="33"/>
       <c r="H101" s="33"/>
-      <c r="I101" s="40"/>
-      <c r="J101" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I101" s="39"/>
+      <c r="J101" s="29"/>
       <c r="K101" s="29"/>
       <c r="L101" s="29"/>
       <c r="M101" s="29"/>
@@ -7885,27 +7684,25 @@
     </row>
     <row r="102" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="31">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="B102" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C102" s="38" t="s">
-        <v>42</v>
+      <c r="C102" s="37" t="s">
+        <v>43</v>
       </c>
       <c r="D102" s="31" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E102" s="32" t="s">
-        <v>383</v>
+        <v>164</v>
       </c>
       <c r="F102" s="33"/>
       <c r="G102" s="33"/>
       <c r="H102" s="33"/>
-      <c r="I102" s="40"/>
-      <c r="J102" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I102" s="39"/>
+      <c r="J102" s="29"/>
       <c r="K102" s="29"/>
       <c r="L102" s="29"/>
       <c r="M102" s="29"/>
@@ -7924,27 +7721,25 @@
     </row>
     <row r="103" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="31">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="B103" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C103" s="38" t="s">
-        <v>42</v>
+      <c r="C103" s="37" t="s">
+        <v>43</v>
       </c>
       <c r="D103" s="31" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E103" s="32" t="s">
-        <v>384</v>
+        <v>299</v>
       </c>
       <c r="F103" s="33"/>
       <c r="G103" s="33"/>
       <c r="H103" s="33"/>
-      <c r="I103" s="40"/>
-      <c r="J103" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I103" s="39"/>
+      <c r="J103" s="29"/>
       <c r="K103" s="29"/>
       <c r="L103" s="29"/>
       <c r="M103" s="29"/>
@@ -7963,27 +7758,25 @@
     </row>
     <row r="104" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="31">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="B104" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C104" s="38" t="s">
-        <v>42</v>
+      <c r="C104" s="37" t="s">
+        <v>43</v>
       </c>
       <c r="D104" s="31" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E104" s="32" t="s">
-        <v>385</v>
+        <v>167</v>
       </c>
       <c r="F104" s="33"/>
       <c r="G104" s="33"/>
       <c r="H104" s="33"/>
-      <c r="I104" s="40"/>
-      <c r="J104" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I104" s="39"/>
+      <c r="J104" s="29"/>
       <c r="K104" s="29"/>
       <c r="L104" s="29"/>
       <c r="M104" s="29"/>
@@ -8002,27 +7795,25 @@
     </row>
     <row r="105" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="31">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="B105" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C105" s="38" t="s">
+      <c r="C105" s="37" t="s">
         <v>43</v>
       </c>
       <c r="D105" s="31" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E105" s="32" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F105" s="33"/>
       <c r="G105" s="33"/>
       <c r="H105" s="33"/>
-      <c r="I105" s="40"/>
-      <c r="J105" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I105" s="39"/>
+      <c r="J105" s="29"/>
       <c r="K105" s="29"/>
       <c r="L105" s="29"/>
       <c r="M105" s="29"/>
@@ -8041,27 +7832,25 @@
     </row>
     <row r="106" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="31">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="B106" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C106" s="38" t="s">
+      <c r="C106" s="37" t="s">
         <v>43</v>
       </c>
       <c r="D106" s="31" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E106" s="32" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F106" s="33"/>
       <c r="G106" s="33"/>
       <c r="H106" s="33"/>
-      <c r="I106" s="40"/>
-      <c r="J106" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I106" s="39"/>
+      <c r="J106" s="29"/>
       <c r="K106" s="29"/>
       <c r="L106" s="29"/>
       <c r="M106" s="29"/>
@@ -8080,27 +7869,25 @@
     </row>
     <row r="107" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="31">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="B107" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C107" s="38" t="s">
+      <c r="C107" s="37" t="s">
         <v>43</v>
       </c>
       <c r="D107" s="31" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E107" s="32" t="s">
-        <v>170</v>
+        <v>298</v>
       </c>
       <c r="F107" s="33"/>
       <c r="G107" s="33"/>
       <c r="H107" s="33"/>
-      <c r="I107" s="40"/>
-      <c r="J107" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I107" s="39"/>
+      <c r="J107" s="29"/>
       <c r="K107" s="29"/>
       <c r="L107" s="29"/>
       <c r="M107" s="29"/>
@@ -8119,27 +7906,25 @@
     </row>
     <row r="108" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="31">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="B108" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C108" s="38" t="s">
+      <c r="C108" s="37" t="s">
         <v>43</v>
       </c>
       <c r="D108" s="31" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E108" s="32" t="s">
-        <v>386</v>
+        <v>174</v>
       </c>
       <c r="F108" s="33"/>
       <c r="G108" s="33"/>
       <c r="H108" s="33"/>
-      <c r="I108" s="40"/>
-      <c r="J108" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I108" s="39"/>
+      <c r="J108" s="29"/>
       <c r="K108" s="29"/>
       <c r="L108" s="29"/>
       <c r="M108" s="29"/>
@@ -8158,27 +7943,25 @@
     </row>
     <row r="109" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="31">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="B109" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C109" s="38" t="s">
+      <c r="C109" s="37" t="s">
         <v>43</v>
       </c>
       <c r="D109" s="31" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E109" s="32" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F109" s="33"/>
       <c r="G109" s="33"/>
       <c r="H109" s="33"/>
-      <c r="I109" s="40"/>
-      <c r="J109" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I109" s="39"/>
+      <c r="J109" s="29"/>
       <c r="K109" s="29"/>
       <c r="L109" s="29"/>
       <c r="M109" s="29"/>
@@ -8197,27 +7980,25 @@
     </row>
     <row r="110" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="31">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B110" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C110" s="38" t="s">
+      <c r="C110" s="37" t="s">
         <v>43</v>
       </c>
       <c r="D110" s="31" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E110" s="32" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F110" s="33"/>
       <c r="G110" s="33"/>
       <c r="H110" s="33"/>
-      <c r="I110" s="40"/>
-      <c r="J110" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I110" s="39"/>
+      <c r="J110" s="29"/>
       <c r="K110" s="29"/>
       <c r="L110" s="29"/>
       <c r="M110" s="29"/>
@@ -8236,27 +8017,25 @@
     </row>
     <row r="111" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="31">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="B111" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C111" s="38" t="s">
+      <c r="C111" s="37" t="s">
         <v>43</v>
       </c>
       <c r="D111" s="31" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E111" s="32" t="s">
-        <v>177</v>
+        <v>296</v>
       </c>
       <c r="F111" s="33"/>
       <c r="G111" s="33"/>
       <c r="H111" s="33"/>
-      <c r="I111" s="40"/>
-      <c r="J111" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I111" s="39"/>
+      <c r="J111" s="29"/>
       <c r="K111" s="29"/>
       <c r="L111" s="29"/>
       <c r="M111" s="29"/>
@@ -8275,27 +8054,25 @@
     </row>
     <row r="112" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="31">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="B112" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C112" s="38" t="s">
+      <c r="C112" s="37" t="s">
         <v>43</v>
       </c>
       <c r="D112" s="31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E112" s="32" t="s">
-        <v>387</v>
+        <v>181</v>
       </c>
       <c r="F112" s="33"/>
       <c r="G112" s="33"/>
       <c r="H112" s="33"/>
-      <c r="I112" s="40"/>
-      <c r="J112" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I112" s="39"/>
+      <c r="J112" s="29"/>
       <c r="K112" s="29"/>
       <c r="L112" s="29"/>
       <c r="M112" s="29"/>
@@ -8314,27 +8091,25 @@
     </row>
     <row r="113" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="31">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B113" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C113" s="38" t="s">
+      <c r="C113" s="37" t="s">
         <v>43</v>
       </c>
       <c r="D113" s="31" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E113" s="32" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F113" s="33"/>
       <c r="G113" s="33"/>
       <c r="H113" s="33"/>
-      <c r="I113" s="40"/>
-      <c r="J113" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I113" s="39"/>
+      <c r="J113" s="29"/>
       <c r="K113" s="29"/>
       <c r="L113" s="29"/>
       <c r="M113" s="29"/>
@@ -8353,27 +8128,25 @@
     </row>
     <row r="114" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="31">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="B114" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C114" s="38" t="s">
+      <c r="C114" s="37" t="s">
         <v>43</v>
       </c>
       <c r="D114" s="31" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E114" s="32" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F114" s="33"/>
       <c r="G114" s="33"/>
       <c r="H114" s="33"/>
-      <c r="I114" s="40"/>
-      <c r="J114" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I114" s="39"/>
+      <c r="J114" s="29"/>
       <c r="K114" s="29"/>
       <c r="L114" s="29"/>
       <c r="M114" s="29"/>
@@ -8392,27 +8165,25 @@
     </row>
     <row r="115" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="31">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="B115" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C115" s="38" t="s">
+      <c r="C115" s="37" t="s">
         <v>43</v>
       </c>
       <c r="D115" s="31" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E115" s="32" t="s">
-        <v>184</v>
+        <v>346</v>
       </c>
       <c r="F115" s="33"/>
       <c r="G115" s="33"/>
       <c r="H115" s="33"/>
-      <c r="I115" s="40"/>
-      <c r="J115" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I115" s="39"/>
+      <c r="J115" s="29"/>
       <c r="K115" s="29"/>
       <c r="L115" s="29"/>
       <c r="M115" s="29"/>
@@ -8431,27 +8202,25 @@
     </row>
     <row r="116" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="31">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B116" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C116" s="38" t="s">
+      <c r="C116" s="37" t="s">
         <v>43</v>
       </c>
       <c r="D116" s="31" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E116" s="32" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="F116" s="33"/>
       <c r="G116" s="33"/>
       <c r="H116" s="33"/>
-      <c r="I116" s="40"/>
-      <c r="J116" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I116" s="39"/>
+      <c r="J116" s="29"/>
       <c r="K116" s="29"/>
       <c r="L116" s="29"/>
       <c r="M116" s="29"/>
@@ -8470,27 +8239,25 @@
     </row>
     <row r="117" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="31">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="B117" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C117" s="38" t="s">
-        <v>43</v>
+      <c r="C117" s="37" t="s">
+        <v>51</v>
       </c>
       <c r="D117" s="31" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E117" s="32" t="s">
-        <v>187</v>
+        <v>348</v>
       </c>
       <c r="F117" s="33"/>
       <c r="G117" s="33"/>
       <c r="H117" s="33"/>
-      <c r="I117" s="40"/>
-      <c r="J117" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I117" s="39"/>
+      <c r="J117" s="29"/>
       <c r="K117" s="29"/>
       <c r="L117" s="29"/>
       <c r="M117" s="29"/>
@@ -8509,27 +8276,25 @@
     </row>
     <row r="118" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="31">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="B118" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C118" s="38" t="s">
-        <v>43</v>
+      <c r="C118" s="37" t="s">
+        <v>51</v>
       </c>
       <c r="D118" s="31" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E118" s="32" t="s">
-        <v>189</v>
+        <v>349</v>
       </c>
       <c r="F118" s="33"/>
       <c r="G118" s="33"/>
       <c r="H118" s="33"/>
-      <c r="I118" s="40"/>
-      <c r="J118" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I118" s="39"/>
+      <c r="J118" s="29"/>
       <c r="K118" s="29"/>
       <c r="L118" s="29"/>
       <c r="M118" s="29"/>
@@ -8548,27 +8313,25 @@
     </row>
     <row r="119" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="31">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="B119" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C119" s="38" t="s">
-        <v>43</v>
+      <c r="C119" s="37" t="s">
+        <v>51</v>
       </c>
       <c r="D119" s="31" t="s">
         <v>190</v>
       </c>
       <c r="E119" s="32" t="s">
-        <v>191</v>
+        <v>350</v>
       </c>
       <c r="F119" s="33"/>
       <c r="G119" s="33"/>
       <c r="H119" s="33"/>
-      <c r="I119" s="40"/>
-      <c r="J119" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I119" s="39"/>
+      <c r="J119" s="29"/>
       <c r="K119" s="29"/>
       <c r="L119" s="29"/>
       <c r="M119" s="29"/>
@@ -8587,27 +8350,25 @@
     </row>
     <row r="120" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="31">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="B120" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C120" s="38" t="s">
-        <v>43</v>
+      <c r="C120" s="37" t="s">
+        <v>51</v>
       </c>
       <c r="D120" s="31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E120" s="32" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="F120" s="33"/>
       <c r="G120" s="33"/>
       <c r="H120" s="33"/>
-      <c r="I120" s="40"/>
-      <c r="J120" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I120" s="39"/>
+      <c r="J120" s="29"/>
       <c r="K120" s="29"/>
       <c r="L120" s="29"/>
       <c r="M120" s="29"/>
@@ -8626,27 +8387,25 @@
     </row>
     <row r="121" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="31">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="B121" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C121" s="38" t="s">
-        <v>43</v>
+      <c r="C121" s="37" t="s">
+        <v>51</v>
       </c>
       <c r="D121" s="31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E121" s="32" t="s">
-        <v>194</v>
+        <v>352</v>
       </c>
       <c r="F121" s="33"/>
       <c r="G121" s="33"/>
       <c r="H121" s="33"/>
-      <c r="I121" s="40"/>
-      <c r="J121" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I121" s="39"/>
+      <c r="J121" s="29"/>
       <c r="K121" s="29"/>
       <c r="L121" s="29"/>
       <c r="M121" s="29"/>
@@ -8665,27 +8424,25 @@
     </row>
     <row r="122" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="31">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="B122" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C122" s="38" t="s">
-        <v>43</v>
+      <c r="C122" s="37" t="s">
+        <v>51</v>
       </c>
       <c r="D122" s="31" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E122" s="32" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F122" s="33"/>
       <c r="G122" s="33"/>
       <c r="H122" s="33"/>
-      <c r="I122" s="40"/>
-      <c r="J122" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I122" s="39"/>
+      <c r="J122" s="29"/>
       <c r="K122" s="29"/>
       <c r="L122" s="29"/>
       <c r="M122" s="29"/>
@@ -8704,27 +8461,25 @@
     </row>
     <row r="123" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="31">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="B123" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C123" s="38" t="s">
-        <v>43</v>
+      <c r="C123" s="37" t="s">
+        <v>51</v>
       </c>
       <c r="D123" s="31" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E123" s="32" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F123" s="33"/>
       <c r="G123" s="33"/>
       <c r="H123" s="33"/>
-      <c r="I123" s="40"/>
-      <c r="J123" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I123" s="39"/>
+      <c r="J123" s="29"/>
       <c r="K123" s="29"/>
       <c r="L123" s="29"/>
       <c r="M123" s="29"/>
@@ -8743,27 +8498,25 @@
     </row>
     <row r="124" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="31">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="B124" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C124" s="38" t="s">
-        <v>43</v>
+      <c r="C124" s="37" t="s">
+        <v>51</v>
       </c>
       <c r="D124" s="31" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E124" s="32" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="F124" s="33"/>
       <c r="G124" s="33"/>
       <c r="H124" s="33"/>
-      <c r="I124" s="40"/>
-      <c r="J124" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I124" s="39"/>
+      <c r="J124" s="29"/>
       <c r="K124" s="29"/>
       <c r="L124" s="29"/>
       <c r="M124" s="29"/>
@@ -8782,27 +8535,25 @@
     </row>
     <row r="125" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="31">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="B125" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C125" s="38" t="s">
-        <v>43</v>
+      <c r="C125" s="37" t="s">
+        <v>51</v>
       </c>
       <c r="D125" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E125" s="32" t="s">
-        <v>201</v>
+        <v>289</v>
       </c>
       <c r="F125" s="33"/>
       <c r="G125" s="33"/>
       <c r="H125" s="33"/>
-      <c r="I125" s="40"/>
-      <c r="J125" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I125" s="39"/>
+      <c r="J125" s="29"/>
       <c r="K125" s="29"/>
       <c r="L125" s="29"/>
       <c r="M125" s="29"/>
@@ -8821,27 +8572,25 @@
     </row>
     <row r="126" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="31">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="B126" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C126" s="38" t="s">
-        <v>43</v>
+      <c r="C126" s="37" t="s">
+        <v>51</v>
       </c>
       <c r="D126" s="31" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E126" s="32" t="s">
-        <v>203</v>
+        <v>290</v>
       </c>
       <c r="F126" s="33"/>
       <c r="G126" s="33"/>
       <c r="H126" s="33"/>
-      <c r="I126" s="40"/>
-      <c r="J126" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I126" s="39"/>
+      <c r="J126" s="29"/>
       <c r="K126" s="29"/>
       <c r="L126" s="29"/>
       <c r="M126" s="29"/>
@@ -8860,27 +8609,25 @@
     </row>
     <row r="127" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="31">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="B127" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C127" s="38" t="s">
-        <v>43</v>
+      <c r="C127" s="37" t="s">
+        <v>51</v>
       </c>
       <c r="D127" s="31" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E127" s="32" t="s">
-        <v>205</v>
+        <v>291</v>
       </c>
       <c r="F127" s="33"/>
       <c r="G127" s="33"/>
       <c r="H127" s="33"/>
-      <c r="I127" s="40"/>
-      <c r="J127" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I127" s="39"/>
+      <c r="J127" s="29"/>
       <c r="K127" s="29"/>
       <c r="L127" s="29"/>
       <c r="M127" s="29"/>
@@ -8899,27 +8646,25 @@
     </row>
     <row r="128" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="31">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="B128" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C128" s="38" t="s">
-        <v>43</v>
+      <c r="C128" s="37" t="s">
+        <v>51</v>
       </c>
       <c r="D128" s="31" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E128" s="32" t="s">
-        <v>388</v>
+        <v>292</v>
       </c>
       <c r="F128" s="33"/>
       <c r="G128" s="33"/>
       <c r="H128" s="33"/>
-      <c r="I128" s="40"/>
-      <c r="J128" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I128" s="39"/>
+      <c r="J128" s="29"/>
       <c r="K128" s="29"/>
       <c r="L128" s="29"/>
       <c r="M128" s="29"/>
@@ -8938,27 +8683,25 @@
     </row>
     <row r="129" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="31">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="B129" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C129" s="38" t="s">
-        <v>43</v>
+      <c r="C129" s="37" t="s">
+        <v>51</v>
       </c>
       <c r="D129" s="31" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E129" s="32" t="s">
-        <v>389</v>
+        <v>293</v>
       </c>
       <c r="F129" s="33"/>
       <c r="G129" s="33"/>
       <c r="H129" s="33"/>
-      <c r="I129" s="40"/>
-      <c r="J129" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I129" s="39"/>
+      <c r="J129" s="29"/>
       <c r="K129" s="29"/>
       <c r="L129" s="29"/>
       <c r="M129" s="29"/>
@@ -8977,27 +8720,25 @@
     </row>
     <row r="130" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="31">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="B130" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C130" s="38" t="s">
+      <c r="C130" s="37" t="s">
         <v>51</v>
       </c>
       <c r="D130" s="31" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E130" s="32" t="s">
-        <v>209</v>
+        <v>294</v>
       </c>
       <c r="F130" s="33"/>
       <c r="G130" s="33"/>
       <c r="H130" s="33"/>
-      <c r="I130" s="40"/>
-      <c r="J130" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I130" s="39"/>
+      <c r="J130" s="29"/>
       <c r="K130" s="29"/>
       <c r="L130" s="29"/>
       <c r="M130" s="29"/>
@@ -9016,27 +8757,25 @@
     </row>
     <row r="131" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="31">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="B131" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C131" s="38" t="s">
+      <c r="C131" s="37" t="s">
         <v>51</v>
       </c>
       <c r="D131" s="31" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E131" s="32" t="s">
-        <v>390</v>
+        <v>295</v>
       </c>
       <c r="F131" s="33"/>
       <c r="G131" s="33"/>
       <c r="H131" s="33"/>
-      <c r="I131" s="40"/>
-      <c r="J131" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I131" s="39"/>
+      <c r="J131" s="29"/>
       <c r="K131" s="29"/>
       <c r="L131" s="29"/>
       <c r="M131" s="29"/>
@@ -9055,27 +8794,25 @@
     </row>
     <row r="132" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="31">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="B132" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C132" s="38" t="s">
+      <c r="C132" s="37" t="s">
         <v>51</v>
       </c>
       <c r="D132" s="31" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E132" s="32" t="s">
-        <v>391</v>
+        <v>297</v>
       </c>
       <c r="F132" s="33"/>
       <c r="G132" s="33"/>
       <c r="H132" s="33"/>
-      <c r="I132" s="40"/>
-      <c r="J132" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I132" s="39"/>
+      <c r="J132" s="29"/>
       <c r="K132" s="29"/>
       <c r="L132" s="29"/>
       <c r="M132" s="29"/>
@@ -9094,29 +8831,33 @@
     </row>
     <row r="133" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="31">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="B133" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C133" s="38" t="s">
-        <v>51</v>
+      <c r="C133" s="37" t="s">
+        <v>48</v>
       </c>
       <c r="D133" s="31" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E133" s="32" t="s">
-        <v>392</v>
+        <v>353</v>
       </c>
       <c r="F133" s="33"/>
       <c r="G133" s="33"/>
       <c r="H133" s="33"/>
-      <c r="I133" s="40"/>
+      <c r="I133" s="39"/>
       <c r="J133" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="K133" s="29"/>
-      <c r="L133" s="29"/>
+        <v>234</v>
+      </c>
+      <c r="K133" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="L133" s="29" t="s">
+        <v>438</v>
+      </c>
       <c r="M133" s="29"/>
       <c r="N133" s="29"/>
       <c r="O133" s="29"/>
@@ -9133,29 +8874,33 @@
     </row>
     <row r="134" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="31">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="B134" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C134" s="38" t="s">
-        <v>51</v>
+      <c r="C134" s="37" t="s">
+        <v>48</v>
       </c>
       <c r="D134" s="31" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E134" s="32" t="s">
-        <v>393</v>
+        <v>354</v>
       </c>
       <c r="F134" s="33"/>
       <c r="G134" s="33"/>
       <c r="H134" s="33"/>
-      <c r="I134" s="40"/>
+      <c r="I134" s="39"/>
       <c r="J134" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="K134" s="29"/>
-      <c r="L134" s="29"/>
+        <v>234</v>
+      </c>
+      <c r="K134" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="L134" s="45" t="s">
+        <v>439</v>
+      </c>
       <c r="M134" s="29"/>
       <c r="N134" s="29"/>
       <c r="O134" s="29"/>
@@ -9172,29 +8917,33 @@
     </row>
     <row r="135" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="31">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="B135" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C135" s="38" t="s">
-        <v>51</v>
+      <c r="C135" s="37" t="s">
+        <v>48</v>
       </c>
       <c r="D135" s="31" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E135" s="32" t="s">
-        <v>394</v>
+        <v>355</v>
       </c>
       <c r="F135" s="33"/>
       <c r="G135" s="33"/>
       <c r="H135" s="33"/>
-      <c r="I135" s="40"/>
+      <c r="I135" s="39"/>
       <c r="J135" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="K135" s="29"/>
-      <c r="L135" s="29"/>
+        <v>234</v>
+      </c>
+      <c r="K135" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="L135" s="45" t="s">
+        <v>440</v>
+      </c>
       <c r="M135" s="29"/>
       <c r="N135" s="29"/>
       <c r="O135" s="29"/>
@@ -9211,29 +8960,33 @@
     </row>
     <row r="136" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="31">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="B136" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C136" s="38" t="s">
-        <v>51</v>
+      <c r="C136" s="37" t="s">
+        <v>48</v>
       </c>
       <c r="D136" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E136" s="32" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="F136" s="33"/>
       <c r="G136" s="33"/>
       <c r="H136" s="33"/>
-      <c r="I136" s="40"/>
+      <c r="I136" s="39"/>
       <c r="J136" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="K136" s="29"/>
-      <c r="L136" s="29"/>
+        <v>234</v>
+      </c>
+      <c r="K136" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="L136" s="45" t="s">
+        <v>441</v>
+      </c>
       <c r="M136" s="29"/>
       <c r="N136" s="29"/>
       <c r="O136" s="29"/>
@@ -9250,29 +9003,33 @@
     </row>
     <row r="137" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="31">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="B137" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C137" s="38" t="s">
-        <v>51</v>
+      <c r="C137" s="37" t="s">
+        <v>48</v>
       </c>
       <c r="D137" s="31" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E137" s="32" t="s">
-        <v>217</v>
+        <v>357</v>
       </c>
       <c r="F137" s="33"/>
       <c r="G137" s="33"/>
       <c r="H137" s="33"/>
-      <c r="I137" s="40"/>
+      <c r="I137" s="39"/>
       <c r="J137" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="K137" s="29"/>
-      <c r="L137" s="29"/>
+        <v>234</v>
+      </c>
+      <c r="K137" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="L137" s="45" t="s">
+        <v>442</v>
+      </c>
       <c r="M137" s="29"/>
       <c r="N137" s="29"/>
       <c r="O137" s="29"/>
@@ -9289,29 +9046,33 @@
     </row>
     <row r="138" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="31">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="B138" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C138" s="38" t="s">
-        <v>51</v>
+      <c r="C138" s="37" t="s">
+        <v>48</v>
       </c>
       <c r="D138" s="31" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E138" s="32" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F138" s="33"/>
       <c r="G138" s="33"/>
       <c r="H138" s="33"/>
-      <c r="I138" s="40"/>
+      <c r="I138" s="39"/>
       <c r="J138" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="K138" s="29"/>
-      <c r="L138" s="29"/>
+        <v>234</v>
+      </c>
+      <c r="K138" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="L138" s="45" t="s">
+        <v>443</v>
+      </c>
       <c r="M138" s="29"/>
       <c r="N138" s="29"/>
       <c r="O138" s="29"/>
@@ -9328,29 +9089,33 @@
     </row>
     <row r="139" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="31">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="B139" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C139" s="38" t="s">
-        <v>51</v>
+      <c r="C139" s="37" t="s">
+        <v>48</v>
       </c>
       <c r="D139" s="31" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E139" s="32" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="F139" s="33"/>
       <c r="G139" s="33"/>
       <c r="H139" s="33"/>
-      <c r="I139" s="40"/>
+      <c r="I139" s="39"/>
       <c r="J139" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="K139" s="29"/>
-      <c r="L139" s="29"/>
+        <v>234</v>
+      </c>
+      <c r="K139" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="L139" s="45" t="s">
+        <v>444</v>
+      </c>
       <c r="M139" s="29"/>
       <c r="N139" s="29"/>
       <c r="O139" s="29"/>
@@ -9367,29 +9132,33 @@
     </row>
     <row r="140" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="31">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="B140" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C140" s="38" t="s">
-        <v>51</v>
+      <c r="C140" s="37" t="s">
+        <v>48</v>
       </c>
       <c r="D140" s="31" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E140" s="32" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="F140" s="33"/>
       <c r="G140" s="33"/>
       <c r="H140" s="33"/>
-      <c r="I140" s="40"/>
+      <c r="I140" s="39"/>
       <c r="J140" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="K140" s="29"/>
-      <c r="L140" s="29"/>
+        <v>234</v>
+      </c>
+      <c r="K140" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="L140" s="45" t="s">
+        <v>445</v>
+      </c>
       <c r="M140" s="29"/>
       <c r="N140" s="29"/>
       <c r="O140" s="29"/>
@@ -9406,29 +9175,33 @@
     </row>
     <row r="141" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="31">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="B141" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C141" s="38" t="s">
-        <v>51</v>
+      <c r="C141" s="37" t="s">
+        <v>48</v>
       </c>
       <c r="D141" s="31" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E141" s="32" t="s">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="F141" s="33"/>
       <c r="G141" s="33"/>
       <c r="H141" s="33"/>
-      <c r="I141" s="40"/>
+      <c r="I141" s="39"/>
       <c r="J141" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="K141" s="29"/>
-      <c r="L141" s="29"/>
+        <v>234</v>
+      </c>
+      <c r="K141" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="L141" s="45" t="s">
+        <v>446</v>
+      </c>
       <c r="M141" s="29"/>
       <c r="N141" s="29"/>
       <c r="O141" s="29"/>
@@ -9445,29 +9218,33 @@
     </row>
     <row r="142" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="31">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="B142" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C142" s="38" t="s">
-        <v>51</v>
+      <c r="C142" s="37" t="s">
+        <v>48</v>
       </c>
       <c r="D142" s="31" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E142" s="32" t="s">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="F142" s="33"/>
       <c r="G142" s="33"/>
       <c r="H142" s="33"/>
-      <c r="I142" s="40"/>
+      <c r="I142" s="39"/>
       <c r="J142" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="K142" s="29"/>
-      <c r="L142" s="29"/>
+        <v>234</v>
+      </c>
+      <c r="K142" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="L142" s="45" t="s">
+        <v>447</v>
+      </c>
       <c r="M142" s="29"/>
       <c r="N142" s="29"/>
       <c r="O142" s="29"/>
@@ -9484,29 +9261,33 @@
     </row>
     <row r="143" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="31">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="B143" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C143" s="38" t="s">
-        <v>51</v>
+      <c r="C143" s="37" t="s">
+        <v>48</v>
       </c>
       <c r="D143" s="31" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E143" s="32" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="F143" s="33"/>
       <c r="G143" s="33"/>
       <c r="H143" s="33"/>
-      <c r="I143" s="40"/>
+      <c r="I143" s="39"/>
       <c r="J143" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="K143" s="29"/>
-      <c r="L143" s="29"/>
+        <v>234</v>
+      </c>
+      <c r="K143" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="L143" s="45" t="s">
+        <v>448</v>
+      </c>
       <c r="M143" s="29"/>
       <c r="N143" s="29"/>
       <c r="O143" s="29"/>
@@ -9523,29 +9304,33 @@
     </row>
     <row r="144" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="31">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="B144" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C144" s="38" t="s">
-        <v>51</v>
+      <c r="C144" s="37" t="s">
+        <v>48</v>
       </c>
       <c r="D144" s="31" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E144" s="32" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="F144" s="33"/>
       <c r="G144" s="33"/>
       <c r="H144" s="33"/>
-      <c r="I144" s="40"/>
+      <c r="I144" s="39"/>
       <c r="J144" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="K144" s="29"/>
-      <c r="L144" s="29"/>
+        <v>234</v>
+      </c>
+      <c r="K144" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="L144" s="45" t="s">
+        <v>449</v>
+      </c>
       <c r="M144" s="29"/>
       <c r="N144" s="29"/>
       <c r="O144" s="29"/>
@@ -9562,29 +9347,33 @@
     </row>
     <row r="145" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="31">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="B145" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C145" s="38" t="s">
-        <v>51</v>
+      <c r="C145" s="37" t="s">
+        <v>48</v>
       </c>
       <c r="D145" s="31" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E145" s="32" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="F145" s="33"/>
       <c r="G145" s="33"/>
       <c r="H145" s="33"/>
-      <c r="I145" s="40"/>
+      <c r="I145" s="39"/>
       <c r="J145" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="K145" s="29"/>
-      <c r="L145" s="29"/>
+        <v>234</v>
+      </c>
+      <c r="K145" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="L145" s="45" t="s">
+        <v>450</v>
+      </c>
       <c r="M145" s="29"/>
       <c r="N145" s="29"/>
       <c r="O145" s="29"/>
@@ -9601,29 +9390,33 @@
     </row>
     <row r="146" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="31">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="B146" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C146" s="38" t="s">
-        <v>51</v>
+      <c r="C146" s="37" t="s">
+        <v>48</v>
       </c>
       <c r="D146" s="31" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E146" s="32" t="s">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="F146" s="33"/>
       <c r="G146" s="33"/>
       <c r="H146" s="33"/>
-      <c r="I146" s="40"/>
+      <c r="I146" s="39"/>
       <c r="J146" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="K146" s="29"/>
-      <c r="L146" s="29"/>
+        <v>234</v>
+      </c>
+      <c r="K146" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="L146" s="45" t="s">
+        <v>451</v>
+      </c>
       <c r="M146" s="29"/>
       <c r="N146" s="29"/>
       <c r="O146" s="29"/>
@@ -9640,29 +9433,33 @@
     </row>
     <row r="147" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="31">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="B147" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C147" s="38" t="s">
-        <v>51</v>
+      <c r="C147" s="37" t="s">
+        <v>48</v>
       </c>
       <c r="D147" s="31" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E147" s="32" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="F147" s="33"/>
       <c r="G147" s="33"/>
       <c r="H147" s="33"/>
-      <c r="I147" s="40"/>
+      <c r="I147" s="39"/>
       <c r="J147" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="K147" s="29"/>
-      <c r="L147" s="29"/>
+        <v>234</v>
+      </c>
+      <c r="K147" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="L147" s="45" t="s">
+        <v>452</v>
+      </c>
       <c r="M147" s="29"/>
       <c r="N147" s="29"/>
       <c r="O147" s="29"/>
@@ -9679,33 +9476,27 @@
     </row>
     <row r="148" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="31">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="B148" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C148" s="38" t="s">
-        <v>48</v>
+      <c r="C148" s="37" t="s">
+        <v>35</v>
       </c>
       <c r="D148" s="31" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="E148" s="32" t="s">
-        <v>232</v>
+        <v>367</v>
       </c>
       <c r="F148" s="33"/>
       <c r="G148" s="33"/>
       <c r="H148" s="33"/>
-      <c r="I148" s="40"/>
-      <c r="J148" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="K148" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="L148" s="29" t="s">
-        <v>454</v>
-      </c>
+      <c r="I148" s="39"/>
+      <c r="J148" s="29"/>
+      <c r="K148" s="29"/>
+      <c r="L148" s="29"/>
       <c r="M148" s="29"/>
       <c r="N148" s="29"/>
       <c r="O148" s="29"/>
@@ -9717,38 +9508,32 @@
       <c r="U148" s="34"/>
       <c r="V148" s="35"/>
       <c r="W148" s="29" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="149" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="31">
-        <v>175</v>
+        <v>376</v>
       </c>
       <c r="B149" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C149" s="38" t="s">
-        <v>48</v>
+      <c r="C149" s="37" t="s">
+        <v>35</v>
       </c>
       <c r="D149" s="31" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="E149" s="32" t="s">
-        <v>396</v>
+        <v>368</v>
       </c>
       <c r="F149" s="33"/>
       <c r="G149" s="33"/>
       <c r="H149" s="33"/>
-      <c r="I149" s="40"/>
-      <c r="J149" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="K149" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="L149" s="29" t="s">
-        <v>455</v>
-      </c>
+      <c r="I149" s="39"/>
+      <c r="J149" s="29"/>
+      <c r="K149" s="29"/>
+      <c r="L149" s="29"/>
       <c r="M149" s="29"/>
       <c r="N149" s="29"/>
       <c r="O149" s="29"/>
@@ -9760,38 +9545,32 @@
       <c r="U149" s="34"/>
       <c r="V149" s="35"/>
       <c r="W149" s="29" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="150" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="31">
-        <v>176</v>
+        <v>417</v>
       </c>
       <c r="B150" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C150" s="38" t="s">
-        <v>48</v>
+      <c r="C150" s="37" t="s">
+        <v>256</v>
       </c>
       <c r="D150" s="31" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E150" s="32" t="s">
-        <v>397</v>
+        <v>301</v>
       </c>
       <c r="F150" s="33"/>
       <c r="G150" s="33"/>
       <c r="H150" s="33"/>
-      <c r="I150" s="40"/>
-      <c r="J150" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="K150" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="L150" s="50" t="s">
-        <v>456</v>
-      </c>
+      <c r="I150" s="39"/>
+      <c r="J150" s="29"/>
+      <c r="K150" s="29"/>
+      <c r="L150" s="29"/>
       <c r="M150" s="29"/>
       <c r="N150" s="29"/>
       <c r="O150" s="29"/>
@@ -9803,38 +9582,32 @@
       <c r="U150" s="34"/>
       <c r="V150" s="35"/>
       <c r="W150" s="29" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="151" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="31">
-        <v>177</v>
+        <v>418</v>
       </c>
       <c r="B151" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C151" s="38" t="s">
-        <v>48</v>
+      <c r="C151" s="37" t="s">
+        <v>256</v>
       </c>
       <c r="D151" s="31" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="E151" s="32" t="s">
-        <v>398</v>
+        <v>300</v>
       </c>
       <c r="F151" s="33"/>
       <c r="G151" s="33"/>
       <c r="H151" s="33"/>
-      <c r="I151" s="40"/>
-      <c r="J151" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="K151" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="L151" s="50" t="s">
-        <v>457</v>
-      </c>
+      <c r="I151" s="39"/>
+      <c r="J151" s="29"/>
+      <c r="K151" s="29"/>
+      <c r="L151" s="29"/>
       <c r="M151" s="29"/>
       <c r="N151" s="29"/>
       <c r="O151" s="29"/>
@@ -9846,38 +9619,32 @@
       <c r="U151" s="34"/>
       <c r="V151" s="35"/>
       <c r="W151" s="29" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="152" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="31">
-        <v>178</v>
+        <v>419</v>
       </c>
       <c r="B152" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C152" s="38" t="s">
-        <v>48</v>
+      <c r="C152" s="37" t="s">
+        <v>256</v>
       </c>
       <c r="D152" s="31" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="E152" s="32" t="s">
-        <v>399</v>
+        <v>287</v>
       </c>
       <c r="F152" s="33"/>
       <c r="G152" s="33"/>
       <c r="H152" s="33"/>
-      <c r="I152" s="40"/>
-      <c r="J152" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="K152" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="L152" s="50" t="s">
-        <v>458</v>
-      </c>
+      <c r="I152" s="39"/>
+      <c r="J152" s="29"/>
+      <c r="K152" s="29"/>
+      <c r="L152" s="29"/>
       <c r="M152" s="29"/>
       <c r="N152" s="29"/>
       <c r="O152" s="29"/>
@@ -9889,38 +9656,32 @@
       <c r="U152" s="34"/>
       <c r="V152" s="35"/>
       <c r="W152" s="29" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="153" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="31">
-        <v>179</v>
+        <v>423</v>
       </c>
       <c r="B153" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C153" s="38" t="s">
-        <v>48</v>
+      <c r="C153" s="37" t="s">
+        <v>256</v>
       </c>
       <c r="D153" s="31" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="E153" s="32" t="s">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="F153" s="33"/>
       <c r="G153" s="33"/>
       <c r="H153" s="33"/>
-      <c r="I153" s="40"/>
-      <c r="J153" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="K153" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="L153" s="50" t="s">
-        <v>459</v>
-      </c>
+      <c r="I153" s="39"/>
+      <c r="J153" s="29"/>
+      <c r="K153" s="29"/>
+      <c r="L153" s="29"/>
       <c r="M153" s="29"/>
       <c r="N153" s="29"/>
       <c r="O153" s="29"/>
@@ -9937,33 +9698,27 @@
     </row>
     <row r="154" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="31">
-        <v>180</v>
+        <v>424</v>
       </c>
       <c r="B154" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C154" s="38" t="s">
-        <v>48</v>
+      <c r="C154" s="37" t="s">
+        <v>256</v>
       </c>
       <c r="D154" s="31" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="E154" s="32" t="s">
-        <v>401</v>
+        <v>57</v>
       </c>
       <c r="F154" s="33"/>
       <c r="G154" s="33"/>
       <c r="H154" s="33"/>
-      <c r="I154" s="40"/>
-      <c r="J154" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="K154" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="L154" s="50" t="s">
-        <v>460</v>
-      </c>
+      <c r="I154" s="39"/>
+      <c r="J154" s="29"/>
+      <c r="K154" s="29"/>
+      <c r="L154" s="29"/>
       <c r="M154" s="29"/>
       <c r="N154" s="29"/>
       <c r="O154" s="29"/>
@@ -9980,33 +9735,27 @@
     </row>
     <row r="155" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="31">
-        <v>181</v>
+        <v>425</v>
       </c>
       <c r="B155" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C155" s="38" t="s">
-        <v>48</v>
+      <c r="C155" s="37" t="s">
+        <v>256</v>
       </c>
       <c r="D155" s="31" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="E155" s="32" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="F155" s="33"/>
       <c r="G155" s="33"/>
       <c r="H155" s="33"/>
-      <c r="I155" s="40"/>
-      <c r="J155" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="K155" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="L155" s="50" t="s">
-        <v>461</v>
-      </c>
+      <c r="I155" s="39"/>
+      <c r="J155" s="29"/>
+      <c r="K155" s="29"/>
+      <c r="L155" s="29"/>
       <c r="M155" s="29"/>
       <c r="N155" s="29"/>
       <c r="O155" s="29"/>
@@ -10023,33 +9772,27 @@
     </row>
     <row r="156" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="31">
-        <v>182</v>
+        <v>432</v>
       </c>
       <c r="B156" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C156" s="38" t="s">
-        <v>48</v>
+      <c r="C156" s="37" t="s">
+        <v>256</v>
       </c>
       <c r="D156" s="31" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="E156" s="32" t="s">
-        <v>402</v>
+        <v>279</v>
       </c>
       <c r="F156" s="33"/>
       <c r="G156" s="33"/>
       <c r="H156" s="33"/>
-      <c r="I156" s="40"/>
-      <c r="J156" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="K156" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="L156" s="50" t="s">
-        <v>462</v>
-      </c>
+      <c r="I156" s="39"/>
+      <c r="J156" s="29"/>
+      <c r="K156" s="29"/>
+      <c r="L156" s="29"/>
       <c r="M156" s="29"/>
       <c r="N156" s="29"/>
       <c r="O156" s="29"/>
@@ -10066,33 +9809,27 @@
     </row>
     <row r="157" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="31">
-        <v>183</v>
+        <v>433</v>
       </c>
       <c r="B157" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C157" s="38" t="s">
-        <v>48</v>
+      <c r="C157" s="37" t="s">
+        <v>256</v>
       </c>
       <c r="D157" s="31" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="E157" s="32" t="s">
-        <v>403</v>
+        <v>280</v>
       </c>
       <c r="F157" s="33"/>
       <c r="G157" s="33"/>
       <c r="H157" s="33"/>
-      <c r="I157" s="40"/>
-      <c r="J157" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="K157" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="L157" s="50" t="s">
-        <v>463</v>
-      </c>
+      <c r="I157" s="39"/>
+      <c r="J157" s="29"/>
+      <c r="K157" s="29"/>
+      <c r="L157" s="29"/>
       <c r="M157" s="29"/>
       <c r="N157" s="29"/>
       <c r="O157" s="29"/>
@@ -10109,33 +9846,27 @@
     </row>
     <row r="158" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="31">
-        <v>184</v>
+        <v>434</v>
       </c>
       <c r="B158" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C158" s="38" t="s">
-        <v>48</v>
+      <c r="C158" s="37" t="s">
+        <v>256</v>
       </c>
       <c r="D158" s="31" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E158" s="32" t="s">
-        <v>404</v>
+        <v>281</v>
       </c>
       <c r="F158" s="33"/>
       <c r="G158" s="33"/>
       <c r="H158" s="33"/>
-      <c r="I158" s="40"/>
-      <c r="J158" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="K158" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="L158" s="50" t="s">
-        <v>464</v>
-      </c>
+      <c r="I158" s="39"/>
+      <c r="J158" s="29"/>
+      <c r="K158" s="29"/>
+      <c r="L158" s="29"/>
       <c r="M158" s="29"/>
       <c r="N158" s="29"/>
       <c r="O158" s="29"/>
@@ -10152,33 +9883,27 @@
     </row>
     <row r="159" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="31">
-        <v>185</v>
+        <v>435</v>
       </c>
       <c r="B159" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C159" s="38" t="s">
-        <v>48</v>
+      <c r="C159" s="37" t="s">
+        <v>256</v>
       </c>
       <c r="D159" s="31" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="E159" s="32" t="s">
-        <v>405</v>
+        <v>282</v>
       </c>
       <c r="F159" s="33"/>
       <c r="G159" s="33"/>
       <c r="H159" s="33"/>
-      <c r="I159" s="40"/>
-      <c r="J159" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="K159" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="L159" s="50" t="s">
-        <v>465</v>
-      </c>
+      <c r="I159" s="39"/>
+      <c r="J159" s="29"/>
+      <c r="K159" s="29"/>
+      <c r="L159" s="29"/>
       <c r="M159" s="29"/>
       <c r="N159" s="29"/>
       <c r="O159" s="29"/>
@@ -10195,33 +9920,27 @@
     </row>
     <row r="160" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="31">
-        <v>186</v>
+        <v>437</v>
       </c>
       <c r="B160" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C160" s="38" t="s">
-        <v>48</v>
+      <c r="C160" s="37" t="s">
+        <v>256</v>
       </c>
       <c r="D160" s="31" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="E160" s="32" t="s">
-        <v>406</v>
+        <v>272</v>
       </c>
       <c r="F160" s="33"/>
       <c r="G160" s="33"/>
       <c r="H160" s="33"/>
-      <c r="I160" s="40"/>
-      <c r="J160" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="K160" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="L160" s="50" t="s">
-        <v>466</v>
-      </c>
+      <c r="I160" s="39"/>
+      <c r="J160" s="29"/>
+      <c r="K160" s="29"/>
+      <c r="L160" s="29"/>
       <c r="M160" s="29"/>
       <c r="N160" s="29"/>
       <c r="O160" s="29"/>
@@ -10238,33 +9957,27 @@
     </row>
     <row r="161" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="31">
-        <v>187</v>
+        <v>438</v>
       </c>
       <c r="B161" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C161" s="38" t="s">
-        <v>48</v>
+      <c r="C161" s="37" t="s">
+        <v>256</v>
       </c>
       <c r="D161" s="31" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="E161" s="32" t="s">
-        <v>407</v>
+        <v>273</v>
       </c>
       <c r="F161" s="33"/>
       <c r="G161" s="33"/>
       <c r="H161" s="33"/>
-      <c r="I161" s="40"/>
-      <c r="J161" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="K161" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="L161" s="50" t="s">
-        <v>467</v>
-      </c>
+      <c r="I161" s="39"/>
+      <c r="J161" s="29"/>
+      <c r="K161" s="29"/>
+      <c r="L161" s="29"/>
       <c r="M161" s="29"/>
       <c r="N161" s="29"/>
       <c r="O161" s="29"/>
@@ -10281,33 +9994,27 @@
     </row>
     <row r="162" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="31">
-        <v>188</v>
+        <v>440</v>
       </c>
       <c r="B162" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C162" s="38" t="s">
-        <v>48</v>
+      <c r="C162" s="37" t="s">
+        <v>256</v>
       </c>
       <c r="D162" s="31" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="E162" s="32" t="s">
-        <v>408</v>
+        <v>283</v>
       </c>
       <c r="F162" s="33"/>
       <c r="G162" s="33"/>
       <c r="H162" s="33"/>
-      <c r="I162" s="40"/>
-      <c r="J162" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="K162" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="L162" s="50" t="s">
-        <v>468</v>
-      </c>
+      <c r="I162" s="39"/>
+      <c r="J162" s="29"/>
+      <c r="K162" s="29"/>
+      <c r="L162" s="29"/>
       <c r="M162" s="29"/>
       <c r="N162" s="29"/>
       <c r="O162" s="29"/>
@@ -10324,33 +10031,27 @@
     </row>
     <row r="163" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="31">
-        <v>189</v>
+        <v>441</v>
       </c>
       <c r="B163" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C163" s="38" t="s">
-        <v>48</v>
+      <c r="C163" s="37" t="s">
+        <v>256</v>
       </c>
       <c r="D163" s="31" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="E163" s="32" t="s">
-        <v>409</v>
+        <v>284</v>
       </c>
       <c r="F163" s="33"/>
       <c r="G163" s="33"/>
       <c r="H163" s="33"/>
-      <c r="I163" s="40"/>
-      <c r="J163" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="K163" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="L163" s="50" t="s">
-        <v>469</v>
-      </c>
+      <c r="I163" s="39"/>
+      <c r="J163" s="29"/>
+      <c r="K163" s="29"/>
+      <c r="L163" s="29"/>
       <c r="M163" s="29"/>
       <c r="N163" s="29"/>
       <c r="O163" s="29"/>
@@ -10367,33 +10068,27 @@
     </row>
     <row r="164" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="31">
-        <v>190</v>
+        <v>442</v>
       </c>
       <c r="B164" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C164" s="38" t="s">
-        <v>48</v>
+      <c r="C164" s="37" t="s">
+        <v>256</v>
       </c>
       <c r="D164" s="31" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="E164" s="32" t="s">
-        <v>410</v>
+        <v>276</v>
       </c>
       <c r="F164" s="33"/>
       <c r="G164" s="33"/>
       <c r="H164" s="33"/>
-      <c r="I164" s="40"/>
-      <c r="J164" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="K164" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="L164" s="50" t="s">
-        <v>470</v>
-      </c>
+      <c r="I164" s="39"/>
+      <c r="J164" s="29"/>
+      <c r="K164" s="29"/>
+      <c r="L164" s="29"/>
       <c r="M164" s="29"/>
       <c r="N164" s="29"/>
       <c r="O164" s="29"/>
@@ -10410,27 +10105,25 @@
     </row>
     <row r="165" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="31">
-        <v>191</v>
+        <v>443</v>
       </c>
       <c r="B165" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C165" s="38" t="s">
-        <v>35</v>
+      <c r="C165" s="37" t="s">
+        <v>256</v>
       </c>
       <c r="D165" s="31" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="E165" s="32" t="s">
-        <v>411</v>
+        <v>277</v>
       </c>
       <c r="F165" s="33"/>
       <c r="G165" s="33"/>
       <c r="H165" s="33"/>
-      <c r="I165" s="40"/>
-      <c r="J165" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I165" s="39"/>
+      <c r="J165" s="29"/>
       <c r="K165" s="29"/>
       <c r="L165" s="29"/>
       <c r="M165" s="29"/>
@@ -10449,68 +10142,80 @@
     </row>
     <row r="166" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="31">
-        <v>376</v>
+        <v>444</v>
       </c>
       <c r="B166" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C166" s="38" t="s">
-        <v>35</v>
+      <c r="C166" s="37" t="s">
+        <v>48</v>
       </c>
       <c r="D166" s="31" t="s">
-        <v>251</v>
+        <v>206</v>
       </c>
       <c r="E166" s="32" t="s">
-        <v>412</v>
-      </c>
-      <c r="F166" s="33"/>
-      <c r="G166" s="33"/>
-      <c r="H166" s="33"/>
-      <c r="I166" s="40"/>
-      <c r="J166" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="K166" s="29"/>
-      <c r="L166" s="29"/>
-      <c r="M166" s="29"/>
-      <c r="N166" s="29"/>
-      <c r="O166" s="29"/>
-      <c r="P166" s="29"/>
-      <c r="Q166" s="29"/>
-      <c r="R166" s="29"/>
-      <c r="S166" s="29"/>
-      <c r="T166" s="29"/>
-      <c r="U166" s="34"/>
-      <c r="V166" s="35"/>
-      <c r="W166" s="29" t="s">
-        <v>46</v>
+        <v>249</v>
+      </c>
+      <c r="F166" s="51">
+        <v>45771</v>
+      </c>
+      <c r="G166" s="46" t="s">
+        <v>456</v>
+      </c>
+      <c r="H166" s="46" t="s">
+        <v>457</v>
+      </c>
+      <c r="I166" s="46" t="s">
+        <v>458</v>
+      </c>
+      <c r="J166" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="K166" s="47"/>
+      <c r="L166" s="47"/>
+      <c r="M166" s="47"/>
+      <c r="N166" s="47"/>
+      <c r="O166" s="47"/>
+      <c r="P166" s="47"/>
+      <c r="Q166" s="47"/>
+      <c r="R166" s="47"/>
+      <c r="S166" s="47"/>
+      <c r="T166" s="47"/>
+      <c r="U166" s="48"/>
+      <c r="V166" s="49"/>
+      <c r="W166" s="50" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="167" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="31">
-        <v>417</v>
+        <v>445</v>
       </c>
       <c r="B167" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C167" s="38" t="s">
-        <v>289</v>
+      <c r="C167" s="37" t="s">
+        <v>48</v>
       </c>
       <c r="D167" s="31" t="s">
-        <v>290</v>
+        <v>207</v>
       </c>
       <c r="E167" s="32" t="s">
-        <v>337</v>
+        <v>250</v>
       </c>
       <c r="F167" s="33"/>
       <c r="G167" s="33"/>
       <c r="H167" s="33"/>
-      <c r="I167" s="40"/>
+      <c r="I167" s="39"/>
       <c r="J167" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="K167" s="29"/>
-      <c r="L167" s="29"/>
+        <v>234</v>
+      </c>
+      <c r="K167" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="L167" s="29" t="s">
+        <v>455</v>
+      </c>
       <c r="M167" s="29"/>
       <c r="N167" s="29"/>
       <c r="O167" s="29"/>
@@ -10527,27 +10232,25 @@
     </row>
     <row r="168" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="31">
-        <v>418</v>
+        <v>446</v>
       </c>
       <c r="B168" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C168" s="38" t="s">
-        <v>289</v>
+      <c r="C168" s="37" t="s">
+        <v>38</v>
       </c>
       <c r="D168" s="31" t="s">
-        <v>291</v>
+        <v>39</v>
       </c>
       <c r="E168" s="32" t="s">
-        <v>336</v>
+        <v>285</v>
       </c>
       <c r="F168" s="33"/>
       <c r="G168" s="33"/>
       <c r="H168" s="33"/>
-      <c r="I168" s="40"/>
-      <c r="J168" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I168" s="39"/>
+      <c r="J168" s="29"/>
       <c r="K168" s="29"/>
       <c r="L168" s="29"/>
       <c r="M168" s="29"/>
@@ -10561,32 +10264,30 @@
       <c r="U168" s="34"/>
       <c r="V168" s="35"/>
       <c r="W168" s="29" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="169" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="31">
-        <v>419</v>
+        <v>447</v>
       </c>
       <c r="B169" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C169" s="38" t="s">
-        <v>289</v>
+      <c r="C169" s="37" t="s">
+        <v>38</v>
       </c>
       <c r="D169" s="31" t="s">
-        <v>292</v>
+        <v>40</v>
       </c>
       <c r="E169" s="32" t="s">
-        <v>323</v>
+        <v>286</v>
       </c>
       <c r="F169" s="33"/>
       <c r="G169" s="33"/>
       <c r="H169" s="33"/>
-      <c r="I169" s="40"/>
-      <c r="J169" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I169" s="39"/>
+      <c r="J169" s="29"/>
       <c r="K169" s="29"/>
       <c r="L169" s="29"/>
       <c r="M169" s="29"/>
@@ -10600,32 +10301,30 @@
       <c r="U169" s="34"/>
       <c r="V169" s="35"/>
       <c r="W169" s="29" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="170" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="31">
-        <v>423</v>
+        <v>448</v>
       </c>
       <c r="B170" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C170" s="38" t="s">
-        <v>289</v>
+      <c r="C170" s="37" t="s">
+        <v>51</v>
       </c>
       <c r="D170" s="31" t="s">
-        <v>293</v>
+        <v>397</v>
       </c>
       <c r="E170" s="32" t="s">
-        <v>45</v>
+        <v>399</v>
       </c>
       <c r="F170" s="33"/>
       <c r="G170" s="33"/>
       <c r="H170" s="33"/>
-      <c r="I170" s="40"/>
-      <c r="J170" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I170" s="39"/>
+      <c r="J170" s="29"/>
       <c r="K170" s="29"/>
       <c r="L170" s="29"/>
       <c r="M170" s="29"/>
@@ -10639,32 +10338,30 @@
       <c r="U170" s="34"/>
       <c r="V170" s="35"/>
       <c r="W170" s="29" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="171" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="31">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="B171" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C171" s="38" t="s">
-        <v>289</v>
+      <c r="C171" s="37" t="s">
+        <v>51</v>
       </c>
       <c r="D171" s="31" t="s">
-        <v>294</v>
+        <v>398</v>
       </c>
       <c r="E171" s="32" t="s">
-        <v>57</v>
+        <v>400</v>
       </c>
       <c r="F171" s="33"/>
       <c r="G171" s="33"/>
       <c r="H171" s="33"/>
-      <c r="I171" s="40"/>
-      <c r="J171" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I171" s="39"/>
+      <c r="J171" s="29"/>
       <c r="K171" s="29"/>
       <c r="L171" s="29"/>
       <c r="M171" s="29"/>
@@ -10678,32 +10375,30 @@
       <c r="U171" s="34"/>
       <c r="V171" s="35"/>
       <c r="W171" s="29" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="172" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="31">
-        <v>425</v>
+        <v>450</v>
       </c>
       <c r="B172" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C172" s="38" t="s">
-        <v>289</v>
+      <c r="C172" s="37" t="s">
+        <v>37</v>
       </c>
       <c r="D172" s="31" t="s">
-        <v>295</v>
+        <v>381</v>
       </c>
       <c r="E172" s="32" t="s">
-        <v>305</v>
+        <v>383</v>
       </c>
       <c r="F172" s="33"/>
       <c r="G172" s="33"/>
       <c r="H172" s="33"/>
-      <c r="I172" s="40"/>
-      <c r="J172" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I172" s="39"/>
+      <c r="J172" s="29"/>
       <c r="K172" s="29"/>
       <c r="L172" s="29"/>
       <c r="M172" s="29"/>
@@ -10717,32 +10412,30 @@
       <c r="U172" s="34"/>
       <c r="V172" s="35"/>
       <c r="W172" s="29" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="173" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="31">
-        <v>426</v>
+        <v>451</v>
       </c>
       <c r="B173" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C173" s="38" t="s">
-        <v>289</v>
+      <c r="C173" s="37" t="s">
+        <v>37</v>
       </c>
       <c r="D173" s="31" t="s">
-        <v>296</v>
+        <v>382</v>
       </c>
       <c r="E173" s="32" t="s">
-        <v>314</v>
+        <v>384</v>
       </c>
       <c r="F173" s="33"/>
       <c r="G173" s="33"/>
       <c r="H173" s="33"/>
-      <c r="I173" s="40"/>
-      <c r="J173" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I173" s="39"/>
+      <c r="J173" s="29"/>
       <c r="K173" s="29"/>
       <c r="L173" s="29"/>
       <c r="M173" s="29"/>
@@ -10756,32 +10449,30 @@
       <c r="U173" s="34"/>
       <c r="V173" s="35"/>
       <c r="W173" s="29" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="174" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="31">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="B174" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C174" s="38" t="s">
-        <v>289</v>
+      <c r="C174" s="37" t="s">
+        <v>35</v>
       </c>
       <c r="D174" s="31" t="s">
-        <v>297</v>
+        <v>377</v>
       </c>
       <c r="E174" s="32" t="s">
-        <v>315</v>
+        <v>378</v>
       </c>
       <c r="F174" s="33"/>
       <c r="G174" s="33"/>
       <c r="H174" s="33"/>
-      <c r="I174" s="40"/>
-      <c r="J174" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I174" s="39"/>
+      <c r="J174" s="29"/>
       <c r="K174" s="29"/>
       <c r="L174" s="29"/>
       <c r="M174" s="29"/>
@@ -10795,32 +10486,30 @@
       <c r="U174" s="34"/>
       <c r="V174" s="35"/>
       <c r="W174" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="175" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="175" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="31">
-        <v>433</v>
+        <v>454</v>
       </c>
       <c r="B175" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C175" s="38" t="s">
-        <v>289</v>
+      <c r="C175" s="37" t="s">
+        <v>43</v>
       </c>
       <c r="D175" s="31" t="s">
-        <v>298</v>
+        <v>393</v>
       </c>
       <c r="E175" s="32" t="s">
-        <v>316</v>
+        <v>396</v>
       </c>
       <c r="F175" s="33"/>
       <c r="G175" s="33"/>
       <c r="H175" s="33"/>
-      <c r="I175" s="40"/>
-      <c r="J175" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I175" s="39"/>
+      <c r="J175" s="29"/>
       <c r="K175" s="29"/>
       <c r="L175" s="29"/>
       <c r="M175" s="29"/>
@@ -10834,32 +10523,30 @@
       <c r="U175" s="34"/>
       <c r="V175" s="35"/>
       <c r="W175" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="176" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="176" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="31">
-        <v>434</v>
+        <v>455</v>
       </c>
       <c r="B176" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C176" s="38" t="s">
-        <v>289</v>
+      <c r="C176" s="37" t="s">
+        <v>43</v>
       </c>
       <c r="D176" s="31" t="s">
-        <v>299</v>
+        <v>394</v>
       </c>
       <c r="E176" s="32" t="s">
-        <v>317</v>
+        <v>395</v>
       </c>
       <c r="F176" s="33"/>
       <c r="G176" s="33"/>
       <c r="H176" s="33"/>
-      <c r="I176" s="40"/>
-      <c r="J176" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I176" s="39"/>
+      <c r="J176" s="29"/>
       <c r="K176" s="29"/>
       <c r="L176" s="29"/>
       <c r="M176" s="29"/>
@@ -10873,32 +10560,30 @@
       <c r="U176" s="34"/>
       <c r="V176" s="35"/>
       <c r="W176" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="177" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="177" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="31">
-        <v>435</v>
+        <v>456</v>
       </c>
       <c r="B177" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C177" s="38" t="s">
-        <v>289</v>
+      <c r="C177" s="37" t="s">
+        <v>42</v>
       </c>
       <c r="D177" s="31" t="s">
-        <v>300</v>
+        <v>389</v>
       </c>
       <c r="E177" s="32" t="s">
-        <v>318</v>
+        <v>390</v>
       </c>
       <c r="F177" s="33"/>
       <c r="G177" s="33"/>
       <c r="H177" s="33"/>
-      <c r="I177" s="40"/>
-      <c r="J177" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I177" s="39"/>
+      <c r="J177" s="29"/>
       <c r="K177" s="29"/>
       <c r="L177" s="29"/>
       <c r="M177" s="29"/>
@@ -10912,32 +10597,30 @@
       <c r="U177" s="34"/>
       <c r="V177" s="35"/>
       <c r="W177" s="29" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="178" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="31">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="B178" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C178" s="38" t="s">
-        <v>289</v>
+      <c r="C178" s="37" t="s">
+        <v>42</v>
       </c>
       <c r="D178" s="31" t="s">
-        <v>301</v>
+        <v>391</v>
       </c>
       <c r="E178" s="32" t="s">
-        <v>306</v>
+        <v>392</v>
       </c>
       <c r="F178" s="33"/>
       <c r="G178" s="33"/>
       <c r="H178" s="33"/>
-      <c r="I178" s="40"/>
-      <c r="J178" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I178" s="39"/>
+      <c r="J178" s="29"/>
       <c r="K178" s="29"/>
       <c r="L178" s="29"/>
       <c r="M178" s="29"/>
@@ -10951,32 +10634,30 @@
       <c r="U178" s="34"/>
       <c r="V178" s="35"/>
       <c r="W178" s="29" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="179" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="31">
-        <v>438</v>
+        <v>458</v>
       </c>
       <c r="B179" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C179" s="38" t="s">
-        <v>289</v>
+      <c r="C179" s="37" t="s">
+        <v>41</v>
       </c>
       <c r="D179" s="31" t="s">
-        <v>302</v>
+        <v>385</v>
       </c>
       <c r="E179" s="32" t="s">
-        <v>307</v>
+        <v>387</v>
       </c>
       <c r="F179" s="33"/>
       <c r="G179" s="33"/>
       <c r="H179" s="33"/>
-      <c r="I179" s="40"/>
-      <c r="J179" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I179" s="39"/>
+      <c r="J179" s="29"/>
       <c r="K179" s="29"/>
       <c r="L179" s="29"/>
       <c r="M179" s="29"/>
@@ -10990,32 +10671,30 @@
       <c r="U179" s="34"/>
       <c r="V179" s="35"/>
       <c r="W179" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="180" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="180" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="31">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="B180" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C180" s="38" t="s">
-        <v>289</v>
+      <c r="C180" s="37" t="s">
+        <v>41</v>
       </c>
       <c r="D180" s="31" t="s">
-        <v>303</v>
+        <v>386</v>
       </c>
       <c r="E180" s="32" t="s">
-        <v>319</v>
+        <v>388</v>
       </c>
       <c r="F180" s="33"/>
       <c r="G180" s="33"/>
       <c r="H180" s="33"/>
-      <c r="I180" s="40"/>
-      <c r="J180" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I180" s="39"/>
+      <c r="J180" s="29"/>
       <c r="K180" s="29"/>
       <c r="L180" s="29"/>
       <c r="M180" s="29"/>
@@ -11029,32 +10708,30 @@
       <c r="U180" s="34"/>
       <c r="V180" s="35"/>
       <c r="W180" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="181" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="181" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="31">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="B181" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C181" s="38" t="s">
-        <v>289</v>
+      <c r="C181" s="37" t="s">
+        <v>256</v>
       </c>
       <c r="D181" s="31" t="s">
-        <v>304</v>
+        <v>375</v>
       </c>
       <c r="E181" s="32" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="F181" s="33"/>
       <c r="G181" s="33"/>
       <c r="H181" s="33"/>
-      <c r="I181" s="40"/>
-      <c r="J181" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="I181" s="39"/>
+      <c r="J181" s="29"/>
       <c r="K181" s="29"/>
       <c r="L181" s="29"/>
       <c r="M181" s="29"/>
@@ -11068,763 +10745,566 @@
       <c r="U181" s="34"/>
       <c r="V181" s="35"/>
       <c r="W181" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="182" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="31">
+        <v>461</v>
+      </c>
+      <c r="B182" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C182" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D182" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="E182" s="31" t="s">
+        <v>401</v>
+      </c>
+      <c r="F182" s="31"/>
+      <c r="G182" s="31"/>
+      <c r="H182" s="31"/>
+      <c r="I182" s="31"/>
+      <c r="J182" s="31"/>
+      <c r="K182" s="31"/>
+      <c r="L182" s="31"/>
+      <c r="M182" s="31"/>
+      <c r="N182" s="31"/>
+      <c r="O182" s="31"/>
+      <c r="P182" s="31"/>
+      <c r="Q182" s="31"/>
+      <c r="R182" s="31"/>
+      <c r="S182" s="31"/>
+      <c r="T182" s="31"/>
+      <c r="U182" s="31"/>
+      <c r="V182" s="31"/>
+      <c r="W182" s="31" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="182" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="31">
-        <v>442</v>
-      </c>
-      <c r="B182" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C182" s="38" t="s">
-        <v>289</v>
-      </c>
-      <c r="D182" s="31" t="s">
-        <v>308</v>
-      </c>
-      <c r="E182" s="32" t="s">
-        <v>310</v>
-      </c>
-      <c r="F182" s="33"/>
-      <c r="G182" s="33"/>
-      <c r="H182" s="33"/>
-      <c r="I182" s="40"/>
-      <c r="J182" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="K182" s="29"/>
-      <c r="L182" s="29"/>
-      <c r="M182" s="29"/>
-      <c r="N182" s="29"/>
-      <c r="O182" s="29"/>
-      <c r="P182" s="29"/>
-      <c r="Q182" s="29"/>
-      <c r="R182" s="29"/>
-      <c r="S182" s="29"/>
-      <c r="T182" s="29"/>
-      <c r="U182" s="34"/>
-      <c r="V182" s="35"/>
-      <c r="W182" s="29" t="s">
+    <row r="183" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="31">
+        <v>462</v>
+      </c>
+      <c r="B183" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C183" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D183" s="31" t="s">
+        <v>407</v>
+      </c>
+      <c r="E183" s="29" t="s">
+        <v>408</v>
+      </c>
+      <c r="F183" s="31"/>
+      <c r="G183" s="31"/>
+      <c r="H183" s="31"/>
+      <c r="I183" s="31"/>
+      <c r="J183" s="31"/>
+      <c r="K183" s="31"/>
+      <c r="L183" s="31"/>
+      <c r="M183" s="31"/>
+      <c r="N183" s="31"/>
+      <c r="O183" s="31"/>
+      <c r="P183" s="31"/>
+      <c r="Q183" s="31"/>
+      <c r="R183" s="31"/>
+      <c r="S183" s="31"/>
+      <c r="T183" s="31"/>
+      <c r="U183" s="31"/>
+      <c r="V183" s="31"/>
+      <c r="W183" s="31" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="183" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="31">
-        <v>443</v>
-      </c>
-      <c r="B183" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C183" s="38" t="s">
-        <v>289</v>
-      </c>
-      <c r="D183" s="31" t="s">
-        <v>309</v>
-      </c>
-      <c r="E183" s="32" t="s">
-        <v>311</v>
-      </c>
-      <c r="F183" s="33"/>
-      <c r="G183" s="33"/>
-      <c r="H183" s="33"/>
-      <c r="I183" s="40"/>
-      <c r="J183" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="K183" s="29"/>
-      <c r="L183" s="29"/>
-      <c r="M183" s="29"/>
-      <c r="N183" s="29"/>
-      <c r="O183" s="29"/>
-      <c r="P183" s="29"/>
-      <c r="Q183" s="29"/>
-      <c r="R183" s="29"/>
-      <c r="S183" s="29"/>
-      <c r="T183" s="29"/>
-      <c r="U183" s="34"/>
-      <c r="V183" s="35"/>
-      <c r="W183" s="29" t="s">
+    <row r="184" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="31">
+        <v>463</v>
+      </c>
+      <c r="B184" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C184" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D184" s="31" t="s">
+        <v>409</v>
+      </c>
+      <c r="E184" s="29" t="s">
+        <v>410</v>
+      </c>
+      <c r="F184" s="31"/>
+      <c r="G184" s="31"/>
+      <c r="H184" s="31"/>
+      <c r="I184" s="31"/>
+      <c r="J184" s="31"/>
+      <c r="K184" s="31"/>
+      <c r="L184" s="31"/>
+      <c r="M184" s="31"/>
+      <c r="N184" s="31"/>
+      <c r="O184" s="31"/>
+      <c r="P184" s="31"/>
+      <c r="Q184" s="31"/>
+      <c r="R184" s="31"/>
+      <c r="S184" s="31"/>
+      <c r="T184" s="31"/>
+      <c r="U184" s="31"/>
+      <c r="V184" s="31"/>
+      <c r="W184" s="31" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="184" spans="1:23" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="31">
-        <v>444</v>
-      </c>
-      <c r="B184" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C184" s="38" t="s">
+    <row r="185" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="31">
+        <v>464</v>
+      </c>
+      <c r="B185" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C185" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D185" s="31" t="s">
+        <v>411</v>
+      </c>
+      <c r="E185" s="32" t="s">
+        <v>412</v>
+      </c>
+      <c r="F185" s="31"/>
+      <c r="G185" s="31"/>
+      <c r="H185" s="31"/>
+      <c r="I185" s="31"/>
+      <c r="J185" s="31"/>
+      <c r="K185" s="31"/>
+      <c r="L185" s="31"/>
+      <c r="M185" s="31"/>
+      <c r="N185" s="31"/>
+      <c r="O185" s="31"/>
+      <c r="P185" s="31"/>
+      <c r="Q185" s="31"/>
+      <c r="R185" s="31"/>
+      <c r="S185" s="31"/>
+      <c r="T185" s="31"/>
+      <c r="U185" s="31"/>
+      <c r="V185" s="31"/>
+      <c r="W185" s="31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="186" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="31">
+        <v>465</v>
+      </c>
+      <c r="B186" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C186" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D186" s="31" t="s">
+        <v>413</v>
+      </c>
+      <c r="E186" s="32" t="s">
+        <v>414</v>
+      </c>
+      <c r="F186" s="31"/>
+      <c r="G186" s="31"/>
+      <c r="H186" s="31"/>
+      <c r="I186" s="31"/>
+      <c r="J186" s="31"/>
+      <c r="K186" s="31"/>
+      <c r="L186" s="31"/>
+      <c r="M186" s="31"/>
+      <c r="N186" s="31"/>
+      <c r="O186" s="31"/>
+      <c r="P186" s="31"/>
+      <c r="Q186" s="31"/>
+      <c r="R186" s="31"/>
+      <c r="S186" s="31"/>
+      <c r="T186" s="31"/>
+      <c r="U186" s="31"/>
+      <c r="V186" s="31"/>
+      <c r="W186" s="31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="187" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="31">
+        <v>466</v>
+      </c>
+      <c r="B187" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C187" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D187" s="31" t="s">
+        <v>423</v>
+      </c>
+      <c r="E187" s="44" t="s">
+        <v>424</v>
+      </c>
+      <c r="F187" s="31"/>
+      <c r="G187" s="31"/>
+      <c r="H187" s="31"/>
+      <c r="I187" s="31"/>
+      <c r="J187" s="31"/>
+      <c r="K187" s="31"/>
+      <c r="L187" s="31"/>
+      <c r="M187" s="31"/>
+      <c r="N187" s="31"/>
+      <c r="O187" s="31"/>
+      <c r="P187" s="31"/>
+      <c r="Q187" s="31"/>
+      <c r="R187" s="31"/>
+      <c r="S187" s="31"/>
+      <c r="T187" s="31"/>
+      <c r="U187" s="31"/>
+      <c r="V187" s="31"/>
+      <c r="W187" s="31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="188" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="31">
+        <v>467</v>
+      </c>
+      <c r="B188" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C188" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D188" s="31" t="s">
+        <v>415</v>
+      </c>
+      <c r="E188" s="29" t="s">
+        <v>416</v>
+      </c>
+      <c r="F188" s="31"/>
+      <c r="G188" s="31"/>
+      <c r="H188" s="31"/>
+      <c r="I188" s="31"/>
+      <c r="J188" s="31"/>
+      <c r="K188" s="31"/>
+      <c r="L188" s="31"/>
+      <c r="M188" s="31"/>
+      <c r="N188" s="31"/>
+      <c r="O188" s="31"/>
+      <c r="P188" s="31"/>
+      <c r="Q188" s="31"/>
+      <c r="R188" s="31"/>
+      <c r="S188" s="31"/>
+      <c r="T188" s="31"/>
+      <c r="U188" s="31"/>
+      <c r="V188" s="31"/>
+      <c r="W188" s="31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="189" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="31">
+        <v>468</v>
+      </c>
+      <c r="B189" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C189" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D189" s="31" t="s">
+        <v>417</v>
+      </c>
+      <c r="E189" s="29" t="s">
+        <v>418</v>
+      </c>
+      <c r="F189" s="31"/>
+      <c r="G189" s="31"/>
+      <c r="H189" s="31"/>
+      <c r="I189" s="31"/>
+      <c r="J189" s="31"/>
+      <c r="K189" s="31"/>
+      <c r="L189" s="31"/>
+      <c r="M189" s="31"/>
+      <c r="N189" s="31"/>
+      <c r="O189" s="31"/>
+      <c r="P189" s="31"/>
+      <c r="Q189" s="31"/>
+      <c r="R189" s="31"/>
+      <c r="S189" s="31"/>
+      <c r="T189" s="31"/>
+      <c r="U189" s="31"/>
+      <c r="V189" s="31"/>
+      <c r="W189" s="31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="190" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="31">
+        <v>469</v>
+      </c>
+      <c r="B190" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C190" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="D184" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="E184" s="32" t="s">
-        <v>282</v>
-      </c>
-      <c r="F184" s="43">
-        <v>45771</v>
-      </c>
-      <c r="G184" s="44" t="s">
-        <v>475</v>
-      </c>
-      <c r="H184" s="44" t="s">
-        <v>476</v>
-      </c>
-      <c r="I184" s="44" t="s">
-        <v>477</v>
-      </c>
-      <c r="J184" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="K184" s="45"/>
-      <c r="L184" s="45"/>
-      <c r="M184" s="45"/>
-      <c r="N184" s="45"/>
-      <c r="O184" s="45"/>
-      <c r="P184" s="45"/>
-      <c r="Q184" s="45"/>
-      <c r="R184" s="45"/>
-      <c r="S184" s="45"/>
-      <c r="T184" s="45"/>
-      <c r="U184" s="46"/>
-      <c r="V184" s="47"/>
-      <c r="W184" s="48" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="185" spans="1:23" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="31">
-        <v>445</v>
-      </c>
-      <c r="B185" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C185" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="D185" s="31" t="s">
-        <v>230</v>
-      </c>
-      <c r="E185" s="32" t="s">
-        <v>283</v>
-      </c>
-      <c r="F185" s="33"/>
-      <c r="G185" s="33"/>
-      <c r="H185" s="33"/>
-      <c r="I185" s="40"/>
-      <c r="J185" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="K185" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="L185" s="29" t="s">
-        <v>471</v>
-      </c>
-      <c r="M185" s="29"/>
-      <c r="N185" s="29"/>
-      <c r="O185" s="29"/>
-      <c r="P185" s="29"/>
-      <c r="Q185" s="29"/>
-      <c r="R185" s="29"/>
-      <c r="S185" s="29"/>
-      <c r="T185" s="29"/>
-      <c r="U185" s="34"/>
-      <c r="V185" s="35"/>
-      <c r="W185" s="29" t="s">
+      <c r="D190" s="31" t="s">
+        <v>419</v>
+      </c>
+      <c r="E190" s="29" t="s">
+        <v>420</v>
+      </c>
+      <c r="F190" s="31"/>
+      <c r="G190" s="31"/>
+      <c r="H190" s="31"/>
+      <c r="I190" s="31"/>
+      <c r="J190" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="K190" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="L190" s="29" t="s">
+        <v>455</v>
+      </c>
+      <c r="M190" s="31"/>
+      <c r="N190" s="31"/>
+      <c r="O190" s="31"/>
+      <c r="P190" s="31"/>
+      <c r="Q190" s="31"/>
+      <c r="R190" s="31"/>
+      <c r="S190" s="31"/>
+      <c r="T190" s="31"/>
+      <c r="U190" s="31"/>
+      <c r="V190" s="31"/>
+      <c r="W190" s="31" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="186" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="31">
-        <v>446</v>
-      </c>
-      <c r="B186" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C186" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="D186" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="E186" s="32" t="s">
-        <v>321</v>
-      </c>
-      <c r="F186" s="33"/>
-      <c r="G186" s="33"/>
-      <c r="H186" s="33"/>
-      <c r="I186" s="40"/>
-      <c r="J186" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="K186" s="29"/>
-      <c r="L186" s="29"/>
-      <c r="M186" s="29"/>
-      <c r="N186" s="29"/>
-      <c r="O186" s="29"/>
-      <c r="P186" s="29"/>
-      <c r="Q186" s="29"/>
-      <c r="R186" s="29"/>
-      <c r="S186" s="29"/>
-      <c r="T186" s="29"/>
-      <c r="U186" s="34"/>
-      <c r="V186" s="35"/>
-      <c r="W186" s="29" t="s">
+    <row r="191" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="31">
+        <v>470</v>
+      </c>
+      <c r="B191" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C191" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="D191" s="31" t="s">
+        <v>421</v>
+      </c>
+      <c r="E191" s="29" t="s">
+        <v>422</v>
+      </c>
+      <c r="F191" s="31"/>
+      <c r="G191" s="31"/>
+      <c r="H191" s="31"/>
+      <c r="I191" s="31"/>
+      <c r="J191" s="31"/>
+      <c r="K191" s="31"/>
+      <c r="L191" s="31"/>
+      <c r="M191" s="31"/>
+      <c r="N191" s="31"/>
+      <c r="O191" s="31"/>
+      <c r="P191" s="31"/>
+      <c r="Q191" s="31"/>
+      <c r="R191" s="31"/>
+      <c r="S191" s="31"/>
+      <c r="T191" s="31"/>
+      <c r="U191" s="31"/>
+      <c r="V191" s="31"/>
+      <c r="W191" s="31" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="187" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="31">
-        <v>447</v>
-      </c>
-      <c r="B187" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C187" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="D187" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="E187" s="32" t="s">
-        <v>322</v>
-      </c>
-      <c r="F187" s="33"/>
-      <c r="G187" s="33"/>
-      <c r="H187" s="33"/>
-      <c r="I187" s="40"/>
-      <c r="J187" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="K187" s="29"/>
-      <c r="L187" s="29"/>
-      <c r="M187" s="29"/>
-      <c r="N187" s="29"/>
-      <c r="O187" s="29"/>
-      <c r="P187" s="29"/>
-      <c r="Q187" s="29"/>
-      <c r="R187" s="29"/>
-      <c r="S187" s="29"/>
-      <c r="T187" s="29"/>
-      <c r="U187" s="34"/>
-      <c r="V187" s="35"/>
-      <c r="W187" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="188" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="31">
-        <v>448</v>
-      </c>
-      <c r="B188" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C188" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="D188" s="31" t="s">
-        <v>441</v>
-      </c>
-      <c r="E188" s="32" t="s">
-        <v>443</v>
-      </c>
-      <c r="F188" s="33"/>
-      <c r="G188" s="33"/>
-      <c r="H188" s="33"/>
-      <c r="I188" s="40"/>
-      <c r="J188" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="K188" s="29"/>
-      <c r="L188" s="29"/>
-      <c r="M188" s="29"/>
-      <c r="N188" s="29"/>
-      <c r="O188" s="29"/>
-      <c r="P188" s="29"/>
-      <c r="Q188" s="29"/>
-      <c r="R188" s="29"/>
-      <c r="S188" s="29"/>
-      <c r="T188" s="29"/>
-      <c r="U188" s="34"/>
-      <c r="V188" s="35"/>
-      <c r="W188" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="189" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="31">
-        <v>449</v>
-      </c>
-      <c r="B189" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C189" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="D189" s="31" t="s">
-        <v>442</v>
-      </c>
-      <c r="E189" s="32" t="s">
-        <v>444</v>
-      </c>
-      <c r="F189" s="33"/>
-      <c r="G189" s="33"/>
-      <c r="H189" s="33"/>
-      <c r="I189" s="40"/>
-      <c r="J189" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="K189" s="29"/>
-      <c r="L189" s="29"/>
-      <c r="M189" s="29"/>
-      <c r="N189" s="29"/>
-      <c r="O189" s="29"/>
-      <c r="P189" s="29"/>
-      <c r="Q189" s="29"/>
-      <c r="R189" s="29"/>
-      <c r="S189" s="29"/>
-      <c r="T189" s="29"/>
-      <c r="U189" s="34"/>
-      <c r="V189" s="35"/>
-      <c r="W189" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="190" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="31">
-        <v>450</v>
-      </c>
-      <c r="B190" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C190" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="D190" s="31" t="s">
-        <v>425</v>
-      </c>
-      <c r="E190" s="32" t="s">
-        <v>427</v>
-      </c>
-      <c r="F190" s="33"/>
-      <c r="G190" s="33"/>
-      <c r="H190" s="33"/>
-      <c r="I190" s="40"/>
-      <c r="J190" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="K190" s="29"/>
-      <c r="L190" s="29"/>
-      <c r="M190" s="29"/>
-      <c r="N190" s="29"/>
-      <c r="O190" s="29"/>
-      <c r="P190" s="29"/>
-      <c r="Q190" s="29"/>
-      <c r="R190" s="29"/>
-      <c r="S190" s="29"/>
-      <c r="T190" s="29"/>
-      <c r="U190" s="34"/>
-      <c r="V190" s="35"/>
-      <c r="W190" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="191" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="31">
-        <v>451</v>
-      </c>
-      <c r="B191" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C191" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="D191" s="31" t="s">
-        <v>426</v>
-      </c>
-      <c r="E191" s="32" t="s">
-        <v>428</v>
-      </c>
-      <c r="F191" s="33"/>
-      <c r="G191" s="33"/>
-      <c r="H191" s="33"/>
-      <c r="I191" s="40"/>
-      <c r="J191" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="K191" s="29"/>
-      <c r="L191" s="29"/>
-      <c r="M191" s="29"/>
-      <c r="N191" s="29"/>
-      <c r="O191" s="29"/>
-      <c r="P191" s="29"/>
-      <c r="Q191" s="29"/>
-      <c r="R191" s="29"/>
-      <c r="S191" s="29"/>
-      <c r="T191" s="29"/>
-      <c r="U191" s="34"/>
-      <c r="V191" s="35"/>
-      <c r="W191" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="192" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="31">
-        <v>452</v>
-      </c>
-      <c r="B192" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C192" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="D192" s="31" t="s">
-        <v>421</v>
-      </c>
-      <c r="E192" s="32" t="s">
-        <v>422</v>
-      </c>
-      <c r="F192" s="33"/>
-      <c r="G192" s="33"/>
-      <c r="H192" s="33"/>
-      <c r="I192" s="40"/>
-      <c r="J192" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="K192" s="29"/>
-      <c r="L192" s="29"/>
-      <c r="M192" s="29"/>
-      <c r="N192" s="29"/>
-      <c r="O192" s="29"/>
-      <c r="P192" s="29"/>
-      <c r="Q192" s="29"/>
-      <c r="R192" s="29"/>
-      <c r="S192" s="29"/>
-      <c r="T192" s="29"/>
-      <c r="U192" s="34"/>
-      <c r="V192" s="35"/>
-      <c r="W192" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="193" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="31">
-        <v>454</v>
-      </c>
-      <c r="B193" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C193" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="D193" s="31" t="s">
-        <v>437</v>
-      </c>
-      <c r="E193" s="32" t="s">
-        <v>440</v>
-      </c>
-      <c r="F193" s="33"/>
-      <c r="G193" s="33"/>
-      <c r="H193" s="33"/>
-      <c r="I193" s="40"/>
-      <c r="J193" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="K193" s="29"/>
-      <c r="L193" s="29"/>
-      <c r="M193" s="29"/>
-      <c r="N193" s="29"/>
-      <c r="O193" s="29"/>
-      <c r="P193" s="29"/>
-      <c r="Q193" s="29"/>
-      <c r="R193" s="29"/>
-      <c r="S193" s="29"/>
-      <c r="T193" s="29"/>
-      <c r="U193" s="34"/>
-      <c r="V193" s="35"/>
-      <c r="W193" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="194" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="31">
-        <v>455</v>
-      </c>
-      <c r="B194" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C194" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="D194" s="31" t="s">
-        <v>438</v>
-      </c>
-      <c r="E194" s="32" t="s">
-        <v>439</v>
-      </c>
-      <c r="F194" s="33"/>
-      <c r="G194" s="33"/>
-      <c r="H194" s="33"/>
-      <c r="I194" s="40"/>
-      <c r="J194" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="K194" s="29"/>
-      <c r="L194" s="29"/>
-      <c r="M194" s="29"/>
-      <c r="N194" s="29"/>
-      <c r="O194" s="29"/>
-      <c r="P194" s="29"/>
-      <c r="Q194" s="29"/>
-      <c r="R194" s="29"/>
-      <c r="S194" s="29"/>
-      <c r="T194" s="29"/>
-      <c r="U194" s="34"/>
-      <c r="V194" s="35"/>
-      <c r="W194" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="195" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="31">
-        <v>456</v>
-      </c>
-      <c r="B195" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C195" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="D195" s="31" t="s">
-        <v>433</v>
-      </c>
-      <c r="E195" s="32" t="s">
-        <v>434</v>
-      </c>
-      <c r="F195" s="33"/>
-      <c r="G195" s="33"/>
-      <c r="H195" s="33"/>
-      <c r="I195" s="40"/>
-      <c r="J195" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="K195" s="29"/>
-      <c r="L195" s="29"/>
-      <c r="M195" s="29"/>
-      <c r="N195" s="29"/>
-      <c r="O195" s="29"/>
-      <c r="P195" s="29"/>
-      <c r="Q195" s="29"/>
-      <c r="R195" s="29"/>
-      <c r="S195" s="29"/>
-      <c r="T195" s="29"/>
-      <c r="U195" s="34"/>
-      <c r="V195" s="35"/>
-      <c r="W195" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="196" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="31">
-        <v>457</v>
-      </c>
-      <c r="B196" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C196" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="D196" s="31" t="s">
-        <v>435</v>
-      </c>
-      <c r="E196" s="32" t="s">
-        <v>436</v>
-      </c>
-      <c r="F196" s="33"/>
-      <c r="G196" s="33"/>
-      <c r="H196" s="33"/>
-      <c r="I196" s="40"/>
-      <c r="J196" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="K196" s="29"/>
-      <c r="L196" s="29"/>
-      <c r="M196" s="29"/>
-      <c r="N196" s="29"/>
-      <c r="O196" s="29"/>
-      <c r="P196" s="29"/>
-      <c r="Q196" s="29"/>
-      <c r="R196" s="29"/>
-      <c r="S196" s="29"/>
-      <c r="T196" s="29"/>
-      <c r="U196" s="34"/>
-      <c r="V196" s="35"/>
-      <c r="W196" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="197" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="31">
-        <v>458</v>
-      </c>
-      <c r="B197" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C197" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="D197" s="31" t="s">
-        <v>429</v>
-      </c>
-      <c r="E197" s="32" t="s">
-        <v>431</v>
-      </c>
-      <c r="F197" s="33"/>
-      <c r="G197" s="33"/>
-      <c r="H197" s="33"/>
-      <c r="I197" s="40"/>
-      <c r="J197" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="K197" s="29"/>
-      <c r="L197" s="29"/>
-      <c r="M197" s="29"/>
-      <c r="N197" s="29"/>
-      <c r="O197" s="29"/>
-      <c r="P197" s="29"/>
-      <c r="Q197" s="29"/>
-      <c r="R197" s="29"/>
-      <c r="S197" s="29"/>
-      <c r="T197" s="29"/>
-      <c r="U197" s="34"/>
-      <c r="V197" s="35"/>
-      <c r="W197" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="198" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="31">
-        <v>459</v>
-      </c>
-      <c r="B198" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C198" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="D198" s="31" t="s">
-        <v>430</v>
-      </c>
-      <c r="E198" s="32" t="s">
-        <v>432</v>
-      </c>
-      <c r="F198" s="33"/>
-      <c r="G198" s="33"/>
-      <c r="H198" s="33"/>
-      <c r="I198" s="40"/>
-      <c r="J198" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="K198" s="29"/>
-      <c r="L198" s="29"/>
-      <c r="M198" s="29"/>
-      <c r="N198" s="29"/>
-      <c r="O198" s="29"/>
-      <c r="P198" s="29"/>
-      <c r="Q198" s="29"/>
-      <c r="R198" s="29"/>
-      <c r="S198" s="29"/>
-      <c r="T198" s="29"/>
-      <c r="U198" s="34"/>
-      <c r="V198" s="35"/>
-      <c r="W198" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="199" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="31">
-        <v>460</v>
-      </c>
-      <c r="B199" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C199" s="38" t="s">
-        <v>289</v>
-      </c>
-      <c r="D199" s="31" t="s">
-        <v>419</v>
-      </c>
-      <c r="E199" s="32" t="s">
-        <v>420</v>
-      </c>
-      <c r="F199" s="33"/>
-      <c r="G199" s="33"/>
-      <c r="H199" s="33"/>
-      <c r="I199" s="40"/>
-      <c r="J199" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="K199" s="29"/>
-      <c r="L199" s="29"/>
-      <c r="M199" s="29"/>
-      <c r="N199" s="29"/>
-      <c r="O199" s="29"/>
-      <c r="P199" s="29"/>
-      <c r="Q199" s="29"/>
-      <c r="R199" s="29"/>
-      <c r="S199" s="29"/>
-      <c r="T199" s="29"/>
-      <c r="U199" s="34"/>
-      <c r="V199" s="35"/>
-      <c r="W199" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="200" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="31">
-        <v>461</v>
-      </c>
-      <c r="B200" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C200" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="D200" s="31" t="s">
-        <v>446</v>
-      </c>
-      <c r="E200" s="32" t="s">
-        <v>445</v>
-      </c>
-      <c r="F200" s="33"/>
-      <c r="G200" s="33"/>
-      <c r="H200" s="33"/>
-      <c r="I200" s="40"/>
-      <c r="J200" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="K200" s="29"/>
-      <c r="L200" s="29"/>
-      <c r="M200" s="29"/>
-      <c r="N200" s="29"/>
-      <c r="O200" s="29"/>
-      <c r="P200" s="29"/>
-      <c r="Q200" s="29"/>
-      <c r="R200" s="29"/>
-      <c r="S200" s="29"/>
-      <c r="T200" s="29"/>
-      <c r="U200" s="34"/>
-      <c r="V200" s="35"/>
-      <c r="W200" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="201" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F192" s="6"/>
+      <c r="G192" s="6"/>
+      <c r="H192" s="6"/>
+      <c r="I192" s="6"/>
+      <c r="J192" s="7"/>
+      <c r="K192" s="7"/>
+      <c r="L192" s="7"/>
+      <c r="M192" s="7"/>
+      <c r="N192" s="7"/>
+      <c r="O192" s="7"/>
+      <c r="P192" s="7"/>
+      <c r="Q192" s="7"/>
+      <c r="R192" s="7"/>
+      <c r="S192" s="7"/>
+      <c r="T192" s="7"/>
+      <c r="U192" s="8"/>
+      <c r="V192" s="2"/>
+      <c r="W192" s="9"/>
+    </row>
+    <row r="193" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F193" s="6"/>
+      <c r="G193" s="6"/>
+      <c r="H193" s="6"/>
+      <c r="I193" s="6"/>
+      <c r="J193" s="7"/>
+      <c r="K193" s="7"/>
+      <c r="L193" s="7"/>
+      <c r="M193" s="7"/>
+      <c r="N193" s="7"/>
+      <c r="O193" s="7"/>
+      <c r="P193" s="7"/>
+      <c r="Q193" s="7"/>
+      <c r="R193" s="7"/>
+      <c r="S193" s="7"/>
+      <c r="T193" s="7"/>
+      <c r="U193" s="8"/>
+      <c r="V193" s="2"/>
+      <c r="W193" s="9"/>
+    </row>
+    <row r="194" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F194" s="6"/>
+      <c r="G194" s="6"/>
+      <c r="H194" s="6"/>
+      <c r="I194" s="6"/>
+      <c r="J194" s="7"/>
+      <c r="K194" s="7"/>
+      <c r="L194" s="7"/>
+      <c r="M194" s="7"/>
+      <c r="N194" s="7"/>
+      <c r="O194" s="7"/>
+      <c r="P194" s="7"/>
+      <c r="Q194" s="7"/>
+      <c r="R194" s="7"/>
+      <c r="S194" s="7"/>
+      <c r="T194" s="7"/>
+      <c r="U194" s="8"/>
+      <c r="V194" s="2"/>
+      <c r="W194" s="9"/>
+    </row>
+    <row r="195" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F195" s="6"/>
+      <c r="G195" s="6"/>
+      <c r="H195" s="6"/>
+      <c r="I195" s="6"/>
+      <c r="J195" s="7"/>
+      <c r="K195" s="7"/>
+      <c r="L195" s="7"/>
+      <c r="M195" s="7"/>
+      <c r="N195" s="7"/>
+      <c r="O195" s="7"/>
+      <c r="P195" s="7"/>
+      <c r="Q195" s="7"/>
+      <c r="R195" s="7"/>
+      <c r="S195" s="7"/>
+      <c r="T195" s="7"/>
+      <c r="U195" s="8"/>
+      <c r="V195" s="2"/>
+      <c r="W195" s="9"/>
+    </row>
+    <row r="196" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F196" s="6"/>
+      <c r="G196" s="6"/>
+      <c r="H196" s="6"/>
+      <c r="I196" s="6"/>
+      <c r="J196" s="7"/>
+      <c r="K196" s="7"/>
+      <c r="L196" s="7"/>
+      <c r="M196" s="7"/>
+      <c r="N196" s="7"/>
+      <c r="O196" s="7"/>
+      <c r="P196" s="7"/>
+      <c r="Q196" s="7"/>
+      <c r="R196" s="7"/>
+      <c r="S196" s="7"/>
+      <c r="T196" s="7"/>
+      <c r="U196" s="8"/>
+      <c r="V196" s="2"/>
+      <c r="W196" s="9"/>
+    </row>
+    <row r="197" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F197" s="6"/>
+      <c r="G197" s="6"/>
+      <c r="H197" s="6"/>
+      <c r="I197" s="6"/>
+      <c r="J197" s="7"/>
+      <c r="K197" s="7"/>
+      <c r="L197" s="7"/>
+      <c r="M197" s="7"/>
+      <c r="N197" s="7"/>
+      <c r="O197" s="7"/>
+      <c r="P197" s="7"/>
+      <c r="Q197" s="7"/>
+      <c r="R197" s="7"/>
+      <c r="S197" s="7"/>
+      <c r="T197" s="7"/>
+      <c r="U197" s="8"/>
+      <c r="V197" s="2"/>
+      <c r="W197" s="9"/>
+    </row>
+    <row r="198" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F198" s="6"/>
+      <c r="G198" s="6"/>
+      <c r="H198" s="6"/>
+      <c r="I198" s="6"/>
+      <c r="J198" s="7"/>
+      <c r="K198" s="7"/>
+      <c r="L198" s="7"/>
+      <c r="M198" s="7"/>
+      <c r="N198" s="7"/>
+      <c r="O198" s="7"/>
+      <c r="P198" s="7"/>
+      <c r="Q198" s="7"/>
+      <c r="R198" s="7"/>
+      <c r="S198" s="7"/>
+      <c r="T198" s="7"/>
+      <c r="U198" s="8"/>
+      <c r="V198" s="2"/>
+      <c r="W198" s="9"/>
+    </row>
+    <row r="199" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F199" s="6"/>
+      <c r="G199" s="6"/>
+      <c r="H199" s="6"/>
+      <c r="I199" s="6"/>
+      <c r="J199" s="7"/>
+      <c r="K199" s="7"/>
+      <c r="L199" s="7"/>
+      <c r="M199" s="7"/>
+      <c r="N199" s="7"/>
+      <c r="O199" s="7"/>
+      <c r="P199" s="7"/>
+      <c r="Q199" s="7"/>
+      <c r="R199" s="7"/>
+      <c r="S199" s="7"/>
+      <c r="T199" s="7"/>
+      <c r="U199" s="8"/>
+      <c r="V199" s="2"/>
+      <c r="W199" s="9"/>
+    </row>
+    <row r="200" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F200" s="6"/>
+      <c r="G200" s="6"/>
+      <c r="H200" s="6"/>
+      <c r="I200" s="6"/>
+      <c r="J200" s="7"/>
+      <c r="K200" s="7"/>
+      <c r="L200" s="7"/>
+      <c r="M200" s="7"/>
+      <c r="N200" s="7"/>
+      <c r="O200" s="7"/>
+      <c r="P200" s="7"/>
+      <c r="Q200" s="7"/>
+      <c r="R200" s="7"/>
+      <c r="S200" s="7"/>
+      <c r="T200" s="7"/>
+      <c r="U200" s="8"/>
+      <c r="V200" s="2"/>
+      <c r="W200" s="9"/>
+    </row>
+    <row r="201" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F201" s="6"/>
       <c r="G201" s="6"/>
       <c r="H201" s="6"/>
@@ -11844,7 +11324,7 @@
       <c r="V201" s="2"/>
       <c r="W201" s="9"/>
     </row>
-    <row r="202" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F202" s="6"/>
       <c r="G202" s="6"/>
       <c r="H202" s="6"/>
@@ -11864,7 +11344,7 @@
       <c r="V202" s="2"/>
       <c r="W202" s="9"/>
     </row>
-    <row r="203" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F203" s="6"/>
       <c r="G203" s="6"/>
       <c r="H203" s="6"/>
@@ -11884,7 +11364,7 @@
       <c r="V203" s="2"/>
       <c r="W203" s="9"/>
     </row>
-    <row r="204" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F204" s="6"/>
       <c r="G204" s="6"/>
       <c r="H204" s="6"/>
@@ -11904,7 +11384,7 @@
       <c r="V204" s="2"/>
       <c r="W204" s="9"/>
     </row>
-    <row r="205" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F205" s="6"/>
       <c r="G205" s="6"/>
       <c r="H205" s="6"/>
@@ -11924,7 +11404,7 @@
       <c r="V205" s="2"/>
       <c r="W205" s="9"/>
     </row>
-    <row r="206" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F206" s="6"/>
       <c r="G206" s="6"/>
       <c r="H206" s="6"/>
@@ -11944,7 +11424,7 @@
       <c r="V206" s="2"/>
       <c r="W206" s="9"/>
     </row>
-    <row r="207" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F207" s="6"/>
       <c r="G207" s="6"/>
       <c r="H207" s="6"/>
@@ -11964,7 +11444,7 @@
       <c r="V207" s="2"/>
       <c r="W207" s="9"/>
     </row>
-    <row r="208" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F208" s="6"/>
       <c r="G208" s="6"/>
       <c r="H208" s="6"/>
@@ -14505,428 +13985,105 @@
       <c r="W334" s="9"/>
     </row>
     <row r="335" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F335" s="6"/>
-      <c r="G335" s="6"/>
-      <c r="H335" s="6"/>
-      <c r="I335" s="6"/>
-      <c r="J335" s="7"/>
-      <c r="K335" s="7"/>
-      <c r="L335" s="7"/>
-      <c r="M335" s="7"/>
-      <c r="N335" s="7"/>
-      <c r="O335" s="7"/>
-      <c r="P335" s="7"/>
-      <c r="Q335" s="7"/>
-      <c r="R335" s="7"/>
-      <c r="S335" s="7"/>
-      <c r="T335" s="7"/>
-      <c r="U335" s="8"/>
-      <c r="V335" s="2"/>
-      <c r="W335" s="9"/>
+      <c r="W335" s="7"/>
     </row>
     <row r="336" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F336" s="6"/>
-      <c r="G336" s="6"/>
-      <c r="H336" s="6"/>
-      <c r="I336" s="6"/>
-      <c r="J336" s="7"/>
-      <c r="K336" s="7"/>
-      <c r="L336" s="7"/>
-      <c r="M336" s="7"/>
-      <c r="N336" s="7"/>
-      <c r="O336" s="7"/>
-      <c r="P336" s="7"/>
-      <c r="Q336" s="7"/>
-      <c r="R336" s="7"/>
-      <c r="S336" s="7"/>
-      <c r="T336" s="7"/>
-      <c r="U336" s="8"/>
-      <c r="V336" s="2"/>
-      <c r="W336" s="9"/>
-    </row>
-    <row r="337" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F337" s="6"/>
-      <c r="G337" s="6"/>
-      <c r="H337" s="6"/>
-      <c r="I337" s="6"/>
-      <c r="J337" s="7"/>
-      <c r="K337" s="7"/>
-      <c r="L337" s="7"/>
-      <c r="M337" s="7"/>
-      <c r="N337" s="7"/>
-      <c r="O337" s="7"/>
-      <c r="P337" s="7"/>
-      <c r="Q337" s="7"/>
-      <c r="R337" s="7"/>
-      <c r="S337" s="7"/>
-      <c r="T337" s="7"/>
-      <c r="U337" s="8"/>
-      <c r="V337" s="2"/>
-      <c r="W337" s="9"/>
-    </row>
-    <row r="338" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F338" s="6"/>
-      <c r="G338" s="6"/>
-      <c r="H338" s="6"/>
-      <c r="I338" s="6"/>
-      <c r="J338" s="7"/>
-      <c r="K338" s="7"/>
-      <c r="L338" s="7"/>
-      <c r="M338" s="7"/>
-      <c r="N338" s="7"/>
-      <c r="O338" s="7"/>
-      <c r="P338" s="7"/>
-      <c r="Q338" s="7"/>
-      <c r="R338" s="7"/>
-      <c r="S338" s="7"/>
-      <c r="T338" s="7"/>
-      <c r="U338" s="8"/>
-      <c r="V338" s="2"/>
-      <c r="W338" s="9"/>
-    </row>
-    <row r="339" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F339" s="6"/>
-      <c r="G339" s="6"/>
-      <c r="H339" s="6"/>
-      <c r="I339" s="6"/>
-      <c r="J339" s="7"/>
-      <c r="K339" s="7"/>
-      <c r="L339" s="7"/>
-      <c r="M339" s="7"/>
-      <c r="N339" s="7"/>
-      <c r="O339" s="7"/>
-      <c r="P339" s="7"/>
-      <c r="Q339" s="7"/>
-      <c r="R339" s="7"/>
-      <c r="S339" s="7"/>
-      <c r="T339" s="7"/>
-      <c r="U339" s="8"/>
-      <c r="V339" s="2"/>
-      <c r="W339" s="9"/>
-    </row>
-    <row r="340" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F340" s="6"/>
-      <c r="G340" s="6"/>
-      <c r="H340" s="6"/>
-      <c r="I340" s="6"/>
-      <c r="J340" s="7"/>
-      <c r="K340" s="7"/>
-      <c r="L340" s="7"/>
-      <c r="M340" s="7"/>
-      <c r="N340" s="7"/>
-      <c r="O340" s="7"/>
-      <c r="P340" s="7"/>
-      <c r="Q340" s="7"/>
-      <c r="R340" s="7"/>
-      <c r="S340" s="7"/>
-      <c r="T340" s="7"/>
-      <c r="U340" s="8"/>
-      <c r="V340" s="2"/>
-      <c r="W340" s="9"/>
-    </row>
-    <row r="341" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F341" s="6"/>
-      <c r="G341" s="6"/>
-      <c r="H341" s="6"/>
-      <c r="I341" s="6"/>
-      <c r="J341" s="7"/>
-      <c r="K341" s="7"/>
-      <c r="L341" s="7"/>
-      <c r="M341" s="7"/>
-      <c r="N341" s="7"/>
-      <c r="O341" s="7"/>
-      <c r="P341" s="7"/>
-      <c r="Q341" s="7"/>
-      <c r="R341" s="7"/>
-      <c r="S341" s="7"/>
-      <c r="T341" s="7"/>
-      <c r="U341" s="8"/>
-      <c r="V341" s="2"/>
-      <c r="W341" s="9"/>
-    </row>
-    <row r="342" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F342" s="6"/>
-      <c r="G342" s="6"/>
-      <c r="H342" s="6"/>
-      <c r="I342" s="6"/>
-      <c r="J342" s="7"/>
-      <c r="K342" s="7"/>
-      <c r="L342" s="7"/>
-      <c r="M342" s="7"/>
-      <c r="N342" s="7"/>
-      <c r="O342" s="7"/>
-      <c r="P342" s="7"/>
-      <c r="Q342" s="7"/>
-      <c r="R342" s="7"/>
-      <c r="S342" s="7"/>
-      <c r="T342" s="7"/>
-      <c r="U342" s="8"/>
-      <c r="V342" s="2"/>
-      <c r="W342" s="9"/>
-    </row>
-    <row r="343" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F343" s="6"/>
-      <c r="G343" s="6"/>
-      <c r="H343" s="6"/>
-      <c r="I343" s="6"/>
-      <c r="J343" s="7"/>
-      <c r="K343" s="7"/>
-      <c r="L343" s="7"/>
-      <c r="M343" s="7"/>
-      <c r="N343" s="7"/>
-      <c r="O343" s="7"/>
-      <c r="P343" s="7"/>
-      <c r="Q343" s="7"/>
-      <c r="R343" s="7"/>
-      <c r="S343" s="7"/>
-      <c r="T343" s="7"/>
-      <c r="U343" s="8"/>
-      <c r="V343" s="2"/>
-      <c r="W343" s="9"/>
-    </row>
-    <row r="344" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F344" s="6"/>
-      <c r="G344" s="6"/>
-      <c r="H344" s="6"/>
-      <c r="I344" s="6"/>
-      <c r="J344" s="7"/>
-      <c r="K344" s="7"/>
-      <c r="L344" s="7"/>
-      <c r="M344" s="7"/>
-      <c r="N344" s="7"/>
-      <c r="O344" s="7"/>
-      <c r="P344" s="7"/>
-      <c r="Q344" s="7"/>
-      <c r="R344" s="7"/>
-      <c r="S344" s="7"/>
-      <c r="T344" s="7"/>
-      <c r="U344" s="8"/>
-      <c r="V344" s="2"/>
-      <c r="W344" s="9"/>
-    </row>
-    <row r="345" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F345" s="6"/>
-      <c r="G345" s="6"/>
-      <c r="H345" s="6"/>
-      <c r="I345" s="6"/>
-      <c r="J345" s="7"/>
-      <c r="K345" s="7"/>
-      <c r="L345" s="7"/>
-      <c r="M345" s="7"/>
-      <c r="N345" s="7"/>
-      <c r="O345" s="7"/>
-      <c r="P345" s="7"/>
-      <c r="Q345" s="7"/>
-      <c r="R345" s="7"/>
-      <c r="S345" s="7"/>
-      <c r="T345" s="7"/>
-      <c r="U345" s="8"/>
-      <c r="V345" s="2"/>
-      <c r="W345" s="9"/>
-    </row>
-    <row r="346" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F346" s="6"/>
-      <c r="G346" s="6"/>
-      <c r="H346" s="6"/>
-      <c r="I346" s="6"/>
-      <c r="J346" s="7"/>
-      <c r="K346" s="7"/>
-      <c r="L346" s="7"/>
-      <c r="M346" s="7"/>
-      <c r="N346" s="7"/>
-      <c r="O346" s="7"/>
-      <c r="P346" s="7"/>
-      <c r="Q346" s="7"/>
-      <c r="R346" s="7"/>
-      <c r="S346" s="7"/>
-      <c r="T346" s="7"/>
-      <c r="U346" s="8"/>
-      <c r="V346" s="2"/>
-      <c r="W346" s="9"/>
-    </row>
-    <row r="347" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F347" s="6"/>
-      <c r="G347" s="6"/>
-      <c r="H347" s="6"/>
-      <c r="I347" s="6"/>
-      <c r="J347" s="7"/>
-      <c r="K347" s="7"/>
-      <c r="L347" s="7"/>
-      <c r="M347" s="7"/>
-      <c r="N347" s="7"/>
-      <c r="O347" s="7"/>
-      <c r="P347" s="7"/>
-      <c r="Q347" s="7"/>
-      <c r="R347" s="7"/>
-      <c r="S347" s="7"/>
-      <c r="T347" s="7"/>
-      <c r="U347" s="8"/>
-      <c r="V347" s="2"/>
-      <c r="W347" s="9"/>
-    </row>
-    <row r="348" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F348" s="6"/>
-      <c r="G348" s="6"/>
-      <c r="H348" s="6"/>
-      <c r="I348" s="6"/>
-      <c r="J348" s="7"/>
-      <c r="K348" s="7"/>
-      <c r="L348" s="7"/>
-      <c r="M348" s="7"/>
-      <c r="N348" s="7"/>
-      <c r="O348" s="7"/>
-      <c r="P348" s="7"/>
-      <c r="Q348" s="7"/>
-      <c r="R348" s="7"/>
-      <c r="S348" s="7"/>
-      <c r="T348" s="7"/>
-      <c r="U348" s="8"/>
-      <c r="V348" s="2"/>
-      <c r="W348" s="9"/>
-    </row>
-    <row r="349" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F349" s="6"/>
-      <c r="G349" s="6"/>
-      <c r="H349" s="6"/>
-      <c r="I349" s="6"/>
-      <c r="J349" s="7"/>
-      <c r="K349" s="7"/>
-      <c r="L349" s="7"/>
-      <c r="M349" s="7"/>
-      <c r="N349" s="7"/>
-      <c r="O349" s="7"/>
-      <c r="P349" s="7"/>
-      <c r="Q349" s="7"/>
-      <c r="R349" s="7"/>
-      <c r="S349" s="7"/>
-      <c r="T349" s="7"/>
-      <c r="U349" s="8"/>
-      <c r="V349" s="2"/>
-      <c r="W349" s="9"/>
-    </row>
-    <row r="350" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F350" s="6"/>
-      <c r="G350" s="6"/>
-      <c r="H350" s="6"/>
-      <c r="I350" s="6"/>
-      <c r="J350" s="7"/>
-      <c r="K350" s="7"/>
-      <c r="L350" s="7"/>
-      <c r="M350" s="7"/>
-      <c r="N350" s="7"/>
-      <c r="O350" s="7"/>
-      <c r="P350" s="7"/>
-      <c r="Q350" s="7"/>
-      <c r="R350" s="7"/>
-      <c r="S350" s="7"/>
-      <c r="T350" s="7"/>
-      <c r="U350" s="8"/>
-      <c r="V350" s="2"/>
-      <c r="W350" s="9"/>
-    </row>
-    <row r="351" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F351" s="6"/>
-      <c r="G351" s="6"/>
-      <c r="H351" s="6"/>
-      <c r="I351" s="6"/>
-      <c r="J351" s="7"/>
-      <c r="K351" s="7"/>
-      <c r="L351" s="7"/>
-      <c r="M351" s="7"/>
-      <c r="N351" s="7"/>
-      <c r="O351" s="7"/>
-      <c r="P351" s="7"/>
-      <c r="Q351" s="7"/>
-      <c r="R351" s="7"/>
-      <c r="S351" s="7"/>
-      <c r="T351" s="7"/>
-      <c r="U351" s="8"/>
-      <c r="V351" s="2"/>
-      <c r="W351" s="9"/>
-    </row>
-    <row r="352" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F352" s="6"/>
-      <c r="G352" s="6"/>
-      <c r="H352" s="6"/>
-      <c r="I352" s="6"/>
-      <c r="J352" s="7"/>
-      <c r="K352" s="7"/>
-      <c r="L352" s="7"/>
-      <c r="M352" s="7"/>
-      <c r="N352" s="7"/>
-      <c r="O352" s="7"/>
-      <c r="P352" s="7"/>
-      <c r="Q352" s="7"/>
-      <c r="R352" s="7"/>
-      <c r="S352" s="7"/>
-      <c r="T352" s="7"/>
-      <c r="U352" s="8"/>
-      <c r="V352" s="2"/>
-      <c r="W352" s="9"/>
-    </row>
-    <row r="353" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F353" s="6"/>
-      <c r="G353" s="6"/>
-      <c r="H353" s="6"/>
-      <c r="I353" s="6"/>
-      <c r="J353" s="7"/>
-      <c r="K353" s="7"/>
-      <c r="L353" s="7"/>
-      <c r="M353" s="7"/>
-      <c r="N353" s="7"/>
-      <c r="O353" s="7"/>
-      <c r="P353" s="7"/>
-      <c r="Q353" s="7"/>
-      <c r="R353" s="7"/>
-      <c r="S353" s="7"/>
-      <c r="T353" s="7"/>
-      <c r="U353" s="8"/>
-      <c r="V353" s="2"/>
-      <c r="W353" s="9"/>
-    </row>
-    <row r="354" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W336" s="7"/>
+    </row>
+    <row r="337" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W337" s="7"/>
+    </row>
+    <row r="338" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W338" s="7"/>
+    </row>
+    <row r="339" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W339" s="7"/>
+    </row>
+    <row r="340" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W340" s="7"/>
+    </row>
+    <row r="341" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W341" s="7"/>
+    </row>
+    <row r="342" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W342" s="7"/>
+    </row>
+    <row r="343" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W343" s="7"/>
+    </row>
+    <row r="344" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W344" s="7"/>
+    </row>
+    <row r="345" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W345" s="7"/>
+    </row>
+    <row r="346" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W346" s="7"/>
+    </row>
+    <row r="347" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W347" s="7"/>
+    </row>
+    <row r="348" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W348" s="7"/>
+    </row>
+    <row r="349" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W349" s="7"/>
+    </row>
+    <row r="350" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W350" s="7"/>
+    </row>
+    <row r="351" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W351" s="7"/>
+    </row>
+    <row r="352" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W352" s="7"/>
+    </row>
+    <row r="353" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W353" s="7"/>
+    </row>
+    <row r="354" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W354" s="7"/>
     </row>
-    <row r="355" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W355" s="7"/>
     </row>
-    <row r="356" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W356" s="7"/>
     </row>
-    <row r="357" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W357" s="7"/>
     </row>
-    <row r="358" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W358" s="7"/>
     </row>
-    <row r="359" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W359" s="7"/>
     </row>
-    <row r="360" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W360" s="7"/>
     </row>
-    <row r="361" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W361" s="7"/>
     </row>
-    <row r="362" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W362" s="7"/>
     </row>
-    <row r="363" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W363" s="7"/>
     </row>
-    <row r="364" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W364" s="7"/>
     </row>
-    <row r="365" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W365" s="7"/>
     </row>
-    <row r="366" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W366" s="7"/>
     </row>
-    <row r="367" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W367" s="7"/>
     </row>
-    <row r="368" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W368" s="7"/>
     </row>
     <row r="369" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16078,75 +15235,21 @@
     <row r="751" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W751" s="7"/>
     </row>
-    <row r="752" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W752" s="7"/>
-    </row>
-    <row r="753" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W753" s="7"/>
-    </row>
-    <row r="754" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W754" s="7"/>
-    </row>
-    <row r="755" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W755" s="7"/>
-    </row>
-    <row r="756" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W756" s="7"/>
-    </row>
-    <row r="757" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W757" s="7"/>
-    </row>
-    <row r="758" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W758" s="7"/>
-    </row>
-    <row r="759" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W759" s="7"/>
-    </row>
-    <row r="760" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W760" s="7"/>
-    </row>
-    <row r="761" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W761" s="7"/>
-    </row>
-    <row r="762" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W762" s="7"/>
-    </row>
-    <row r="763" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W763" s="7"/>
-    </row>
-    <row r="764" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W764" s="7"/>
-    </row>
-    <row r="765" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W765" s="7"/>
-    </row>
-    <row r="766" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W766" s="7"/>
-    </row>
-    <row r="767" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W767" s="7"/>
-    </row>
-    <row r="768" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W768" s="7"/>
-    </row>
-    <row r="769" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W769" s="7"/>
-    </row>
-    <row r="770" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W770" s="7"/>
-    </row>
-    <row r="771" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A9:W200" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
-  <mergeCells count="4">
+  <autoFilter ref="A9:W191" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <mergeCells count="7">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="A3:B5"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -16162,19 +15265,19 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>M30:N183 M14:N14 P14:R14 M186:N198 M16:N20 P16:R20 P30:R183 M22:N22 P22:R22 M24:N28 P24:R28 P10:R12 M10:N12 J186:J200 J10:J183 P186:R198</xm:sqref>
+          <xm:sqref>J14 M14:N14 P14:R14 J16:J20 M16:N20 P16:R20 J22 M22:N22 P22:R22 J24:J28 M24:N28 P24:R28 P10:R12 M10:N12 J10:J12 M168:N180 P168:R180 M148:N165 J148:J165 J168:J180 P30:R132 J30:J132 M30:N132 P148:R165</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{70793024-27E9-4E6A-BACD-083AB683BC38}">
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>T14 T16:T20 T22 T24:T28 T10:T12 T30:T183 T186:T198</xm:sqref>
+          <xm:sqref>T14 T16:T20 T22 T24:T28 T10:T12 T168:T180 T30:T132 T148:T165</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3DE61C5E-9DA3-4CE3-A1FF-8FBE651EA6B5}">
           <x14:formula1>
             <xm:f>'LISTA VALORI'!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>K10:K183 K186:K198</xm:sqref>
+          <xm:sqref>K168:K180 K10:K12 K14:K20 K22:K28 K30:K132 K148:K165</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -16194,42 +15297,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -16246,7 +15349,7 @@
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16262,22 +15365,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
-        <v>313</v>
+        <v>278</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>450</v>
+        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16285,13 +15388,13 @@
         <v>35</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>447</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>255</v>
+        <v>403</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16299,13 +15402,13 @@
         <v>37</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>414</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>256</v>
+        <v>370</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16313,13 +15416,13 @@
         <v>38</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="C4" s="12">
         <v>446.447</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>257</v>
+      <c r="D4" s="42" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16327,13 +15430,13 @@
         <v>41</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>418</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>258</v>
+        <v>374</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16341,13 +15444,13 @@
         <v>42</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>417</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>259</v>
+        <v>373</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -16355,13 +15458,13 @@
         <v>43</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>260</v>
+        <v>372</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -16369,13 +15472,13 @@
         <v>51</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>413</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>449</v>
+        <v>369</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -16383,45 +15486,49 @@
         <v>48</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>261</v>
+        <v>248</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>264</v>
+        <v>230</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>404</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="43"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="43"/>
+    </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17402,7 +16509,7 @@
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>66</v>
@@ -17410,10 +16517,10 @@
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -18430,6 +17537,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -18438,20 +17557,11 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ca719f03-9e45-4ef4-9920-d156f53157f2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100F560B38A5B3C4B41B1895754B1F1A56A" ma:contentTypeVersion="9" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="69dc0f489d46816a4b9bb4a327e14425">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ca719f03-9e45-4ef4-9920-d156f53157f2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7de9a44ff87fdcabda187bbd662e75de" ns2:_="">
-    <xsd:import namespace="ca719f03-9e45-4ef4-9920-d156f53157f2"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
+    <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <xsd:import namespace="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -18460,12 +17570,21 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:UserStoryALM" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -18473,7 +17592,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ca719f03-9e45-4ef4-9920-d156f53157f2" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1e76d14e-d0ce-457c-8343-9b55836d9ead" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -18486,38 +17605,114 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="15" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="16" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="18" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="6d165d17-9b79-46c3-82b9-c927e733c429" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="12" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="22" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="23" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="24" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="UserStoryALM" ma:index="25" nillable="true" ma:displayName="UserStory ALM" ma:format="Dropdown" ma:internalName="UserStoryALM">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Choice">
+          <xsd:enumeration value="137048 - Stesura checklist RAP"/>
+          <xsd:enumeration value="137049 - Sviluppo testcase RAP"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a56712a3-8dfd-4688-917a-22f0cf513b89" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="19" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c488629b-a647-4465-8bb2-a216a95770f0}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="a56712a3-8dfd-4688-917a-22f0cf513b89">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="20" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="21" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="15" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="16" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -18530,8 +17725,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -18621,6 +17816,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -18628,32 +17840,15 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="ca719f03-9e45-4ef4-9920-d156f53157f2"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61CEF28A-E0A2-4D9D-9130-F7D0F35034F1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CE213DB-5082-48B0-B2A5-099EBF944035}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ca719f03-9e45-4ef4-9920-d156f53157f2"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -18666,7 +17861,6 @@
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>
-  <clbl:label id="{fbf47bbe-a0a2-4c04-9ba4-22f94012202d}" enabled="1" method="Standard" siteId="{69602cf4-a76e-4265-955f-03c329c50608}" contentBits="2" removed="0"/>
+  <clbl:label id="{fbf47bbe-a0a2-4c04-9ba4-22f94012202d}" enabled="1" method="Standard" siteId="{69602cf4-a76e-4265-955f-03c329c50608}" removed="0"/>
 </clbl:labelList>
 </file>
--- a/GATEWAY/A1#200000SWHCGMXX/COMPUGROUP_MEDICAL_ITALIA_S.R.L/INFANTIA/6.06/report-checklist.xlsx
+++ b/GATEWAY/A1#200000SWHCGMXX/COMPUGROUP_MEDICAL_ITALIA_S.R.L/INFANTIA/6.06/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cgm01-my.sharepoint.com/personal/domenico_depinto_cgm_com/Documents/Desktop/validazione/Caricamento SMART/INFANTIA/DA CARICARE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="514" documentId="13_ncr:1_{8E096896-1A5D-440F-9CDB-C984B19F7421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50DEA7C5-8312-4108-B9D6-666E87DA5E9C}"/>
+  <xr:revisionPtr revIDLastSave="522" documentId="13_ncr:1_{8E096896-1A5D-440F-9CDB-C984B19F7421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{865A9557-E06C-4A33-9184-995F70966FD0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1779,16 +1779,16 @@
     <t>Non è possibile valorizzare il codice in questione con un valore diverso da S quindi l'utente non può mai incorrere in questo errore / scenario</t>
   </si>
   <si>
-    <t>2025-04-24T04:51:00Z</t>
-  </si>
-  <si>
-    <t>12c0b3518fe181acb922d5d6560416db</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190201.4.4.9eb93602b302c324f7f812128a82974ebc215f451cdf850428e498734718fded.5443f12a00^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>Come da email del 13/01/2025 di Segreteria Tecnica FSE - Andrea Di Pietra con oggetto Oggetto: FSE 2.0 - Richiesta di sollecito accreditamento applicativi (cha ha superato il Test 0) , dove si specifica che "il superamento della fase 1 del processo di accreditamento è ritenuto valido se l’applicativo supera almeno il caso di test 1, tra quelli attualmente previsti per il Profilo Sanitario Sintetico sul sito di GitHub Test Case Profilo Sanitario Sintetico."</t>
+  </si>
+  <si>
+    <t>2025-05-13T11:34:35Z</t>
+  </si>
+  <si>
+    <t>9db0fccf0d4b2ad89533746e6eabfd91</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190201.4.4.9eb93602b302c324f7f812128a82974ebc215f451cdf850428e498734718fded.ada1865e99^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2462,6 +2462,27 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2483,27 +2504,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2581,6 +2581,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3956,10 +3960,10 @@
   <dimension ref="A1:W755"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E155" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="D137" sqref="D137"/>
+      <selection pane="bottomRight" activeCell="I170" sqref="I170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4001,12 +4005,12 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="48"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="55"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -4027,14 +4031,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="56" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="63" t="s">
         <v>437</v>
       </c>
-      <c r="D3" s="48"/>
+      <c r="D3" s="55"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -4055,12 +4059,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="56" t="s">
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="63" t="s">
         <v>438</v>
       </c>
-      <c r="D4" s="48"/>
+      <c r="D4" s="55"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -4082,12 +4086,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="56" t="s">
+      <c r="A5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="63" t="s">
         <v>439</v>
       </c>
-      <c r="D5" s="48"/>
+      <c r="D5" s="55"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -4108,8 +4112,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="46"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -8945,7 +8949,7 @@
       <c r="K135" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="L135" s="57" t="s">
+      <c r="L135" s="45" t="s">
         <v>445</v>
       </c>
       <c r="M135" s="38"/>
@@ -8988,7 +8992,7 @@
       <c r="K136" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="L136" s="57" t="s">
+      <c r="L136" s="45" t="s">
         <v>446</v>
       </c>
       <c r="M136" s="38"/>
@@ -9031,7 +9035,7 @@
       <c r="K137" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="L137" s="57" t="s">
+      <c r="L137" s="45" t="s">
         <v>447</v>
       </c>
       <c r="M137" s="38"/>
@@ -9074,7 +9078,7 @@
       <c r="K138" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="L138" s="57" t="s">
+      <c r="L138" s="45" t="s">
         <v>448</v>
       </c>
       <c r="M138" s="38"/>
@@ -9117,7 +9121,7 @@
       <c r="K139" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="L139" s="57" t="s">
+      <c r="L139" s="45" t="s">
         <v>449</v>
       </c>
       <c r="M139" s="38"/>
@@ -9160,7 +9164,7 @@
       <c r="K140" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="L140" s="57" t="s">
+      <c r="L140" s="45" t="s">
         <v>450</v>
       </c>
       <c r="M140" s="38"/>
@@ -9203,7 +9207,7 @@
       <c r="K141" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="L141" s="57" t="s">
+      <c r="L141" s="45" t="s">
         <v>451</v>
       </c>
       <c r="M141" s="38"/>
@@ -9246,7 +9250,7 @@
       <c r="K142" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="L142" s="57" t="s">
+      <c r="L142" s="45" t="s">
         <v>452</v>
       </c>
       <c r="M142" s="38"/>
@@ -9289,7 +9293,7 @@
       <c r="K143" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="L143" s="57" t="s">
+      <c r="L143" s="45" t="s">
         <v>453</v>
       </c>
       <c r="M143" s="38"/>
@@ -9332,7 +9336,7 @@
       <c r="K144" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="L144" s="57" t="s">
+      <c r="L144" s="45" t="s">
         <v>454</v>
       </c>
       <c r="M144" s="38"/>
@@ -9375,7 +9379,7 @@
       <c r="K145" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="L145" s="57" t="s">
+      <c r="L145" s="45" t="s">
         <v>455</v>
       </c>
       <c r="M145" s="38"/>
@@ -9418,7 +9422,7 @@
       <c r="K146" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="L146" s="57" t="s">
+      <c r="L146" s="45" t="s">
         <v>456</v>
       </c>
       <c r="M146" s="38"/>
@@ -9461,7 +9465,7 @@
       <c r="K147" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="L147" s="57" t="s">
+      <c r="L147" s="45" t="s">
         <v>457</v>
       </c>
       <c r="M147" s="38"/>
@@ -9504,7 +9508,7 @@
       <c r="K148" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="L148" s="57" t="s">
+      <c r="L148" s="45" t="s">
         <v>458</v>
       </c>
       <c r="M148" s="38"/>
@@ -10203,34 +10207,34 @@
       <c r="E167" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="F167" s="58">
-        <v>45771</v>
-      </c>
-      <c r="G167" s="59" t="s">
-        <v>459</v>
-      </c>
-      <c r="H167" s="59" t="s">
+      <c r="F167" s="46">
+        <v>45790</v>
+      </c>
+      <c r="G167" s="47" t="s">
         <v>460</v>
       </c>
-      <c r="I167" s="59" t="s">
+      <c r="H167" s="47" t="s">
         <v>461</v>
       </c>
-      <c r="J167" s="60" t="s">
+      <c r="I167" s="47" t="s">
+        <v>462</v>
+      </c>
+      <c r="J167" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="K167" s="60"/>
-      <c r="L167" s="60"/>
-      <c r="M167" s="60"/>
-      <c r="N167" s="60"/>
-      <c r="O167" s="60"/>
-      <c r="P167" s="60"/>
-      <c r="Q167" s="60"/>
-      <c r="R167" s="60"/>
-      <c r="S167" s="60"/>
-      <c r="T167" s="60"/>
-      <c r="U167" s="61"/>
-      <c r="V167" s="62"/>
-      <c r="W167" s="63" t="s">
+      <c r="K167" s="48"/>
+      <c r="L167" s="48"/>
+      <c r="M167" s="48"/>
+      <c r="N167" s="48"/>
+      <c r="O167" s="48"/>
+      <c r="P167" s="48"/>
+      <c r="Q167" s="48"/>
+      <c r="R167" s="48"/>
+      <c r="S167" s="48"/>
+      <c r="T167" s="48"/>
+      <c r="U167" s="49"/>
+      <c r="V167" s="50"/>
+      <c r="W167" s="51" t="s">
         <v>36</v>
       </c>
     </row>
@@ -10261,7 +10265,7 @@
         <v>243</v>
       </c>
       <c r="L168" s="38" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="M168" s="38"/>
       <c r="N168" s="38"/>
@@ -11044,7 +11048,7 @@
         <v>243</v>
       </c>
       <c r="L189" s="38" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="M189" s="35"/>
       <c r="N189" s="35"/>

--- a/GATEWAY/A1#200000SWHCGMXX/COMPUGROUP_MEDICAL_ITALIA_S.R.L/INFANTIA/6.06/report-checklist.xlsx
+++ b/GATEWAY/A1#200000SWHCGMXX/COMPUGROUP_MEDICAL_ITALIA_S.R.L/INFANTIA/6.06/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cgm01-my.sharepoint.com/personal/domenico_depinto_cgm_com/Documents/Desktop/validazione/Caricamento SMART/INFANTIA/DA CARICARE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniele.Romanazzi\Downloads\invio 16 maggio 2025\invio 16 maggio 2025\INFANTIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="522" documentId="13_ncr:1_{8E096896-1A5D-440F-9CDB-C984B19F7421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{865A9557-E06C-4A33-9184-995F70966FD0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BF94CC-CF71-4D83-8F8C-350F2070FE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="464">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1734,9 +1734,6 @@
     <t>Il medico clicca su "OK" sulla finestra di errore quindi può ritentare l'invio</t>
   </si>
   <si>
-    <t>Non eseguito</t>
-  </si>
-  <si>
     <t>Il nostro sw non permette di incorrere in questo caso in quanto anche se assenti in cartella clinica la città di residenza/domicilio del paziente il campo "city" viene sempre inviato vuoto essendo obbligatorio</t>
   </si>
   <si>
@@ -1782,13 +1779,19 @@
     <t>Come da email del 13/01/2025 di Segreteria Tecnica FSE - Andrea Di Pietra con oggetto Oggetto: FSE 2.0 - Richiesta di sollecito accreditamento applicativi (cha ha superato il Test 0) , dove si specifica che "il superamento della fase 1 del processo di accreditamento è ritenuto valido se l’applicativo supera almeno il caso di test 1, tra quelli attualmente previsti per il Profilo Sanitario Sintetico sul sito di GitHub Test Case Profilo Sanitario Sintetico."</t>
   </si>
   <si>
-    <t>2025-05-13T11:34:35Z</t>
-  </si>
-  <si>
-    <t>9db0fccf0d4b2ad89533746e6eabfd91</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190201.4.4.9eb93602b302c324f7f812128a82974ebc215f451cdf850428e498734718fded.ada1865e99^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>Il nostro sw non permette all'utente di poter evitare di inserire il livello di riservatezza in quanto il dato è obbligatorio e di default valorizzato a "N"</t>
+  </si>
+  <si>
+    <t>2025-05-15T05:44:51Z</t>
+  </si>
+  <si>
+    <t>948e5df2680bf85e6b707e16fd1f1b8a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190201.4.4.9eb93602b302c324f7f812128a82974ebc215f451cdf850428e498734718fded.89ddb16471^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Il nostro sw non permette di inviare un CF paziente non conforme o con caratteri minuscoli</t>
   </si>
 </sst>
 </file>
@@ -2581,10 +2584,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3960,10 +3959,10 @@
   <dimension ref="A1:W755"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E155" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F128" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I170" sqref="I170"/>
+      <selection pane="bottomRight" activeCell="L134" sqref="L134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8906,8 +8905,8 @@
       <c r="K134" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="L134" s="38" t="s">
-        <v>444</v>
+      <c r="L134" t="s">
+        <v>463</v>
       </c>
       <c r="M134" s="38"/>
       <c r="N134" s="38"/>
@@ -8950,7 +8949,7 @@
         <v>243</v>
       </c>
       <c r="L135" s="45" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="M135" s="38"/>
       <c r="N135" s="38"/>
@@ -8993,7 +8992,7 @@
         <v>243</v>
       </c>
       <c r="L136" s="45" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="M136" s="38"/>
       <c r="N136" s="38"/>
@@ -9036,7 +9035,7 @@
         <v>243</v>
       </c>
       <c r="L137" s="45" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="M137" s="38"/>
       <c r="N137" s="38"/>
@@ -9079,7 +9078,7 @@
         <v>243</v>
       </c>
       <c r="L138" s="45" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M138" s="38"/>
       <c r="N138" s="38"/>
@@ -9122,7 +9121,7 @@
         <v>243</v>
       </c>
       <c r="L139" s="45" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M139" s="38"/>
       <c r="N139" s="38"/>
@@ -9165,7 +9164,7 @@
         <v>243</v>
       </c>
       <c r="L140" s="45" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="M140" s="38"/>
       <c r="N140" s="38"/>
@@ -9208,7 +9207,7 @@
         <v>243</v>
       </c>
       <c r="L141" s="45" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="M141" s="38"/>
       <c r="N141" s="38"/>
@@ -9251,7 +9250,7 @@
         <v>243</v>
       </c>
       <c r="L142" s="45" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M142" s="38"/>
       <c r="N142" s="38"/>
@@ -9294,7 +9293,7 @@
         <v>243</v>
       </c>
       <c r="L143" s="45" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="M143" s="38"/>
       <c r="N143" s="38"/>
@@ -9337,7 +9336,7 @@
         <v>243</v>
       </c>
       <c r="L144" s="45" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M144" s="38"/>
       <c r="N144" s="38"/>
@@ -9380,7 +9379,7 @@
         <v>243</v>
       </c>
       <c r="L145" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="M145" s="38"/>
       <c r="N145" s="38"/>
@@ -9423,7 +9422,7 @@
         <v>243</v>
       </c>
       <c r="L146" s="45" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M146" s="38"/>
       <c r="N146" s="38"/>
@@ -9466,7 +9465,7 @@
         <v>243</v>
       </c>
       <c r="L147" s="45" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="M147" s="38"/>
       <c r="N147" s="38"/>
@@ -9509,7 +9508,7 @@
         <v>243</v>
       </c>
       <c r="L148" s="45" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M148" s="38"/>
       <c r="N148" s="38"/>
@@ -10208,7 +10207,7 @@
         <v>247</v>
       </c>
       <c r="F167" s="46">
-        <v>45790</v>
+        <v>45792</v>
       </c>
       <c r="G167" s="47" t="s">
         <v>460</v>
@@ -10265,7 +10264,7 @@
         <v>243</v>
       </c>
       <c r="L168" s="38" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M168" s="38"/>
       <c r="N168" s="38"/>
@@ -11047,7 +11046,7 @@
       <c r="K189" s="35" t="s">
         <v>243</v>
       </c>
-      <c r="L189" s="38" t="s">
+      <c r="L189" t="s">
         <v>459</v>
       </c>
       <c r="M189" s="35"/>
@@ -17548,18 +17547,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -17817,6 +17804,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -17827,23 +17826,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CE213DB-5082-48B0-B2A5-099EBF944035}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17862,6 +17844,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
